--- a/documents/model_list.xlsx
+++ b/documents/model_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Nextchip\JARVIS\Minions\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nextchip\Minions\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABD34B9-2029-4041-8BBE-DFDED2938C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44FD042-6021-49BB-A90A-24240E9347EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" activeTab="1" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C7FE6C-004D-4BC2-ACD3-A945594646EF}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1599,7 +1599,7 @@
         <v>9.4437999999999995</v>
       </c>
       <c r="M2">
-        <v>160</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -1616,6 +1616,9 @@
       <c r="D3">
         <v>0.65100000000000002</v>
       </c>
+      <c r="M3">
+        <v>50.21</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -1631,6 +1634,9 @@
       <c r="D4">
         <v>0.63600000000000001</v>
       </c>
+      <c r="M4">
+        <v>55.72</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -1646,6 +1652,9 @@
       <c r="D5">
         <v>0.629</v>
       </c>
+      <c r="M5">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -1686,7 +1695,7 @@
         <v>5.1485000000000003</v>
       </c>
       <c r="M6">
-        <v>160</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -1703,6 +1712,9 @@
       <c r="D7">
         <v>0.64800000000000002</v>
       </c>
+      <c r="M7">
+        <v>56.57</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -1743,7 +1755,7 @@
         <v>5.6660000000000004</v>
       </c>
       <c r="M8">
-        <v>160</v>
+        <v>74.63</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1785,7 +1797,7 @@
         <v>5.0006000000000004</v>
       </c>
       <c r="M9">
-        <v>160</v>
+        <v>77.989999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -1827,7 +1839,7 @@
         <v>2.4630000000000001</v>
       </c>
       <c r="M10">
-        <v>160</v>
+        <v>205.83</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1869,7 +1881,7 @@
         <v>3.0562999999999998</v>
       </c>
       <c r="M11">
-        <v>160</v>
+        <v>137.4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -1911,7 +1923,7 @@
         <v>2.6810999999999998</v>
       </c>
       <c r="M12">
-        <v>160</v>
+        <v>166.31</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1953,7 +1965,7 @@
         <v>3.0068000000000001</v>
       </c>
       <c r="M13">
-        <v>160</v>
+        <v>166.51</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1995,7 +2007,7 @@
         <v>3.4424999999999999</v>
       </c>
       <c r="M14">
-        <v>160</v>
+        <v>145.05000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -2037,7 +2049,7 @@
         <v>2.5430000000000001</v>
       </c>
       <c r="M15">
-        <v>160</v>
+        <v>144.69</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -2079,7 +2091,7 @@
         <v>2.4489999999999998</v>
       </c>
       <c r="M16">
-        <v>160</v>
+        <v>146.47999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -2121,7 +2133,7 @@
         <v>2.6960999999999999</v>
       </c>
       <c r="M17">
-        <v>160</v>
+        <v>140.46</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -2163,7 +2175,7 @@
         <v>2.7317999999999998</v>
       </c>
       <c r="M18">
-        <v>160</v>
+        <v>190.68</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -2180,6 +2192,9 @@
       <c r="D19">
         <v>0.5504</v>
       </c>
+      <c r="M19">
+        <v>190.63</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
@@ -2195,6 +2210,9 @@
       <c r="D20">
         <v>0.54900000000000004</v>
       </c>
+      <c r="M20">
+        <v>176.95</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -2235,7 +2253,7 @@
         <v>2.6278999999999999</v>
       </c>
       <c r="M21">
-        <v>160</v>
+        <v>201.41</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -2276,9 +2294,6 @@
       <c r="L22">
         <v>2.6855000000000002</v>
       </c>
-      <c r="M22">
-        <v>160</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -2319,7 +2334,7 @@
         <v>2.79</v>
       </c>
       <c r="M23">
-        <v>160</v>
+        <v>139.61000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -2361,7 +2376,7 @@
         <v>2.6879</v>
       </c>
       <c r="M24">
-        <v>160</v>
+        <v>196.89</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -2402,9 +2417,6 @@
       <c r="L25">
         <v>2.5041000000000002</v>
       </c>
-      <c r="M25">
-        <v>160</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
@@ -2445,7 +2457,7 @@
         <v>4.4893999999999998</v>
       </c>
       <c r="M26">
-        <v>160</v>
+        <v>74.86</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -2487,7 +2499,7 @@
         <v>2.4116</v>
       </c>
       <c r="M27">
-        <v>160</v>
+        <v>217.43</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -2529,7 +2541,7 @@
         <v>2.738</v>
       </c>
       <c r="M28">
-        <v>160</v>
+        <v>191.44</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -2571,7 +2583,7 @@
         <v>2.9041999999999999</v>
       </c>
       <c r="M29">
-        <v>160</v>
+        <v>179.63</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -2613,7 +2625,7 @@
         <v>5.1547000000000001</v>
       </c>
       <c r="M30">
-        <v>160</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">

--- a/documents/model_list.xlsx
+++ b/documents/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Nextchip\JARVIS\Minions\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABD34B9-2029-4041-8BBE-DFDED2938C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651EF506-F03C-4780-9277-FA384FA508A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" activeTab="1" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
   </bookViews>
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C7FE6C-004D-4BC2-ACD3-A945594646EF}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1599,7 +1599,7 @@
         <v>9.4437999999999995</v>
       </c>
       <c r="M2">
-        <v>160</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -1616,6 +1616,9 @@
       <c r="D3">
         <v>0.65100000000000002</v>
       </c>
+      <c r="M3">
+        <v>50.21</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -1631,6 +1634,9 @@
       <c r="D4">
         <v>0.63600000000000001</v>
       </c>
+      <c r="M4">
+        <v>55.72</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -1646,6 +1652,9 @@
       <c r="D5">
         <v>0.629</v>
       </c>
+      <c r="M5">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -1686,7 +1695,7 @@
         <v>5.1485000000000003</v>
       </c>
       <c r="M6">
-        <v>160</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -1703,6 +1712,9 @@
       <c r="D7">
         <v>0.64800000000000002</v>
       </c>
+      <c r="M7">
+        <v>56.57</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -1743,7 +1755,7 @@
         <v>5.6660000000000004</v>
       </c>
       <c r="M8">
-        <v>160</v>
+        <v>74.63</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1785,7 +1797,7 @@
         <v>5.0006000000000004</v>
       </c>
       <c r="M9">
-        <v>160</v>
+        <v>77.989999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -1827,7 +1839,7 @@
         <v>2.4630000000000001</v>
       </c>
       <c r="M10">
-        <v>160</v>
+        <v>205.83</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1869,7 +1881,7 @@
         <v>3.0562999999999998</v>
       </c>
       <c r="M11">
-        <v>160</v>
+        <v>137.4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -1911,7 +1923,7 @@
         <v>2.6810999999999998</v>
       </c>
       <c r="M12">
-        <v>160</v>
+        <v>166.31</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1953,7 +1965,7 @@
         <v>3.0068000000000001</v>
       </c>
       <c r="M13">
-        <v>160</v>
+        <v>166.51</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1995,7 +2007,7 @@
         <v>3.4424999999999999</v>
       </c>
       <c r="M14">
-        <v>160</v>
+        <v>145.05000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -2037,7 +2049,7 @@
         <v>2.5430000000000001</v>
       </c>
       <c r="M15">
-        <v>160</v>
+        <v>144.69</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -2079,7 +2091,7 @@
         <v>2.4489999999999998</v>
       </c>
       <c r="M16">
-        <v>160</v>
+        <v>146.47999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -2121,7 +2133,7 @@
         <v>2.6960999999999999</v>
       </c>
       <c r="M17">
-        <v>160</v>
+        <v>140.46</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -2163,7 +2175,7 @@
         <v>2.7317999999999998</v>
       </c>
       <c r="M18">
-        <v>160</v>
+        <v>190.68</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -2180,6 +2192,9 @@
       <c r="D19">
         <v>0.5504</v>
       </c>
+      <c r="M19">
+        <v>190.63</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
@@ -2195,6 +2210,9 @@
       <c r="D20">
         <v>0.54900000000000004</v>
       </c>
+      <c r="M20">
+        <v>176.95</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -2235,7 +2253,7 @@
         <v>2.6278999999999999</v>
       </c>
       <c r="M21">
-        <v>160</v>
+        <v>201.41</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -2276,9 +2294,6 @@
       <c r="L22">
         <v>2.6855000000000002</v>
       </c>
-      <c r="M22">
-        <v>160</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -2319,7 +2334,7 @@
         <v>2.79</v>
       </c>
       <c r="M23">
-        <v>160</v>
+        <v>139.61000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -2361,7 +2376,7 @@
         <v>2.6879</v>
       </c>
       <c r="M24">
-        <v>160</v>
+        <v>196.89</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -2402,9 +2417,6 @@
       <c r="L25">
         <v>2.5041000000000002</v>
       </c>
-      <c r="M25">
-        <v>160</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
@@ -2445,7 +2457,7 @@
         <v>4.4893999999999998</v>
       </c>
       <c r="M26">
-        <v>160</v>
+        <v>74.86</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -2487,7 +2499,7 @@
         <v>2.4116</v>
       </c>
       <c r="M27">
-        <v>160</v>
+        <v>217.43</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -2529,7 +2541,7 @@
         <v>2.738</v>
       </c>
       <c r="M28">
-        <v>160</v>
+        <v>191.44</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -2571,7 +2583,7 @@
         <v>2.9041999999999999</v>
       </c>
       <c r="M29">
-        <v>160</v>
+        <v>179.63</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -2613,7 +2625,7 @@
         <v>5.1547000000000001</v>
       </c>
       <c r="M30">
-        <v>160</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">

--- a/documents/model_list.xlsx
+++ b/documents/model_list.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Nextchip\JARVIS\Minions\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651EF506-F03C-4780-9277-FA384FA508A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769167E-1A9E-452E-B6F3-16EBAB4655BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" activeTab="1" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="v1.0" sheetId="3" r:id="rId2"/>
+    <sheet name="v1.0" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
     <sheet name="v0.9" sheetId="1" r:id="rId3"/>
+    <sheet name="숫자놀이" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="71">
   <si>
     <t>Model Name</t>
   </si>
@@ -193,6 +196,102 @@
     <t>8sP2_BB-c^c2f_NK-gc^c3g_add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Backbone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv + C2f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv + C2f + P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostConv + C3Ghost + P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv + C3 + P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv + C3Ghost + P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv + C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv + C3Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Conv + C2f </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostConv + C3 + P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostConv + C3Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostConv + C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train + valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train + add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottleneck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backbone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험 주제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a vs b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +345,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -261,7 +366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +380,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,28 +718,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B2657C-3F70-4C68-86E3-8A7090548D9C}">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C7FE6C-004D-4BC2-ACD3-A945594646EF}">
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.796875" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" customWidth="1"/>
-    <col min="10" max="10" width="8.3984375" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="7.19921875" customWidth="1"/>
-    <col min="13" max="13" width="16.69921875" customWidth="1"/>
+    <col min="1" max="1" width="30.796875" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" customWidth="1"/>
+    <col min="13" max="13" width="12.09765625" customWidth="1"/>
+    <col min="14" max="14" width="22.09765625" customWidth="1"/>
+    <col min="15" max="15" width="30.59765625" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="53.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,1998 +755,2888 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B24" si="0">$C2/$D2</f>
-        <v>0.71846153846153848</v>
+        <f>$C2/$D2</f>
+        <v>0.71901462663587379</v>
       </c>
       <c r="C2">
         <v>0.46700000000000003</v>
       </c>
       <c r="D2">
-        <v>0.65</v>
+        <v>0.64949999999999997</v>
       </c>
       <c r="E2">
-        <v>0.66</v>
+        <v>0.90080000000000005</v>
       </c>
       <c r="F2">
-        <v>0.91</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="G2">
-        <v>0.82</v>
+        <v>0.91239999999999999</v>
       </c>
       <c r="H2">
-        <v>0.72</v>
+        <v>0.81879999999999997</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.71830000000000005</v>
       </c>
       <c r="J2">
-        <v>0.62</v>
+        <v>0.16950000000000001</v>
       </c>
       <c r="K2">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="L2">
+        <v>9.4437999999999995</v>
+      </c>
+      <c r="M2">
+        <v>54.05</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <f>$C3/$D3</f>
+        <v>0.62328877435980035</v>
+      </c>
+      <c r="C3">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="I3">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.2155</v>
+      </c>
+      <c r="K3">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="L3">
+        <v>5.6660000000000004</v>
+      </c>
+      <c r="M3">
+        <v>74.63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <f>$C4/$D4</f>
+        <v>0.47673469387755096</v>
+      </c>
+      <c r="C4">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.746</v>
+      </c>
+      <c r="F4">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="L4">
+        <v>5.1547000000000001</v>
+      </c>
+      <c r="M4">
+        <v>74.27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
-        <v>0.66129032258064513</v>
-      </c>
-      <c r="C3">
+      <c r="B5">
+        <f>$C5/$D5</f>
+        <v>0.66161045667258345</v>
+      </c>
+      <c r="C5">
         <v>0.41</v>
       </c>
-      <c r="D3">
-        <v>0.62</v>
-      </c>
-      <c r="E3">
-        <v>0.62</v>
-      </c>
-      <c r="F3">
-        <v>0.89</v>
-      </c>
-      <c r="G3">
-        <v>0.74</v>
-      </c>
-      <c r="H3">
-        <v>0.66</v>
-      </c>
-      <c r="I3">
-        <v>0.23</v>
-      </c>
-      <c r="J3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K3">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.62419354838709684</v>
-      </c>
-      <c r="C4">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.62</v>
-      </c>
-      <c r="E4">
-        <v>0.62</v>
-      </c>
-      <c r="F4">
-        <v>0.89</v>
-      </c>
-      <c r="G4">
-        <v>0.76</v>
-      </c>
-      <c r="H4">
-        <v>0.67</v>
-      </c>
-      <c r="I4">
-        <v>0.22</v>
-      </c>
-      <c r="J4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K4">
-        <v>5.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="D5">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="H5">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.2324</v>
+      </c>
+      <c r="K5">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="L5">
+        <v>5.1485000000000003</v>
+      </c>
+      <c r="M5">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.61475409836065575</v>
-      </c>
-      <c r="C5">
+      <c r="B6">
+        <f>$C6/$D6</f>
+        <v>0.61334641805691847</v>
+      </c>
+      <c r="C6">
         <v>0.375</v>
       </c>
-      <c r="D5">
-        <v>0.61</v>
-      </c>
-      <c r="E5">
-        <v>0.6</v>
-      </c>
-      <c r="F5">
-        <v>0.89</v>
-      </c>
-      <c r="G5">
-        <v>0.76</v>
-      </c>
-      <c r="H5">
-        <v>0.68</v>
-      </c>
-      <c r="I5">
-        <v>0.18</v>
-      </c>
-      <c r="J5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.6072727272727273</v>
-      </c>
-      <c r="C6">
-        <v>0.33400000000000002</v>
-      </c>
       <c r="D6">
-        <v>0.55000000000000004</v>
+        <v>0.61140000000000005</v>
       </c>
       <c r="E6">
-        <v>0.52</v>
+        <v>0.73309999999999997</v>
       </c>
       <c r="F6">
-        <v>0.86</v>
+        <v>0.59830000000000005</v>
       </c>
       <c r="G6">
-        <v>0.67</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="H6">
-        <v>0.57999999999999996</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.67530000000000001</v>
       </c>
       <c r="J6">
-        <v>0.49</v>
+        <v>0.1835</v>
       </c>
       <c r="K6">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.56210000000000004</v>
+      </c>
+      <c r="L6">
+        <v>5.0006000000000004</v>
+      </c>
+      <c r="M6">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <f>$C7/$D7</f>
+        <v>0.5513866231647635</v>
+      </c>
+      <c r="C7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.8921</v>
+      </c>
+      <c r="H7">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="J7">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="L7">
+        <v>4.4893999999999998</v>
+      </c>
+      <c r="M7">
+        <v>74.86</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <f>$C8/$D8</f>
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C8">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H8">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.5161</v>
+      </c>
+      <c r="L8">
+        <v>3.4424999999999999</v>
+      </c>
+      <c r="M8">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <f>$C9/$D9</f>
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C9">
+        <v>0.33</v>
+      </c>
+      <c r="D9">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="E9">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="G9">
+        <v>0.8669</v>
+      </c>
+      <c r="H9">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="J9">
+        <v>0.1111</v>
+      </c>
+      <c r="K9">
+        <v>0.4965</v>
+      </c>
+      <c r="L9">
+        <v>3.1675059999999999</v>
+      </c>
+      <c r="M9">
+        <v>166.31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.59827586206896555</v>
-      </c>
-      <c r="C7">
+      <c r="B10" s="5">
+        <f>$C10/$D10</f>
+        <v>0.60295395308427446</v>
+      </c>
+      <c r="C10" s="5">
         <v>0.34699999999999998</v>
       </c>
-      <c r="D7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F7">
-        <v>0.88</v>
-      </c>
-      <c r="G7">
-        <v>0.71</v>
-      </c>
-      <c r="H7">
-        <v>0.62</v>
-      </c>
-      <c r="I7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J7">
-        <v>0.53</v>
-      </c>
-      <c r="K7">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.5982142857142857</v>
-      </c>
-      <c r="C8">
+      <c r="D10" s="5">
+        <v>0.57550000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3.0562999999999998</v>
+      </c>
+      <c r="M10" s="5">
+        <v>137.4</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <f>$C11/$D11</f>
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="C11">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E8">
-        <v>0.54</v>
-      </c>
-      <c r="F8">
-        <v>0.87</v>
-      </c>
-      <c r="G8">
-        <v>0.69</v>
-      </c>
-      <c r="H8">
-        <v>0.6</v>
-      </c>
-      <c r="I8">
-        <v>0.15</v>
-      </c>
-      <c r="J8">
-        <v>0.51</v>
-      </c>
-      <c r="K8">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.59298245614035094</v>
-      </c>
-      <c r="C9">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E9">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F9">
-        <v>0.87</v>
-      </c>
-      <c r="G9">
-        <v>0.69</v>
-      </c>
-      <c r="H9">
-        <v>0.61</v>
-      </c>
-      <c r="I9">
-        <v>0.19</v>
-      </c>
-      <c r="J9">
-        <v>0.52</v>
-      </c>
-      <c r="K9">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.59122807017543866</v>
-      </c>
-      <c r="C10">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F10">
-        <v>0.88</v>
-      </c>
-      <c r="G10">
-        <v>0.69</v>
-      </c>
-      <c r="H10">
-        <v>0.61</v>
-      </c>
-      <c r="I10">
-        <v>0.18</v>
-      </c>
-      <c r="J10">
-        <v>0.5</v>
-      </c>
-      <c r="K10">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="D11">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.69669999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.8679</v>
+      </c>
+      <c r="H11">
+        <v>0.69269999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="J11">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="L11">
+        <v>3.0068000000000001</v>
+      </c>
+      <c r="M11">
+        <v>166.51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <f>$C12/$D12</f>
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="C12">
+        <v>0.314</v>
+      </c>
+      <c r="D12">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="G12">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="H12">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="I12">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.1038</v>
+      </c>
+      <c r="K12">
+        <v>0.49230000000000002</v>
+      </c>
+      <c r="L12">
+        <v>2.9560979999999999</v>
+      </c>
+      <c r="M12">
+        <v>176.95</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f>$C13/$D13</f>
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="C13">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="E13">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="F13">
+        <v>0.5343</v>
+      </c>
+      <c r="G13">
+        <v>0.8659</v>
+      </c>
+      <c r="H13">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="I13">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="L13">
+        <v>2.9041999999999999</v>
+      </c>
+      <c r="M13">
+        <v>179.63</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <f>$C14/$D14</f>
+        <v>0.55536028119507919</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.316</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.5071</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2.79</v>
+      </c>
+      <c r="M14" s="5">
+        <v>139.61000000000001</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <f>$C15/$D15</f>
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="C15">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="E15">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="H15">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="I15">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.1396</v>
+      </c>
+      <c r="K15">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="L15">
+        <v>2.738</v>
+      </c>
+      <c r="M15">
+        <v>191.44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f>$C16/$D16</f>
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="C16">
+        <v>0.318</v>
+      </c>
+      <c r="D16">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="E16">
+        <v>0.69030000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="G16">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="H16">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="J16">
+        <v>0.1177</v>
+      </c>
+      <c r="K16">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="L16">
+        <v>2.7317999999999998</v>
+      </c>
+      <c r="M16">
+        <v>190.68</v>
+      </c>
+      <c r="N16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.58070175438596494</v>
-      </c>
-      <c r="C11">
+      <c r="B17" s="5">
+        <f>$C17/$D17</f>
+        <v>0.58141577375724574</v>
+      </c>
+      <c r="C17" s="5">
         <v>0.33100000000000002</v>
       </c>
-      <c r="D11">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F11">
-        <v>0.88</v>
-      </c>
-      <c r="G11">
-        <v>0.7</v>
-      </c>
-      <c r="H11">
-        <v>0.61</v>
-      </c>
-      <c r="I11">
-        <v>0.16</v>
-      </c>
-      <c r="J11">
-        <v>0.51</v>
-      </c>
-      <c r="K11">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.57818181818181813</v>
-      </c>
-      <c r="C12">
+      <c r="D17" s="5">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.71330000000000005</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.56189999999999996</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.877</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.158</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2.6960999999999999</v>
+      </c>
+      <c r="M17" s="5">
+        <v>140.46</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>$C18/$D18</f>
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="C18">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="E18">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.5242</v>
+      </c>
+      <c r="G18">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="I18">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="J18">
+        <v>0.1447</v>
+      </c>
+      <c r="K18">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="L18">
+        <v>2.6879</v>
+      </c>
+      <c r="M18">
+        <v>196.89</v>
+      </c>
+      <c r="N18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <f>$C19/$D19</f>
+        <v>0.55545404714050794</v>
+      </c>
+      <c r="C19">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H19">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I19">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J19">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.496</v>
+      </c>
+      <c r="L19">
+        <v>2.6855000000000002</v>
+      </c>
+      <c r="N19" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <f>$C20/$D20</f>
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="C20">
         <v>0.318</v>
       </c>
-      <c r="D12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E12">
-        <v>0.53</v>
-      </c>
-      <c r="F12">
-        <v>0.87</v>
-      </c>
-      <c r="G12">
-        <v>0.68</v>
-      </c>
-      <c r="H12">
-        <v>0.61</v>
-      </c>
-      <c r="I12">
-        <v>0.12</v>
-      </c>
-      <c r="J12">
-        <v>0.49</v>
-      </c>
-      <c r="K12">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="D20">
+        <v>0.5504</v>
+      </c>
+      <c r="E20">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="F20">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G20">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="H20">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="I20">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="J20">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="K20">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L20">
+        <v>2.681</v>
+      </c>
+      <c r="M20">
+        <v>190.63</v>
+      </c>
+      <c r="N20" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.55636363636363628</v>
-      </c>
-      <c r="C13">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D13">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E13">
-        <v>0.53</v>
-      </c>
-      <c r="F13">
-        <v>0.86</v>
-      </c>
-      <c r="G13">
-        <v>0.67</v>
-      </c>
-      <c r="H13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I13">
-        <v>0.16</v>
-      </c>
-      <c r="J13">
-        <v>0.5</v>
-      </c>
-      <c r="K13">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.55438596491228076</v>
-      </c>
-      <c r="C14">
-        <v>0.316</v>
-      </c>
-      <c r="D14">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E14">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F14">
-        <v>0.88</v>
-      </c>
-      <c r="G14">
-        <v>0.7</v>
-      </c>
-      <c r="H14">
-        <v>0.62</v>
-      </c>
-      <c r="I14">
-        <v>0.12</v>
-      </c>
-      <c r="J14">
-        <v>0.51</v>
-      </c>
-      <c r="K14">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.55409836065573781</v>
-      </c>
-      <c r="C15">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D15">
-        <v>0.61</v>
-      </c>
-      <c r="E15">
-        <v>0.6</v>
-      </c>
-      <c r="F15">
-        <v>0.89</v>
-      </c>
-      <c r="G15">
-        <v>0.76</v>
-      </c>
-      <c r="H15">
-        <v>0.67</v>
-      </c>
-      <c r="I15">
-        <v>0.21</v>
-      </c>
-      <c r="J15">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K15">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.5509090909090909</v>
-      </c>
-      <c r="C16">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E16">
-        <v>0.52</v>
-      </c>
-      <c r="F16">
-        <v>0.86</v>
-      </c>
-      <c r="G16">
-        <v>0.66</v>
-      </c>
-      <c r="H16">
-        <v>0.59</v>
-      </c>
-      <c r="I16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J16">
-        <v>0.5</v>
-      </c>
-      <c r="K16">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.54629629629629628</v>
-      </c>
-      <c r="C17">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D17">
-        <v>0.54</v>
-      </c>
-      <c r="E17">
-        <v>0.53</v>
-      </c>
-      <c r="F17">
-        <v>0.86</v>
-      </c>
-      <c r="G17">
-        <v>0.65</v>
-      </c>
-      <c r="H17">
-        <v>0.59</v>
-      </c>
-      <c r="I17">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J17">
-        <v>0.49</v>
-      </c>
-      <c r="K17">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.5444444444444444</v>
-      </c>
-      <c r="C18">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D18">
-        <v>0.54</v>
-      </c>
-      <c r="E18">
-        <v>0.53</v>
-      </c>
-      <c r="F18">
-        <v>0.86</v>
-      </c>
-      <c r="G18">
-        <v>0.66</v>
-      </c>
-      <c r="H18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I18">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J18">
-        <v>0.49</v>
-      </c>
-      <c r="K18">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0.53636363636363626</v>
-      </c>
-      <c r="C19">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E19">
-        <v>0.53</v>
-      </c>
-      <c r="F19">
-        <v>0.87</v>
-      </c>
-      <c r="G19">
-        <v>0.68</v>
-      </c>
-      <c r="H19">
-        <v>0.59</v>
-      </c>
-      <c r="I19">
-        <v>0.16</v>
-      </c>
-      <c r="J19">
-        <v>0.5</v>
-      </c>
-      <c r="K19">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.47868852459016392</v>
-      </c>
-      <c r="C20">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D20">
-        <v>0.61</v>
-      </c>
-      <c r="E20">
-        <v>0.62</v>
-      </c>
-      <c r="F20">
-        <v>0.89</v>
-      </c>
-      <c r="G20">
-        <v>0.76</v>
-      </c>
-      <c r="H20">
-        <v>0.67</v>
-      </c>
-      <c r="I20">
-        <v>0.17</v>
-      </c>
-      <c r="J20">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K20">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <f>$C21/$D21</f>
+        <v>0.55545471047377026</v>
       </c>
       <c r="C21">
         <v>0.30599999999999999</v>
       </c>
       <c r="D21">
-        <v>0.68</v>
+        <v>0.55089999999999995</v>
       </c>
       <c r="E21">
-        <v>0.63</v>
+        <v>0.68430000000000002</v>
       </c>
       <c r="F21">
-        <v>0.88</v>
+        <v>0.53139999999999998</v>
       </c>
       <c r="G21">
-        <v>0.65</v>
+        <v>0.86450000000000005</v>
       </c>
       <c r="H21">
-        <v>0.62</v>
+        <v>0.67159999999999997</v>
       </c>
       <c r="I21">
-        <v>0.82</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="J21">
-        <v>0.48</v>
+        <v>0.1608</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0.44057971014492758</v>
-      </c>
-      <c r="C22">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D22">
-        <v>0.69</v>
-      </c>
-      <c r="E22">
-        <v>0.63</v>
-      </c>
-      <c r="F22">
-        <v>0.89</v>
-      </c>
-      <c r="G22">
-        <v>0.66</v>
-      </c>
-      <c r="H22">
-        <v>0.6</v>
-      </c>
-      <c r="I22">
-        <v>0.82</v>
-      </c>
-      <c r="J22">
-        <v>0.51</v>
-      </c>
-      <c r="K22">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.498</v>
+      </c>
+      <c r="L21">
+        <v>2.6278999999999999</v>
+      </c>
+      <c r="M21">
+        <v>201.41</v>
+      </c>
+      <c r="N21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <f>$C22/$D22</f>
+        <v>0.59174714661984196</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.1757</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.503</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="M22" s="5">
+        <v>144.69</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>$C23/$D23</f>
+        <v>0.55374592833876224</v>
+      </c>
+      <c r="C23">
+        <v>0.30599999999999999</v>
       </c>
       <c r="D23">
-        <v>0.54</v>
+        <v>0.55259999999999998</v>
       </c>
       <c r="E23">
-        <v>0.53</v>
+        <v>0.68110000000000004</v>
       </c>
       <c r="F23">
-        <v>0.86</v>
+        <v>0.52310000000000001</v>
       </c>
       <c r="G23">
-        <v>0.66</v>
+        <v>0.85880000000000001</v>
       </c>
       <c r="H23">
-        <v>0.57999999999999996</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="I23">
-        <v>0.14000000000000001</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="J23">
-        <v>0.49</v>
+        <v>0.18340000000000001</v>
       </c>
       <c r="K23">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>29</v>
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="L23">
+        <v>2.5041000000000002</v>
+      </c>
+      <c r="N23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>$C24/$D24</f>
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C24">
+        <v>0.33400000000000002</v>
       </c>
       <c r="D24">
-        <v>0.65</v>
+        <v>0.55279999999999996</v>
       </c>
       <c r="E24">
-        <v>0.66</v>
+        <v>0.68269999999999997</v>
       </c>
       <c r="F24">
-        <v>0.91</v>
+        <v>0.51910000000000001</v>
       </c>
       <c r="G24">
-        <v>0.82</v>
+        <v>0.85629999999999995</v>
       </c>
       <c r="H24">
-        <v>0.72</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="I24">
-        <v>0.17</v>
+        <v>0.58350000000000002</v>
       </c>
       <c r="J24">
-        <v>0.62</v>
+        <v>0.20050000000000001</v>
       </c>
       <c r="K24">
-        <v>9.44</v>
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="L24">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="M24">
+        <v>205.83</v>
+      </c>
+      <c r="N24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <f>$C25/$D25</f>
+        <v>0.59070255155540019</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.6885</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="L25" s="5">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="M25" s="5">
+        <v>146.47999999999999</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f>$C26/$D26</f>
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="C26">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="E26">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F26">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="H26">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="I26">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J26">
+        <v>0.1416</v>
+      </c>
+      <c r="K26">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="L26">
+        <v>2.4116</v>
+      </c>
+      <c r="M26">
+        <v>217.43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <f>$C27/$D27</f>
+        <v>0.70199692780337941</v>
+      </c>
+      <c r="C27">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D27">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="M27">
+        <v>50.21</v>
+      </c>
+      <c r="N27" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <f>$C28/$D28</f>
+        <v>0.67924528301886788</v>
+      </c>
+      <c r="C28">
+        <v>0.432</v>
+      </c>
+      <c r="D28">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M28">
+        <v>55.72</v>
+      </c>
+      <c r="N28" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <f>$C29/$D29</f>
+        <v>0.66931637519872811</v>
+      </c>
+      <c r="C29">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.629</v>
+      </c>
+      <c r="M29">
+        <v>59.1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <f>$C30/$D30</f>
+        <v>0.63271604938271597</v>
+      </c>
+      <c r="C30">
+        <v>0.41</v>
+      </c>
+      <c r="D30">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="M30">
+        <v>56.57</v>
+      </c>
+      <c r="N30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q30">
+    <sortCondition descending="1" ref="L2:L30"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C7FE6C-004D-4BC2-ACD3-A945594646EF}">
-  <dimension ref="A1:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47C056D-056D-4A11-9CF6-07B5A523E342}">
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.8984375" customWidth="1"/>
+    <col min="1" max="1" width="30.796875" customWidth="1"/>
     <col min="2" max="2" width="23.296875" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="20.796875" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="13.69921875" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" customWidth="1"/>
     <col min="12" max="12" width="12.796875" customWidth="1"/>
+    <col min="14" max="14" width="22.09765625" customWidth="1"/>
+    <col min="15" max="15" width="30.59765625" customWidth="1"/>
+    <col min="16" max="16" width="52" customWidth="1"/>
+    <col min="17" max="17" width="53.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="Q1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B30" si="0">$C2/$D2</f>
+        <v>9.4437999999999995</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <f>$F2/$G2</f>
         <v>0.71901462663587379</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>0.46700000000000003</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>0.64949999999999997</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>0.90080000000000005</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>0.66300000000000003</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>0.91239999999999999</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>0.81879999999999997</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>0.71830000000000005</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>0.16950000000000001</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0.61509999999999998</v>
       </c>
-      <c r="L2">
-        <v>9.4437999999999995</v>
-      </c>
-      <c r="M2">
+      <c r="P2">
         <v>54.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="Q2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>0.70199692780337941</v>
-      </c>
-      <c r="C3">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="D3">
-        <v>0.65100000000000002</v>
+        <v>5.6660000000000004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <f>$F3/$G3</f>
+        <v>0.62328877435980035</v>
+      </c>
+      <c r="F3">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="L3">
+        <v>0.66820000000000002</v>
       </c>
       <c r="M3">
-        <v>50.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.2155</v>
+      </c>
+      <c r="N3">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="P3">
+        <v>74.63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.67924528301886788</v>
-      </c>
-      <c r="C4">
-        <v>0.432</v>
-      </c>
-      <c r="D4">
-        <v>0.63600000000000001</v>
+        <v>5.1547000000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <f>$F4/$G4</f>
+        <v>0.47673469387755096</v>
+      </c>
+      <c r="F4">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="H4">
+        <v>0.746</v>
+      </c>
+      <c r="I4">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="L4">
+        <v>0.67159999999999997</v>
       </c>
       <c r="M4">
-        <v>55.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="P4">
+        <v>74.27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.66931637519872811</v>
-      </c>
-      <c r="C5">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.629</v>
+        <v>5.1485000000000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <f>$F5/$G5</f>
+        <v>0.66161045667258345</v>
+      </c>
+      <c r="F5">
+        <v>0.41</v>
+      </c>
+      <c r="G5">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="J5">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.66469999999999996</v>
       </c>
       <c r="M5">
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.2324</v>
+      </c>
+      <c r="N5">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="P5">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.66161045667258345</v>
-      </c>
-      <c r="C6">
-        <v>0.41</v>
-      </c>
-      <c r="D6">
-        <v>0.61970000000000003</v>
+        <v>5.0006000000000004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>0.74280000000000002</v>
+        <f>$F6/$G6</f>
+        <v>0.61334641805691847</v>
       </c>
       <c r="F6">
-        <v>0.61539999999999995</v>
+        <v>0.375</v>
       </c>
       <c r="G6">
-        <v>0.89459999999999995</v>
+        <v>0.61140000000000005</v>
       </c>
       <c r="H6">
-        <v>0.73880000000000001</v>
+        <v>0.73309999999999997</v>
       </c>
       <c r="I6">
-        <v>0.66469999999999996</v>
+        <v>0.59830000000000005</v>
       </c>
       <c r="J6">
-        <v>0.2324</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="K6">
-        <v>0.57210000000000005</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="L6">
-        <v>5.1485000000000003</v>
+        <v>0.67530000000000001</v>
       </c>
       <c r="M6">
-        <v>74.319999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.1835</v>
+      </c>
+      <c r="N6">
+        <v>0.56210000000000004</v>
+      </c>
+      <c r="P6">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.63271604938271597</v>
-      </c>
-      <c r="C7">
-        <v>0.41</v>
-      </c>
-      <c r="D7">
-        <v>0.64800000000000002</v>
+        <v>4.4893999999999998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <f>$F7/$G7</f>
+        <v>0.5513866231647635</v>
+      </c>
+      <c r="F7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.8921</v>
+      </c>
+      <c r="K7">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.66859999999999997</v>
       </c>
       <c r="M7">
-        <v>56.57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>26</v>
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="P7">
+        <v>74.86</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.62328877435980035</v>
-      </c>
-      <c r="C8">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.62090000000000001</v>
+        <v>3.4424999999999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
       </c>
       <c r="E8">
-        <v>0.74609999999999999</v>
+        <f>$F8/$G8</f>
+        <v>0.59372797744890771</v>
       </c>
       <c r="F8">
-        <v>0.61750000000000005</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="G8">
-        <v>0.89410000000000001</v>
+        <v>0.56759999999999999</v>
       </c>
       <c r="H8">
-        <v>0.75539999999999996</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="I8">
-        <v>0.66820000000000002</v>
+        <v>0.54339999999999999</v>
       </c>
       <c r="J8">
-        <v>0.2155</v>
+        <v>0.87470000000000003</v>
       </c>
       <c r="K8">
-        <v>0.57489999999999997</v>
+        <v>0.71140000000000003</v>
       </c>
       <c r="L8">
-        <v>5.6660000000000004</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="M8">
-        <v>74.63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>24</v>
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.5161</v>
+      </c>
+      <c r="P8">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.61334641805691847</v>
-      </c>
-      <c r="C9">
-        <v>0.375</v>
-      </c>
-      <c r="D9">
-        <v>0.61140000000000005</v>
+        <v>3.1675059999999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
       </c>
       <c r="E9">
-        <v>0.73309999999999997</v>
+        <f>$F9/$G9</f>
+        <v>0.60240963855421692</v>
       </c>
       <c r="F9">
-        <v>0.59830000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G9">
-        <v>0.89380000000000004</v>
+        <v>0.54779999999999995</v>
       </c>
       <c r="H9">
-        <v>0.75509999999999999</v>
+        <v>0.69779999999999998</v>
       </c>
       <c r="I9">
-        <v>0.67530000000000001</v>
+        <v>0.54090000000000005</v>
       </c>
       <c r="J9">
-        <v>0.1835</v>
+        <v>0.8669</v>
       </c>
       <c r="K9">
-        <v>0.56210000000000004</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="L9">
-        <v>5.0006000000000004</v>
+        <v>0.59019999999999995</v>
       </c>
       <c r="M9">
-        <v>77.989999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>0.1111</v>
+      </c>
+      <c r="N9">
+        <v>0.4965</v>
+      </c>
+      <c r="P9">
+        <v>166.31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>19</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.60419681620839372</v>
-      </c>
-      <c r="C10">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="D10">
-        <v>0.55279999999999996</v>
+        <v>3.0562999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>0.68269999999999997</v>
+        <f>$F10/$G10</f>
+        <v>0.60295395308427446</v>
       </c>
       <c r="F10">
-        <v>0.51910000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="G10">
-        <v>0.85629999999999995</v>
+        <v>0.57550000000000001</v>
       </c>
       <c r="H10">
-        <v>0.66769999999999996</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="I10">
-        <v>0.58350000000000002</v>
+        <v>0.57679999999999998</v>
       </c>
       <c r="J10">
-        <v>0.20050000000000001</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="K10">
-        <v>0.48980000000000001</v>
+        <v>0.71360000000000001</v>
       </c>
       <c r="L10">
-        <v>2.4630000000000001</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="M10">
-        <v>205.83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>19</v>
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="P10">
+        <v>137.4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.60295395308427446</v>
-      </c>
-      <c r="C11">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D11">
-        <v>0.57550000000000001</v>
+        <v>3.0068000000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>0.71560000000000001</v>
+        <f>$F11/$G11</f>
+        <v>0.59949892627057988</v>
       </c>
       <c r="F11">
-        <v>0.57679999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="G11">
-        <v>0.88300000000000001</v>
+        <v>0.55879999999999996</v>
       </c>
       <c r="H11">
-        <v>0.71360000000000001</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="I11">
-        <v>0.61570000000000003</v>
+        <v>0.53680000000000005</v>
       </c>
       <c r="J11">
-        <v>0.13519999999999999</v>
+        <v>0.8679</v>
       </c>
       <c r="K11">
-        <v>0.52839999999999998</v>
+        <v>0.69269999999999998</v>
       </c>
       <c r="L11">
-        <v>3.0562999999999998</v>
+        <v>0.59630000000000005</v>
       </c>
       <c r="M11">
-        <v>137.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="P11">
+        <v>166.51</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.5995639534883721</v>
-      </c>
-      <c r="C12">
-        <v>0.33</v>
-      </c>
-      <c r="D12">
-        <v>0.5504</v>
+        <v>2.9560979999999999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
       </c>
       <c r="E12">
-        <v>0.68310000000000004</v>
+        <f>$F12/$G12</f>
+        <v>0.57184483700600985</v>
       </c>
       <c r="F12">
-        <v>0.52900000000000003</v>
+        <v>0.314</v>
       </c>
       <c r="G12">
-        <v>0.85960000000000003</v>
+        <v>0.54910000000000003</v>
       </c>
       <c r="H12">
-        <v>0.66859999999999997</v>
+        <v>0.69730000000000003</v>
       </c>
       <c r="I12">
-        <v>0.59730000000000005</v>
+        <v>0.53590000000000004</v>
       </c>
       <c r="J12">
-        <v>0.14069999999999999</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="K12">
-        <v>0.50700000000000001</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="L12">
-        <v>2.6810999999999998</v>
+        <v>0.59770000000000001</v>
       </c>
       <c r="M12">
-        <v>166.31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.1038</v>
+      </c>
+      <c r="N12">
+        <v>0.49230000000000002</v>
+      </c>
+      <c r="P12">
+        <v>176.95</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.59949892627057988</v>
-      </c>
-      <c r="C13">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="D13">
-        <v>0.55879999999999996</v>
+        <v>2.9041999999999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>0.69669999999999999</v>
+        <f>$F13/$G13</f>
+        <v>0.53162732023788073</v>
       </c>
       <c r="F13">
-        <v>0.53680000000000005</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="G13">
-        <v>0.8679</v>
+        <v>0.55489999999999995</v>
       </c>
       <c r="H13">
-        <v>0.69269999999999998</v>
+        <v>0.69220000000000004</v>
       </c>
       <c r="I13">
-        <v>0.59630000000000005</v>
+        <v>0.5343</v>
       </c>
       <c r="J13">
-        <v>0.14729999999999999</v>
+        <v>0.8659</v>
       </c>
       <c r="K13">
-        <v>0.51170000000000004</v>
+        <v>0.68020000000000003</v>
       </c>
       <c r="L13">
-        <v>3.0068000000000001</v>
+        <v>0.59060000000000001</v>
       </c>
       <c r="M13">
-        <v>166.51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="P13">
+        <v>179.63</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.59372797744890771</v>
-      </c>
-      <c r="C14">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D14">
-        <v>0.56759999999999999</v>
+        <v>2.79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
       </c>
       <c r="E14">
-        <v>0.70109999999999995</v>
+        <f>$F14/$G14</f>
+        <v>0.55536028119507919</v>
       </c>
       <c r="F14">
-        <v>0.54339999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="G14">
-        <v>0.87470000000000003</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="H14">
-        <v>0.71140000000000003</v>
+        <v>0.71189999999999998</v>
       </c>
       <c r="I14">
-        <v>0.61480000000000001</v>
+        <v>0.57730000000000004</v>
       </c>
       <c r="J14">
-        <v>0.14549999999999999</v>
+        <v>0.87819999999999998</v>
       </c>
       <c r="K14">
-        <v>0.5161</v>
+        <v>0.70450000000000002</v>
       </c>
       <c r="L14">
-        <v>3.4424999999999999</v>
+        <v>0.62450000000000006</v>
       </c>
       <c r="M14">
-        <v>145.05000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>20</v>
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.5071</v>
+      </c>
+      <c r="P14">
+        <v>139.61000000000001</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.59174714661984196</v>
-      </c>
-      <c r="C15">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D15">
-        <v>0.56950000000000001</v>
+        <v>2.738</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
       </c>
       <c r="E15">
-        <v>0.70940000000000003</v>
+        <f>$F15/$G15</f>
+        <v>0.53974664953185236</v>
       </c>
       <c r="F15">
-        <v>0.55610000000000004</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="G15">
-        <v>0.87590000000000001</v>
+        <v>0.54469999999999996</v>
       </c>
       <c r="H15">
-        <v>0.69410000000000005</v>
+        <v>0.68530000000000002</v>
       </c>
       <c r="I15">
-        <v>0.61240000000000006</v>
+        <v>0.53110000000000002</v>
       </c>
       <c r="J15">
-        <v>0.1757</v>
+        <v>0.86339999999999995</v>
       </c>
       <c r="K15">
-        <v>0.503</v>
+        <v>0.66449999999999998</v>
       </c>
       <c r="L15">
-        <v>2.5430000000000001</v>
+        <v>0.57650000000000001</v>
       </c>
       <c r="M15">
-        <v>144.69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>22</v>
+        <v>0.1396</v>
+      </c>
+      <c r="N15">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="P15">
+        <v>191.44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.59070255155540019</v>
-      </c>
-      <c r="C16">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D16">
-        <v>0.57220000000000004</v>
+        <v>2.7317999999999998</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
       </c>
       <c r="E16">
-        <v>0.70099999999999996</v>
+        <f>$F16/$G16</f>
+        <v>0.5790240349599417</v>
       </c>
       <c r="F16">
-        <v>0.55879999999999996</v>
+        <v>0.318</v>
       </c>
       <c r="G16">
-        <v>0.87039999999999995</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="H16">
-        <v>0.6885</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="I16">
-        <v>0.60750000000000004</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="J16">
-        <v>0.18579999999999999</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="K16">
-        <v>0.52210000000000001</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="L16">
-        <v>2.4489999999999998</v>
+        <v>0.60650000000000004</v>
       </c>
       <c r="M16">
-        <v>146.47999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.1177</v>
+      </c>
+      <c r="N16">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="P16">
+        <v>190.68</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <v>2.6960999999999999</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <f>$F17/$G17</f>
         <v>0.58141577375724574</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>0.33100000000000002</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>0.56930000000000003</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>0.71330000000000005</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>0.56189999999999996</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>0.877</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>0.69969999999999999</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>0.60929999999999995</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>0.158</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>0.50970000000000004</v>
       </c>
-      <c r="L17">
-        <v>2.6960999999999999</v>
-      </c>
-      <c r="M17">
+      <c r="P17">
         <v>140.46</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
+      <c r="Q17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.5790240349599417</v>
-      </c>
-      <c r="C18">
+        <v>2.6879</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <f>$F18/$G18</f>
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="F18">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="H18">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="I18">
+        <v>0.5242</v>
+      </c>
+      <c r="J18">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="L18">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="M18">
+        <v>0.1447</v>
+      </c>
+      <c r="N18">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="P18">
+        <v>196.89</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>2.6855000000000002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <f>$F19/$G19</f>
+        <v>0.55545404714050794</v>
+      </c>
+      <c r="F19">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="I19">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="J19">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="K19">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="L19">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="M19">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.496</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>2.681</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <f>$F20/$G20</f>
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="F20">
         <v>0.318</v>
       </c>
-      <c r="D18">
-        <v>0.54920000000000002</v>
-      </c>
-      <c r="E18">
-        <v>0.69030000000000002</v>
-      </c>
-      <c r="F18">
-        <v>0.53210000000000002</v>
-      </c>
-      <c r="G18">
-        <v>0.86550000000000005</v>
-      </c>
-      <c r="H18">
-        <v>0.67869999999999997</v>
-      </c>
-      <c r="I18">
-        <v>0.60650000000000004</v>
-      </c>
-      <c r="J18">
-        <v>0.1177</v>
-      </c>
-      <c r="K18">
-        <v>0.49459999999999998</v>
-      </c>
-      <c r="L18">
-        <v>2.7317999999999998</v>
-      </c>
-      <c r="M18">
-        <v>190.68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0.57776162790697672</v>
-      </c>
-      <c r="C19">
-        <v>0.318</v>
-      </c>
-      <c r="D19">
+      <c r="G20">
         <v>0.5504</v>
       </c>
-      <c r="M19">
+      <c r="H20">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="I20">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="J20">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="K20">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="L20">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="M20">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="P20">
         <v>190.63</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.57194899817850631</v>
-      </c>
-      <c r="C20">
-        <v>0.314</v>
-      </c>
-      <c r="D20">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="M20">
-        <v>176.95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="Q20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <v>2.6278999999999999</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <f>$F21/$G21</f>
         <v>0.55545471047377026</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <v>0.30599999999999999</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>0.55089999999999995</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>0.68430000000000002</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>0.53139999999999998</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>0.86450000000000005</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>0.67159999999999997</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>0.57899999999999996</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>0.1608</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>0.498</v>
       </c>
-      <c r="L21">
-        <v>2.6278999999999999</v>
-      </c>
-      <c r="M21">
+      <c r="P21">
         <v>201.41</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="Q21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0.55545404714050794</v>
-      </c>
-      <c r="C22">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D22">
-        <v>0.54730000000000001</v>
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>0.68600000000000005</v>
+        <f>$F22/$G22</f>
+        <v>0.59174714661984196</v>
       </c>
       <c r="F22">
-        <v>0.52610000000000001</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="G22">
-        <v>0.86209999999999998</v>
+        <v>0.56950000000000001</v>
       </c>
       <c r="H22">
-        <v>0.66600000000000004</v>
+        <v>0.70940000000000003</v>
       </c>
       <c r="I22">
-        <v>0.58899999999999997</v>
+        <v>0.55610000000000004</v>
       </c>
       <c r="J22">
-        <v>0.14460000000000001</v>
+        <v>0.87590000000000001</v>
       </c>
       <c r="K22">
-        <v>0.496</v>
+        <v>0.69410000000000005</v>
       </c>
       <c r="L22">
-        <v>2.6855000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="M22">
+        <v>0.1757</v>
+      </c>
+      <c r="N22">
+        <v>0.503</v>
+      </c>
+      <c r="P22">
+        <v>144.69</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>0.55536028119507919</v>
-      </c>
-      <c r="C23">
-        <v>0.316</v>
-      </c>
-      <c r="D23">
-        <v>0.56899999999999995</v>
+        <v>2.5041000000000002</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
       </c>
       <c r="E23">
-        <v>0.71189999999999998</v>
+        <f>$F23/$G23</f>
+        <v>0.55374592833876224</v>
       </c>
       <c r="F23">
-        <v>0.57730000000000004</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="G23">
-        <v>0.87819999999999998</v>
+        <v>0.55259999999999998</v>
       </c>
       <c r="H23">
-        <v>0.70450000000000002</v>
+        <v>0.68110000000000004</v>
       </c>
       <c r="I23">
-        <v>0.62450000000000006</v>
+        <v>0.52310000000000001</v>
       </c>
       <c r="J23">
-        <v>0.12230000000000001</v>
+        <v>0.85880000000000001</v>
       </c>
       <c r="K23">
-        <v>0.5071</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="L23">
-        <v>2.79</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="M23">
-        <v>139.61000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>0.55433589462129529</v>
-      </c>
-      <c r="C24">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D24">
-        <v>0.54659999999999997</v>
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
       </c>
       <c r="E24">
-        <v>0.68610000000000004</v>
+        <f>$F24/$G24</f>
+        <v>0.60419681620839372</v>
       </c>
       <c r="F24">
-        <v>0.5242</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="G24">
-        <v>0.86080000000000001</v>
+        <v>0.55279999999999996</v>
       </c>
       <c r="H24">
-        <v>0.66379999999999995</v>
+        <v>0.68269999999999997</v>
       </c>
       <c r="I24">
-        <v>0.58730000000000004</v>
+        <v>0.51910000000000001</v>
       </c>
       <c r="J24">
-        <v>0.1447</v>
+        <v>0.85629999999999995</v>
       </c>
       <c r="K24">
-        <v>0.49880000000000002</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="L24">
-        <v>2.6879</v>
+        <v>0.58350000000000002</v>
       </c>
       <c r="M24">
-        <v>196.89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="P24">
+        <v>205.83</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>0.55374592833876224</v>
-      </c>
-      <c r="C25">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D25">
-        <v>0.55259999999999998</v>
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
       </c>
       <c r="E25">
-        <v>0.68110000000000004</v>
+        <f>$F25/$G25</f>
+        <v>0.59070255155540019</v>
       </c>
       <c r="F25">
-        <v>0.52310000000000001</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="G25">
-        <v>0.85880000000000001</v>
+        <v>0.57220000000000004</v>
       </c>
       <c r="H25">
-        <v>0.66420000000000001</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="I25">
-        <v>0.58420000000000005</v>
+        <v>0.55879999999999996</v>
       </c>
       <c r="J25">
-        <v>0.18340000000000001</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="K25">
-        <v>0.50170000000000003</v>
+        <v>0.6885</v>
       </c>
       <c r="L25">
-        <v>2.5041000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>25</v>
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="M25">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="P25">
+        <v>146.47999999999999</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>0.5513866231647635</v>
-      </c>
-      <c r="C26">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D26">
-        <v>0.61299999999999999</v>
+        <v>2.4116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
       </c>
       <c r="E26">
-        <v>0.73650000000000004</v>
+        <f>$F26/$G26</f>
+        <v>0.5444813584348468</v>
       </c>
       <c r="F26">
-        <v>0.59770000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="G26">
-        <v>0.8921</v>
+        <v>0.54179999999999995</v>
       </c>
       <c r="H26">
-        <v>0.75609999999999999</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="I26">
-        <v>0.66859999999999997</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="J26">
-        <v>0.20730000000000001</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="K26">
-        <v>0.55640000000000001</v>
+        <v>0.64839999999999998</v>
       </c>
       <c r="L26">
-        <v>4.4893999999999998</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="M26">
-        <v>74.86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>0.5444813584348468</v>
-      </c>
-      <c r="C27">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D27">
-        <v>0.54179999999999995</v>
+        <v>0.1416</v>
+      </c>
+      <c r="N26">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="P26">
+        <v>217.43</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
       </c>
       <c r="E27">
-        <v>0.67400000000000004</v>
+        <f>$F27/$G27</f>
+        <v>0.70199692780337941</v>
       </c>
       <c r="F27">
-        <v>0.52500000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="G27">
-        <v>0.86060000000000003</v>
-      </c>
-      <c r="H27">
-        <v>0.64839999999999998</v>
-      </c>
-      <c r="I27">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="J27">
-        <v>0.1416</v>
-      </c>
-      <c r="K27">
-        <v>0.48830000000000001</v>
-      </c>
-      <c r="L27">
-        <v>2.4116</v>
-      </c>
-      <c r="M27">
-        <v>217.43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>0.53974664953185236</v>
-      </c>
-      <c r="C28">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D28">
-        <v>0.54469999999999996</v>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="P27">
+        <v>50.21</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>0.68530000000000002</v>
+        <f>$F28/$G28</f>
+        <v>0.67924528301886788</v>
       </c>
       <c r="F28">
-        <v>0.53110000000000002</v>
+        <v>0.432</v>
       </c>
       <c r="G28">
-        <v>0.86339999999999995</v>
-      </c>
-      <c r="H28">
-        <v>0.66449999999999998</v>
-      </c>
-      <c r="I28">
-        <v>0.57650000000000001</v>
-      </c>
-      <c r="J28">
-        <v>0.1396</v>
-      </c>
-      <c r="K28">
-        <v>0.49330000000000002</v>
-      </c>
-      <c r="L28">
-        <v>2.738</v>
-      </c>
-      <c r="M28">
-        <v>191.44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>0.53162732023788073</v>
-      </c>
-      <c r="C29">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D29">
-        <v>0.55489999999999995</v>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="P28">
+        <v>55.72</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
       </c>
       <c r="E29">
-        <v>0.69220000000000004</v>
+        <f>$F29/$G29</f>
+        <v>0.66931637519872811</v>
       </c>
       <c r="F29">
-        <v>0.5343</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="G29">
-        <v>0.8659</v>
-      </c>
-      <c r="H29">
-        <v>0.68020000000000003</v>
-      </c>
-      <c r="I29">
-        <v>0.59060000000000001</v>
-      </c>
-      <c r="J29">
-        <v>0.15840000000000001</v>
-      </c>
-      <c r="K29">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="L29">
-        <v>2.9041999999999999</v>
-      </c>
-      <c r="M29">
-        <v>179.63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.629</v>
+      </c>
+      <c r="P29">
+        <v>59.1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>0.47673469387755096</v>
-      </c>
-      <c r="C30">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D30">
-        <v>0.61250000000000004</v>
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
       </c>
       <c r="E30">
-        <v>0.746</v>
+        <f>$F30/$G30</f>
+        <v>0.63271604938271597</v>
       </c>
       <c r="F30">
-        <v>0.61519999999999997</v>
+        <v>0.41</v>
       </c>
       <c r="G30">
-        <v>0.89290000000000003</v>
-      </c>
-      <c r="H30">
-        <v>0.75680000000000003</v>
-      </c>
-      <c r="I30">
-        <v>0.67159999999999997</v>
-      </c>
-      <c r="J30">
-        <v>0.16569999999999999</v>
-      </c>
-      <c r="K30">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="L30">
-        <v>5.1547000000000001</v>
-      </c>
-      <c r="M30">
-        <v>74.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="D31">
-        <v>0</v>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="P30">
+        <v>56.57</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>63</v>
+      </c>
+      <c r="R30" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M31">
-    <sortCondition descending="1" ref="B2:B31"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3535,4 +4535,4814 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B2657C-3F70-4C68-86E3-8A7090548D9C}">
+  <dimension ref="A1:M110"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.796875" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" customWidth="1"/>
+    <col min="10" max="10" width="8.3984375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="7.19921875" customWidth="1"/>
+    <col min="13" max="13" width="16.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B24" si="0">$C2/$D2</f>
+        <v>0.54629629629629628</v>
+      </c>
+      <c r="C2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.54</v>
+      </c>
+      <c r="E2">
+        <v>0.53</v>
+      </c>
+      <c r="F2">
+        <v>0.86</v>
+      </c>
+      <c r="G2">
+        <v>0.65</v>
+      </c>
+      <c r="H2">
+        <v>0.59</v>
+      </c>
+      <c r="I2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.49</v>
+      </c>
+      <c r="K2">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>0.6072727272727273</v>
+      </c>
+      <c r="C3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.52</v>
+      </c>
+      <c r="F3">
+        <v>0.86</v>
+      </c>
+      <c r="G3">
+        <v>0.67</v>
+      </c>
+      <c r="H3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>0.49</v>
+      </c>
+      <c r="K3">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.54</v>
+      </c>
+      <c r="E4">
+        <v>0.53</v>
+      </c>
+      <c r="F4">
+        <v>0.86</v>
+      </c>
+      <c r="G4">
+        <v>0.66</v>
+      </c>
+      <c r="H4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.49</v>
+      </c>
+      <c r="K4">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="C5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.68</v>
+      </c>
+      <c r="E5">
+        <v>0.63</v>
+      </c>
+      <c r="F5">
+        <v>0.88</v>
+      </c>
+      <c r="G5">
+        <v>0.65</v>
+      </c>
+      <c r="H5">
+        <v>0.62</v>
+      </c>
+      <c r="I5">
+        <v>0.82</v>
+      </c>
+      <c r="J5">
+        <v>0.48</v>
+      </c>
+      <c r="K5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.55636363636363628</v>
+      </c>
+      <c r="C6">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.53</v>
+      </c>
+      <c r="F6">
+        <v>0.86</v>
+      </c>
+      <c r="G6">
+        <v>0.67</v>
+      </c>
+      <c r="H6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.16</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.57818181818181813</v>
+      </c>
+      <c r="C7">
+        <v>0.318</v>
+      </c>
+      <c r="D7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.53</v>
+      </c>
+      <c r="F7">
+        <v>0.87</v>
+      </c>
+      <c r="G7">
+        <v>0.68</v>
+      </c>
+      <c r="H7">
+        <v>0.61</v>
+      </c>
+      <c r="I7">
+        <v>0.12</v>
+      </c>
+      <c r="J7">
+        <v>0.49</v>
+      </c>
+      <c r="K7">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.53636363636363626</v>
+      </c>
+      <c r="C8">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.53</v>
+      </c>
+      <c r="F8">
+        <v>0.87</v>
+      </c>
+      <c r="G8">
+        <v>0.68</v>
+      </c>
+      <c r="H8">
+        <v>0.59</v>
+      </c>
+      <c r="I8">
+        <v>0.16</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.5982142857142857</v>
+      </c>
+      <c r="C9">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.54</v>
+      </c>
+      <c r="F9">
+        <v>0.87</v>
+      </c>
+      <c r="G9">
+        <v>0.69</v>
+      </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+      <c r="I9">
+        <v>0.15</v>
+      </c>
+      <c r="J9">
+        <v>0.51</v>
+      </c>
+      <c r="K9">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.44057971014492758</v>
+      </c>
+      <c r="C10">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.69</v>
+      </c>
+      <c r="E10">
+        <v>0.63</v>
+      </c>
+      <c r="F10">
+        <v>0.89</v>
+      </c>
+      <c r="G10">
+        <v>0.66</v>
+      </c>
+      <c r="H10">
+        <v>0.6</v>
+      </c>
+      <c r="I10">
+        <v>0.82</v>
+      </c>
+      <c r="J10">
+        <v>0.51</v>
+      </c>
+      <c r="K10">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.5509090909090909</v>
+      </c>
+      <c r="C11">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.52</v>
+      </c>
+      <c r="F11">
+        <v>0.86</v>
+      </c>
+      <c r="G11">
+        <v>0.66</v>
+      </c>
+      <c r="H11">
+        <v>0.59</v>
+      </c>
+      <c r="I11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="C12">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.54</v>
+      </c>
+      <c r="E12">
+        <v>0.53</v>
+      </c>
+      <c r="F12">
+        <v>0.86</v>
+      </c>
+      <c r="G12">
+        <v>0.66</v>
+      </c>
+      <c r="H12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.49</v>
+      </c>
+      <c r="K12">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.59827586206896555</v>
+      </c>
+      <c r="C13">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F13">
+        <v>0.88</v>
+      </c>
+      <c r="G13">
+        <v>0.71</v>
+      </c>
+      <c r="H13">
+        <v>0.62</v>
+      </c>
+      <c r="I13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.53</v>
+      </c>
+      <c r="K13">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.55438596491228076</v>
+      </c>
+      <c r="C14">
+        <v>0.316</v>
+      </c>
+      <c r="D14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F14">
+        <v>0.88</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.62</v>
+      </c>
+      <c r="I14">
+        <v>0.12</v>
+      </c>
+      <c r="J14">
+        <v>0.51</v>
+      </c>
+      <c r="K14">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.59122807017543866</v>
+      </c>
+      <c r="C15">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F15">
+        <v>0.88</v>
+      </c>
+      <c r="G15">
+        <v>0.69</v>
+      </c>
+      <c r="H15">
+        <v>0.61</v>
+      </c>
+      <c r="I15">
+        <v>0.18</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.58070175438596494</v>
+      </c>
+      <c r="C16">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F16">
+        <v>0.88</v>
+      </c>
+      <c r="G16">
+        <v>0.7</v>
+      </c>
+      <c r="H16">
+        <v>0.61</v>
+      </c>
+      <c r="I16">
+        <v>0.16</v>
+      </c>
+      <c r="J16">
+        <v>0.51</v>
+      </c>
+      <c r="K16">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.59298245614035094</v>
+      </c>
+      <c r="C17">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F17">
+        <v>0.87</v>
+      </c>
+      <c r="G17">
+        <v>0.69</v>
+      </c>
+      <c r="H17">
+        <v>0.61</v>
+      </c>
+      <c r="I17">
+        <v>0.19</v>
+      </c>
+      <c r="J17">
+        <v>0.52</v>
+      </c>
+      <c r="K17">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.62419354838709684</v>
+      </c>
+      <c r="C18">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.62</v>
+      </c>
+      <c r="E18">
+        <v>0.62</v>
+      </c>
+      <c r="F18">
+        <v>0.89</v>
+      </c>
+      <c r="G18">
+        <v>0.76</v>
+      </c>
+      <c r="H18">
+        <v>0.67</v>
+      </c>
+      <c r="I18">
+        <v>0.22</v>
+      </c>
+      <c r="J18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K18">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.47868852459016392</v>
+      </c>
+      <c r="C19">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.61</v>
+      </c>
+      <c r="E19">
+        <v>0.62</v>
+      </c>
+      <c r="F19">
+        <v>0.89</v>
+      </c>
+      <c r="G19">
+        <v>0.76</v>
+      </c>
+      <c r="H19">
+        <v>0.67</v>
+      </c>
+      <c r="I19">
+        <v>0.17</v>
+      </c>
+      <c r="J19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K19">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.61475409836065575</v>
+      </c>
+      <c r="C20">
+        <v>0.375</v>
+      </c>
+      <c r="D20">
+        <v>0.61</v>
+      </c>
+      <c r="E20">
+        <v>0.6</v>
+      </c>
+      <c r="F20">
+        <v>0.89</v>
+      </c>
+      <c r="G20">
+        <v>0.76</v>
+      </c>
+      <c r="H20">
+        <v>0.68</v>
+      </c>
+      <c r="I20">
+        <v>0.18</v>
+      </c>
+      <c r="J20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.55409836065573781</v>
+      </c>
+      <c r="C21">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.61</v>
+      </c>
+      <c r="E21">
+        <v>0.6</v>
+      </c>
+      <c r="F21">
+        <v>0.89</v>
+      </c>
+      <c r="G21">
+        <v>0.76</v>
+      </c>
+      <c r="H21">
+        <v>0.67</v>
+      </c>
+      <c r="I21">
+        <v>0.21</v>
+      </c>
+      <c r="J21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K21">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.65</v>
+      </c>
+      <c r="E22">
+        <v>0.66</v>
+      </c>
+      <c r="F22">
+        <v>0.91</v>
+      </c>
+      <c r="G22">
+        <v>0.82</v>
+      </c>
+      <c r="H22">
+        <v>0.72</v>
+      </c>
+      <c r="I22">
+        <v>0.17</v>
+      </c>
+      <c r="J22">
+        <v>0.62</v>
+      </c>
+      <c r="K22">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.71846153846153848</v>
+      </c>
+      <c r="C23">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D23">
+        <v>0.65</v>
+      </c>
+      <c r="E23">
+        <v>0.66</v>
+      </c>
+      <c r="F23">
+        <v>0.91</v>
+      </c>
+      <c r="G23">
+        <v>0.82</v>
+      </c>
+      <c r="H23">
+        <v>0.72</v>
+      </c>
+      <c r="I23">
+        <v>0.17</v>
+      </c>
+      <c r="J23">
+        <v>0.62</v>
+      </c>
+      <c r="K23">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.66129032258064513</v>
+      </c>
+      <c r="C24">
+        <v>0.41</v>
+      </c>
+      <c r="D24">
+        <v>0.62</v>
+      </c>
+      <c r="E24">
+        <v>0.62</v>
+      </c>
+      <c r="F24">
+        <v>0.89</v>
+      </c>
+      <c r="G24">
+        <v>0.74</v>
+      </c>
+      <c r="H24">
+        <v>0.66</v>
+      </c>
+      <c r="I24">
+        <v>0.23</v>
+      </c>
+      <c r="J24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K24">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <f>$C28/$D28</f>
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C28">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D28">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="F28">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="I28">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="J28">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="K28">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="L28">
+        <v>2.4630000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <f>$C29/$D29</f>
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C29">
+        <v>0.33</v>
+      </c>
+      <c r="D29">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="E29">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="F29">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="G29">
+        <v>0.8669</v>
+      </c>
+      <c r="H29">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="I29">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="J29">
+        <v>0.1111</v>
+      </c>
+      <c r="K29">
+        <v>0.4965</v>
+      </c>
+      <c r="L29">
+        <v>3.1675059999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <f>$C30/$D30</f>
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="C30">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="E30">
+        <v>0.69669999999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="G30">
+        <v>0.8679</v>
+      </c>
+      <c r="H30">
+        <v>0.69269999999999998</v>
+      </c>
+      <c r="I30">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="J30">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="K30">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="L30">
+        <v>3.0068000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <f>$C31/$D31</f>
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C31">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D31">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="E31">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F31">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H31">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="I31">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="J31">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.5161</v>
+      </c>
+      <c r="L31">
+        <v>3.4424999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="C32">
+        <v>0.318</v>
+      </c>
+      <c r="D32">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="E32">
+        <v>0.69030000000000002</v>
+      </c>
+      <c r="F32">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="G32">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="H32">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="I32">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="J32">
+        <v>0.1177</v>
+      </c>
+      <c r="K32">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="L32">
+        <v>2.7317999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="C33">
+        <v>0.318</v>
+      </c>
+      <c r="D33">
+        <v>0.5504</v>
+      </c>
+      <c r="E33">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="F33">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G33">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="H33">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="I33">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="J33">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="K33">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L33">
+        <v>2.681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="C34">
+        <v>0.314</v>
+      </c>
+      <c r="D34">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="E34">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="F34">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="G34">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="H34">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="I34">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="J34">
+        <v>0.1038</v>
+      </c>
+      <c r="K34">
+        <v>0.49230000000000002</v>
+      </c>
+      <c r="L34">
+        <v>2.9560979999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="C35">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="E35">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="F35">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="H35">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="I35">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="J35">
+        <v>0.1608</v>
+      </c>
+      <c r="K35">
+        <v>0.498</v>
+      </c>
+      <c r="L35">
+        <v>2.6278999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <f>$C36/$D36</f>
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="C36">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="E36">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="F36">
+        <v>0.5242</v>
+      </c>
+      <c r="G36">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="H36">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="I36">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="J36">
+        <v>0.1447</v>
+      </c>
+      <c r="K36">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="L36">
+        <v>2.6879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <f>$C37/$D37</f>
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="C37">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D37">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="E37">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F37">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G37">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="H37">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="I37">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J37">
+        <v>0.1416</v>
+      </c>
+      <c r="K37">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="L37">
+        <v>2.4116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <f>$C38/$D38</f>
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="C38">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D38">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="E38">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="F38">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="G38">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="H38">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="I38">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="J38">
+        <v>0.1396</v>
+      </c>
+      <c r="K38">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="L38">
+        <v>2.738</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <f>$C39/$D39</f>
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="C39">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D39">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="E39">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="F39">
+        <v>0.5343</v>
+      </c>
+      <c r="G39">
+        <v>0.8659</v>
+      </c>
+      <c r="H39">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="I39">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="J39">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="L39">
+        <v>2.9041999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C42">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D42">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="E42">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="F42">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="H42">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="I42">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="J42">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="K42">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="L42">
+        <v>2.4630000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="C43">
+        <v>0.318</v>
+      </c>
+      <c r="D43">
+        <v>0.5504</v>
+      </c>
+      <c r="E43">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="F43">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G43">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="H43">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="I43">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="J43">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="K43">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L43">
+        <v>2.681</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="C44">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D44">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="E44">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F44">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G44">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="H44">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="I44">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J44">
+        <v>0.1416</v>
+      </c>
+      <c r="K44">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="L44">
+        <v>2.4116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C46">
+        <v>0.33</v>
+      </c>
+      <c r="D46">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="E46">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="F46">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="G46">
+        <v>0.8669</v>
+      </c>
+      <c r="H46">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="I46">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="J46">
+        <v>0.1111</v>
+      </c>
+      <c r="K46">
+        <v>0.4965</v>
+      </c>
+      <c r="L46">
+        <v>3.1675059999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="C47">
+        <v>0.318</v>
+      </c>
+      <c r="D47">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="E47">
+        <v>0.69030000000000002</v>
+      </c>
+      <c r="F47">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="G47">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="H47">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="I47">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="J47">
+        <v>0.1177</v>
+      </c>
+      <c r="K47">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="L47">
+        <v>2.7317999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="C48">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="E48">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="F48">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="G48">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="H48">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="I48">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="J48">
+        <v>0.1608</v>
+      </c>
+      <c r="K48">
+        <v>0.498</v>
+      </c>
+      <c r="L48">
+        <v>2.6278999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="C50">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D50">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="E50">
+        <v>0.69669999999999999</v>
+      </c>
+      <c r="F50">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="G50">
+        <v>0.8679</v>
+      </c>
+      <c r="H50">
+        <v>0.69269999999999998</v>
+      </c>
+      <c r="I50">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="J50">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="K50">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="L50">
+        <v>3.0068000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51">
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C51">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D51">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="E51">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F51">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="G51">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H51">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="I51">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="J51">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="K51">
+        <v>0.5161</v>
+      </c>
+      <c r="L51">
+        <v>3.4424999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="C52">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D52">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="E52">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="F52">
+        <v>0.5343</v>
+      </c>
+      <c r="G52">
+        <v>0.8659</v>
+      </c>
+      <c r="H52">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="I52">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="J52">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="K52">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="L52">
+        <v>2.9041999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="C54">
+        <v>0.314</v>
+      </c>
+      <c r="D54">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="E54">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="F54">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="G54">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="H54">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="I54">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="J54">
+        <v>0.1038</v>
+      </c>
+      <c r="K54">
+        <v>0.49230000000000002</v>
+      </c>
+      <c r="L54">
+        <v>2.9560979999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="C55">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D55">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="E55">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="F55">
+        <v>0.5242</v>
+      </c>
+      <c r="G55">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="H55">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="I55">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="J55">
+        <v>0.1447</v>
+      </c>
+      <c r="K55">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="L55">
+        <v>2.6879</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56">
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="C56">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D56">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="E56">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="F56">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="G56">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="H56">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="I56">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="J56">
+        <v>0.1396</v>
+      </c>
+      <c r="K56">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="L56">
+        <v>2.738</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60">
+        <v>2442</v>
+      </c>
+      <c r="E60">
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="F60">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G60">
+        <v>0.54179999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61">
+        <v>4664</v>
+      </c>
+      <c r="E61">
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="F61">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G61">
+        <v>0.55279999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62">
+        <v>6886</v>
+      </c>
+      <c r="E62">
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="F62">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G62">
+        <v>0.55879999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63">
+        <v>6886</v>
+      </c>
+      <c r="E63">
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="F63">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G63">
+        <v>0.56759999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64">
+        <v>6886</v>
+      </c>
+      <c r="E64">
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="F64">
+        <v>0.318</v>
+      </c>
+      <c r="G64">
+        <v>0.5504</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65">
+        <v>2442</v>
+      </c>
+      <c r="E65">
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="F65">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G65">
+        <v>0.55489999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67">
+        <v>6886</v>
+      </c>
+      <c r="E67">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="F67">
+        <v>0.33</v>
+      </c>
+      <c r="G67">
+        <v>0.54779999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>4664</v>
+      </c>
+      <c r="E68">
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="F68">
+        <v>0.318</v>
+      </c>
+      <c r="G68">
+        <v>0.54920000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>6886</v>
+      </c>
+      <c r="E69">
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="F69">
+        <v>0.314</v>
+      </c>
+      <c r="G69">
+        <v>0.54910000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70">
+        <v>2442</v>
+      </c>
+      <c r="E70">
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="F70">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G70">
+        <v>0.55089999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71">
+        <v>2442</v>
+      </c>
+      <c r="E71">
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="F71">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G71">
+        <v>0.54659999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72">
+        <v>4664</v>
+      </c>
+      <c r="E72">
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="F72">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G72">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74">
+        <v>2442</v>
+      </c>
+      <c r="E74">
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="F74">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G74">
+        <v>0.55089999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75">
+        <v>2442</v>
+      </c>
+      <c r="E75">
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="F75">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G75">
+        <v>0.54179999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77">
+        <v>4664</v>
+      </c>
+      <c r="E77">
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="F77">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G77">
+        <v>0.55279999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78">
+        <v>4664</v>
+      </c>
+      <c r="E78">
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="F78">
+        <v>0.318</v>
+      </c>
+      <c r="G78">
+        <v>0.54920000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80">
+        <v>6886</v>
+      </c>
+      <c r="E80">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="F80">
+        <v>0.33</v>
+      </c>
+      <c r="G80">
+        <v>0.54779999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81">
+        <v>6886</v>
+      </c>
+      <c r="E81">
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="F81">
+        <v>0.318</v>
+      </c>
+      <c r="G81">
+        <v>0.5504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83">
+        <v>4664</v>
+      </c>
+      <c r="E83">
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="F83">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G83">
+        <v>0.55879999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84">
+        <v>4664</v>
+      </c>
+      <c r="E84">
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="F84">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G84">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86">
+        <v>2442</v>
+      </c>
+      <c r="E86">
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="F86">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G86">
+        <v>0.54659999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87">
+        <v>2442</v>
+      </c>
+      <c r="E87">
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="F87">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G87">
+        <v>0.55489999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89">
+        <v>6886</v>
+      </c>
+      <c r="E89">
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="F89">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G89">
+        <v>0.56759999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A90" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90">
+        <v>6886</v>
+      </c>
+      <c r="E90">
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="F90">
+        <v>0.314</v>
+      </c>
+      <c r="G90">
+        <v>0.54910000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C99">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D99">
+        <v>0.55279999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C100">
+        <v>0.33</v>
+      </c>
+      <c r="D100">
+        <v>0.54779999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="C101">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D101">
+        <v>0.55879999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102">
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C102">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D102">
+        <v>0.56759999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103">
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="C103">
+        <v>0.318</v>
+      </c>
+      <c r="D103">
+        <v>0.54920000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104">
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="C104">
+        <v>0.318</v>
+      </c>
+      <c r="D104">
+        <v>0.5504</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105">
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="C105">
+        <v>0.314</v>
+      </c>
+      <c r="D105">
+        <v>0.54910000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106">
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="C106">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D106">
+        <v>0.55089999999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107">
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="C107">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D107">
+        <v>0.54659999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="C108">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D108">
+        <v>0.54179999999999995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109">
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="C109">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D109">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110">
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="C110">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D110">
+        <v>0.55489999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:L88">
+    <sortCondition descending="1" ref="B77:B88"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF17639-D595-4C91-8264-6F6A2FA3B3ED}">
+  <dimension ref="A1:P45"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="2" max="2" width="25.8984375" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="36.3984375" customWidth="1"/>
+    <col min="5" max="5" width="33.69921875" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="25.796875" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="32.3984375" customWidth="1"/>
+    <col min="10" max="10" width="37.19921875" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="25.19921875" customWidth="1"/>
+    <col min="13" max="13" width="30.3984375" customWidth="1"/>
+    <col min="14" max="14" width="29.8984375" customWidth="1"/>
+    <col min="15" max="15" width="21.09765625" customWidth="1"/>
+    <col min="16" max="16" width="30.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="C2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="G2">
+        <v>0.33</v>
+      </c>
+      <c r="H2">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="K2">
+        <v>0.33</v>
+      </c>
+      <c r="L2">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="O2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.54179999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="G3">
+        <v>0.318</v>
+      </c>
+      <c r="H3">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="K3">
+        <v>0.318</v>
+      </c>
+      <c r="L3">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="O3">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.55089999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="C4">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="G4">
+        <v>0.314</v>
+      </c>
+      <c r="H4">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="K4">
+        <v>0.314</v>
+      </c>
+      <c r="L4">
+        <v>0.54910000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="G5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="K5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.55089999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="C6">
+        <v>0.318</v>
+      </c>
+      <c r="D6">
+        <v>0.5504</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="G6">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="K6">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.54659999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="C7">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="G7">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="K7">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C19">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.55279999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="C20">
+        <v>0.318</v>
+      </c>
+      <c r="D20">
+        <v>0.54920000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="C22">
+        <v>0.318</v>
+      </c>
+      <c r="D22">
+        <v>0.5504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C23">
+        <v>0.33</v>
+      </c>
+      <c r="D23">
+        <v>0.54779999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="C25">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.55879999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="C26">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="C28">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D28">
+        <v>0.55489999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="C29">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.54659999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C31">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D31">
+        <v>0.56759999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="C32">
+        <v>0.314</v>
+      </c>
+      <c r="D32">
+        <v>0.54910000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C34">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D34">
+        <v>0.55279999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C35">
+        <v>0.33</v>
+      </c>
+      <c r="D35">
+        <v>0.54779999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="C36">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.55879999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C37">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D37">
+        <v>0.56759999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="C38">
+        <v>0.318</v>
+      </c>
+      <c r="D38">
+        <v>0.54920000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="C39">
+        <v>0.318</v>
+      </c>
+      <c r="D39">
+        <v>0.5504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="C40">
+        <v>0.314</v>
+      </c>
+      <c r="D40">
+        <v>0.54910000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="C41">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.55089999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="C42">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.54659999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="C43">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D43">
+        <v>0.54179999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="C44">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D44">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="C45">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D45">
+        <v>0.55489999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690173A2-9D17-4DD4-9142-5654C71F63B6}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.796875" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" customWidth="1"/>
+    <col min="14" max="14" width="22.09765625" customWidth="1"/>
+    <col min="15" max="15" width="30.59765625" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B30" si="0">$C2/$D2</f>
+        <v>0.63271604938271597</v>
+      </c>
+      <c r="C2">
+        <v>0.41</v>
+      </c>
+      <c r="D2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="M2">
+        <v>56.57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>0.67924528301886788</v>
+      </c>
+      <c r="C3">
+        <v>0.432</v>
+      </c>
+      <c r="D3">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M3">
+        <v>55.72</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="C4">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F4">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.1416</v>
+      </c>
+      <c r="K4">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="L4">
+        <v>2.4116</v>
+      </c>
+      <c r="M4">
+        <v>217.43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C5">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="H5">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="L5">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="M5">
+        <v>205.83</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="C6">
+        <v>0.318</v>
+      </c>
+      <c r="D6">
+        <v>0.5504</v>
+      </c>
+      <c r="E6">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="J6">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L6">
+        <v>2.6810999999999998</v>
+      </c>
+      <c r="M6">
+        <v>190.63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.55374592833876224</v>
+      </c>
+      <c r="C7">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.68110000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="L7">
+        <v>2.5041000000000002</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="C8">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="H8">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="J8">
+        <v>0.1608</v>
+      </c>
+      <c r="K8">
+        <v>0.498</v>
+      </c>
+      <c r="L8">
+        <v>2.6278999999999999</v>
+      </c>
+      <c r="M8">
+        <v>201.41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="C9">
+        <v>0.318</v>
+      </c>
+      <c r="D9">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.69030000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="H9">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="J9">
+        <v>0.1177</v>
+      </c>
+      <c r="K9">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="L9">
+        <v>2.7317999999999998</v>
+      </c>
+      <c r="M9">
+        <v>190.68</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C10">
+        <v>0.33</v>
+      </c>
+      <c r="D10">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.8669</v>
+      </c>
+      <c r="H10">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="I10">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="J10">
+        <v>0.1111</v>
+      </c>
+      <c r="K10">
+        <v>0.4965</v>
+      </c>
+      <c r="L10">
+        <v>2.6810999999999998</v>
+      </c>
+      <c r="M10">
+        <v>166.31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="C11">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.5343</v>
+      </c>
+      <c r="G11">
+        <v>0.8659</v>
+      </c>
+      <c r="H11">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="L11">
+        <v>2.9041999999999999</v>
+      </c>
+      <c r="M11">
+        <v>179.63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="C12">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="E12">
+        <v>0.69669999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.8679</v>
+      </c>
+      <c r="H12">
+        <v>0.69269999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="J12">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="L12">
+        <v>3.0068000000000001</v>
+      </c>
+      <c r="M12">
+        <v>166.51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C13">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D13">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F13">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H13">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="I13">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.5161</v>
+      </c>
+      <c r="L13">
+        <v>3.4424999999999999</v>
+      </c>
+      <c r="M13">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.55545404714050794</v>
+      </c>
+      <c r="C14">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F14">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I14">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.496</v>
+      </c>
+      <c r="L14">
+        <v>2.6855000000000002</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="C15">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="F15">
+        <v>0.5242</v>
+      </c>
+      <c r="G15">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="I15">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="J15">
+        <v>0.1447</v>
+      </c>
+      <c r="K15">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="L15">
+        <v>2.6879</v>
+      </c>
+      <c r="M15">
+        <v>196.89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="C16">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="E16">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="G16">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="H16">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="I16">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.1396</v>
+      </c>
+      <c r="K16">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="L16">
+        <v>2.738</v>
+      </c>
+      <c r="M16">
+        <v>191.44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="C17">
+        <v>0.314</v>
+      </c>
+      <c r="D17">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="F17">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="G17">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="H17">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.1038</v>
+      </c>
+      <c r="K17">
+        <v>0.49230000000000002</v>
+      </c>
+      <c r="L17">
+        <v>2.9561000000000002</v>
+      </c>
+      <c r="M17">
+        <v>176.95</v>
+      </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.60295395308427446</v>
+      </c>
+      <c r="C18">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D18">
+        <v>0.57550000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="J18">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="K18">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="L18">
+        <v>3.0562999999999998</v>
+      </c>
+      <c r="M18">
+        <v>137.4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.55536028119507919</v>
+      </c>
+      <c r="C19">
+        <v>0.316</v>
+      </c>
+      <c r="D19">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E19">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="F19">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="G19">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="H19">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="J19">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.5071</v>
+      </c>
+      <c r="L19">
+        <v>2.79</v>
+      </c>
+      <c r="M19">
+        <v>139.61000000000001</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.59174714661984196</v>
+      </c>
+      <c r="C20">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="F20">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="G20">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="I20">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="J20">
+        <v>0.1757</v>
+      </c>
+      <c r="K20">
+        <v>0.503</v>
+      </c>
+      <c r="L20">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="M20">
+        <v>144.69</v>
+      </c>
+      <c r="N20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.58141577375724574</v>
+      </c>
+      <c r="C21">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.71330000000000005</v>
+      </c>
+      <c r="F21">
+        <v>0.56189999999999996</v>
+      </c>
+      <c r="G21">
+        <v>0.877</v>
+      </c>
+      <c r="H21">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="J21">
+        <v>0.158</v>
+      </c>
+      <c r="K21">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="L21">
+        <v>2.6960999999999999</v>
+      </c>
+      <c r="M21">
+        <v>140.46</v>
+      </c>
+      <c r="N21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.59070255155540019</v>
+      </c>
+      <c r="C22">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D22">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F22">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="G22">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="H22">
+        <v>0.6885</v>
+      </c>
+      <c r="I22">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="J22">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="L22">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="M22">
+        <v>146.47999999999999</v>
+      </c>
+      <c r="N22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.62328877435980035</v>
+      </c>
+      <c r="C23">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="G23">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="I23">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="J23">
+        <v>0.2155</v>
+      </c>
+      <c r="K23">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="L23">
+        <v>5.6660000000000004</v>
+      </c>
+      <c r="M23">
+        <v>74.63</v>
+      </c>
+      <c r="N23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.47673469387755096</v>
+      </c>
+      <c r="C24">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E24">
+        <v>0.746</v>
+      </c>
+      <c r="F24">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="G24">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="H24">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="I24">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J24">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="L24">
+        <v>5.1547000000000001</v>
+      </c>
+      <c r="M24">
+        <v>74.27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" t="s">
+        <v>57</v>
+      </c>
+      <c r="P24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.61334641805691847</v>
+      </c>
+      <c r="C25">
+        <v>0.375</v>
+      </c>
+      <c r="D25">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="E25">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F25">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="G25">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="H25">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.1835</v>
+      </c>
+      <c r="K25">
+        <v>0.56210000000000004</v>
+      </c>
+      <c r="L25">
+        <v>5.0006000000000004</v>
+      </c>
+      <c r="M25">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="N25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.5513866231647635</v>
+      </c>
+      <c r="C26">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="F26">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.8921</v>
+      </c>
+      <c r="H26">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="J26">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="L26">
+        <v>4.4893999999999998</v>
+      </c>
+      <c r="M26">
+        <v>74.86</v>
+      </c>
+      <c r="N26" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.71901462663587379</v>
+      </c>
+      <c r="C27">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D27">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="E27">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="F27">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G27">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="I27">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="J27">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="L27">
+        <v>9.4437999999999995</v>
+      </c>
+      <c r="M27">
+        <v>54.05</v>
+      </c>
+      <c r="N27" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.66161045667258345</v>
+      </c>
+      <c r="C28">
+        <v>0.41</v>
+      </c>
+      <c r="D28">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="E28">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="G28">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="J28">
+        <v>0.2324</v>
+      </c>
+      <c r="K28">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="L28">
+        <v>5.1485000000000003</v>
+      </c>
+      <c r="M28">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="N28" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.66931637519872811</v>
+      </c>
+      <c r="C29">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.629</v>
+      </c>
+      <c r="M29">
+        <v>59.1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.70199692780337941</v>
+      </c>
+      <c r="C30">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="M30">
+        <v>50.21</v>
+      </c>
+      <c r="N30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P31">
+    <sortCondition ref="A2:A31"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/model_list.xlsx
+++ b/documents/model_list.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Nextchip\JARVIS\Minions\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769167E-1A9E-452E-B6F3-16EBAB4655BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499D90AA-259D-45E8-BFC6-176B41FE5545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
   </bookViews>
   <sheets>
-    <sheet name="v1.0" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
-    <sheet name="v0.9" sheetId="1" r:id="rId3"/>
-    <sheet name="숫자놀이" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="v1.1" sheetId="7" r:id="rId1"/>
+    <sheet name="v1.0" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="v0.9" sheetId="1" r:id="rId4"/>
+    <sheet name="숫자놀이" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="71">
   <si>
     <t>Model Name</t>
   </si>
@@ -718,11 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C7FE6C-004D-4BC2-ACD3-A945594646EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64CD37D-6B20-4FC8-98EA-579FEF1AD8B0}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -733,15 +734,15 @@
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="13.69921875" customWidth="1"/>
     <col min="11" max="11" width="8.8984375" customWidth="1"/>
-    <col min="12" max="12" width="12.796875" customWidth="1"/>
-    <col min="13" max="13" width="12.09765625" customWidth="1"/>
+    <col min="12" max="12" width="14.796875" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="22.09765625" customWidth="1"/>
     <col min="15" max="15" width="30.59765625" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="17" width="53.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,12 +792,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2">
-        <f>$C2/$D2</f>
+        <f t="shared" ref="B2:B30" si="0">$C2/$D2</f>
         <v>0.71901462663587379</v>
       </c>
       <c r="C2">
@@ -842,556 +843,465 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <f>$C3/$D3</f>
-        <v>0.62328877435980035</v>
+        <f t="shared" si="0"/>
+        <v>0.70199692780337941</v>
       </c>
       <c r="C3">
-        <v>0.38700000000000001</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D3">
-        <v>0.62090000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.74609999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="G3">
-        <v>0.89410000000000001</v>
-      </c>
-      <c r="H3">
-        <v>0.75539999999999996</v>
-      </c>
-      <c r="I3">
-        <v>0.66820000000000002</v>
-      </c>
-      <c r="J3">
-        <v>0.2155</v>
-      </c>
-      <c r="K3">
-        <v>0.57489999999999997</v>
-      </c>
-      <c r="L3">
-        <v>5.6660000000000004</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="M3">
-        <v>74.63</v>
+        <v>50.21</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <f>$C4/$D4</f>
-        <v>0.47673469387755096</v>
+        <f t="shared" si="0"/>
+        <v>0.67924528301886788</v>
       </c>
       <c r="C4">
-        <v>0.29199999999999998</v>
+        <v>0.432</v>
       </c>
       <c r="D4">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="E4">
-        <v>0.746</v>
-      </c>
-      <c r="F4">
-        <v>0.61519999999999997</v>
-      </c>
-      <c r="G4">
-        <v>0.89290000000000003</v>
-      </c>
-      <c r="H4">
-        <v>0.75680000000000003</v>
-      </c>
-      <c r="I4">
-        <v>0.67159999999999997</v>
-      </c>
-      <c r="J4">
-        <v>0.16569999999999999</v>
-      </c>
-      <c r="K4">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="L4">
-        <v>5.1547000000000001</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="M4">
-        <v>74.27</v>
+        <v>55.72</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <f>$C5/$D5</f>
-        <v>0.66161045667258345</v>
+        <f t="shared" si="0"/>
+        <v>0.66931637519872811</v>
       </c>
       <c r="C5">
-        <v>0.41</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D5">
-        <v>0.61970000000000003</v>
-      </c>
-      <c r="E5">
-        <v>0.74280000000000002</v>
-      </c>
-      <c r="F5">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="G5">
-        <v>0.89459999999999995</v>
-      </c>
-      <c r="H5">
-        <v>0.73880000000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.66469999999999996</v>
-      </c>
-      <c r="J5">
-        <v>0.2324</v>
-      </c>
-      <c r="K5">
-        <v>0.57210000000000005</v>
-      </c>
-      <c r="L5">
-        <v>5.1485000000000003</v>
+        <v>0.629</v>
       </c>
       <c r="M5">
-        <v>74.319999999999993</v>
+        <v>59.1</v>
       </c>
       <c r="N5" t="s">
         <v>49</v>
       </c>
       <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.66161045667258345</v>
+      </c>
+      <c r="C6">
+        <v>0.41</v>
+      </c>
+      <c r="D6">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.2324</v>
+      </c>
+      <c r="K6">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="L6">
+        <v>5.1485000000000003</v>
+      </c>
+      <c r="M6">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
         <v>51</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <f>$C6/$D6</f>
-        <v>0.61334641805691847</v>
-      </c>
-      <c r="C6">
-        <v>0.375</v>
-      </c>
-      <c r="D6">
-        <v>0.61140000000000005</v>
-      </c>
-      <c r="E6">
-        <v>0.73309999999999997</v>
-      </c>
-      <c r="F6">
-        <v>0.59830000000000005</v>
-      </c>
-      <c r="G6">
-        <v>0.89380000000000004</v>
-      </c>
-      <c r="H6">
-        <v>0.75509999999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.67530000000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.1835</v>
-      </c>
-      <c r="K6">
-        <v>0.56210000000000004</v>
-      </c>
-      <c r="L6">
-        <v>5.0006000000000004</v>
-      </c>
-      <c r="M6">
-        <v>77.989999999999995</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <f>$C7/$D7</f>
-        <v>0.5513866231647635</v>
+        <f t="shared" si="0"/>
+        <v>0.63271604938271597</v>
       </c>
       <c r="C7">
-        <v>0.33800000000000002</v>
+        <v>0.41</v>
       </c>
       <c r="D7">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.73650000000000004</v>
-      </c>
-      <c r="F7">
-        <v>0.59770000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.8921</v>
-      </c>
-      <c r="H7">
-        <v>0.75609999999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.66859999999999997</v>
-      </c>
-      <c r="J7">
-        <v>0.20730000000000001</v>
-      </c>
-      <c r="K7">
-        <v>0.55640000000000001</v>
-      </c>
-      <c r="L7">
-        <v>4.4893999999999998</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="M7">
-        <v>74.86</v>
+        <v>56.57</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O7" t="s">
         <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>26</v>
       </c>
       <c r="B8">
-        <f>$C8/$D8</f>
-        <v>0.59372797744890771</v>
+        <f t="shared" si="0"/>
+        <v>0.62328877435980035</v>
       </c>
       <c r="C8">
-        <v>0.33700000000000002</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D8">
-        <v>0.56759999999999999</v>
+        <v>0.62090000000000001</v>
       </c>
       <c r="E8">
-        <v>0.70109999999999995</v>
+        <v>0.74609999999999999</v>
       </c>
       <c r="F8">
-        <v>0.54339999999999999</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="G8">
-        <v>0.87470000000000003</v>
+        <v>0.89410000000000001</v>
       </c>
       <c r="H8">
-        <v>0.71140000000000003</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="I8">
-        <v>0.61480000000000001</v>
+        <v>0.66820000000000002</v>
       </c>
       <c r="J8">
-        <v>0.14549999999999999</v>
+        <v>0.2155</v>
       </c>
       <c r="K8">
-        <v>0.5161</v>
+        <v>0.57489999999999997</v>
       </c>
       <c r="L8">
-        <v>3.4424999999999999</v>
+        <v>5.6660000000000004</v>
       </c>
       <c r="M8">
-        <v>145.05000000000001</v>
+        <v>74.63</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>24</v>
       </c>
       <c r="B9">
-        <f>$C9/$D9</f>
-        <v>0.60240963855421692</v>
+        <f t="shared" si="0"/>
+        <v>0.61334641805691847</v>
       </c>
       <c r="C9">
-        <v>0.33</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>0.54779999999999995</v>
+        <v>0.61140000000000005</v>
       </c>
       <c r="E9">
-        <v>0.69779999999999998</v>
+        <v>0.73309999999999997</v>
       </c>
       <c r="F9">
-        <v>0.54090000000000005</v>
+        <v>0.59830000000000005</v>
       </c>
       <c r="G9">
-        <v>0.8669</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="H9">
-        <v>0.68120000000000003</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="I9">
-        <v>0.59019999999999995</v>
+        <v>0.67530000000000001</v>
       </c>
       <c r="J9">
-        <v>0.1111</v>
+        <v>0.1835</v>
       </c>
       <c r="K9">
-        <v>0.4965</v>
+        <v>0.56210000000000004</v>
       </c>
       <c r="L9">
-        <v>3.1675059999999999</v>
+        <v>5.0006000000000004</v>
       </c>
       <c r="M9">
-        <v>166.31</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C10">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="L10">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="M10">
+        <v>205.83</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5">
-        <f>$C10/$D10</f>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
         <v>0.60295395308427446</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="5">
         <v>0.34699999999999998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>0.57550000000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>0.71560000000000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="5">
         <v>0.57679999999999998</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>0.88300000000000001</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="5">
         <v>0.71360000000000001</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I11" s="5">
         <v>0.61570000000000003</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="5">
         <v>0.13519999999999999</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K11" s="5">
         <v>0.52839999999999998</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L11" s="5">
         <v>3.0562999999999998</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M11" s="5">
         <v>137.4</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <f>$C11/$D11</f>
-        <v>0.59949892627057988</v>
-      </c>
-      <c r="C11">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.55879999999999996</v>
-      </c>
-      <c r="E11">
-        <v>0.69669999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.53680000000000005</v>
-      </c>
-      <c r="G11">
-        <v>0.8679</v>
-      </c>
-      <c r="H11">
-        <v>0.69269999999999998</v>
-      </c>
-      <c r="I11">
-        <v>0.59630000000000005</v>
-      </c>
-      <c r="J11">
-        <v>0.14729999999999999</v>
-      </c>
-      <c r="K11">
-        <v>0.51170000000000004</v>
-      </c>
-      <c r="L11">
-        <v>3.0068000000000001</v>
-      </c>
-      <c r="M11">
-        <v>166.51</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C12">
+        <v>0.33</v>
+      </c>
+      <c r="D12">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="E12">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.8669</v>
+      </c>
+      <c r="H12">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="J12">
+        <v>0.1111</v>
+      </c>
+      <c r="K12">
+        <v>0.4965</v>
+      </c>
+      <c r="L12">
+        <v>3.1675059999999999</v>
+      </c>
+      <c r="M12">
+        <v>166.31</v>
+      </c>
+      <c r="N12" t="s">
         <v>49</v>
       </c>
-      <c r="O11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
-        <f>$C12/$D12</f>
-        <v>0.57184483700600985</v>
-      </c>
-      <c r="C12">
-        <v>0.314</v>
-      </c>
-      <c r="D12">
-        <v>0.54910000000000003</v>
-      </c>
-      <c r="E12">
-        <v>0.69730000000000003</v>
-      </c>
-      <c r="F12">
-        <v>0.53590000000000004</v>
-      </c>
-      <c r="G12">
-        <v>0.86960000000000004</v>
-      </c>
-      <c r="H12">
-        <v>0.69510000000000005</v>
-      </c>
-      <c r="I12">
-        <v>0.59770000000000001</v>
-      </c>
-      <c r="J12">
-        <v>0.1038</v>
-      </c>
-      <c r="K12">
-        <v>0.49230000000000002</v>
-      </c>
-      <c r="L12">
-        <v>2.9560979999999999</v>
-      </c>
-      <c r="M12">
-        <v>176.95</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>54</v>
-      </c>
-      <c r="O12" t="s">
-        <v>49</v>
       </c>
       <c r="P12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <f>$C13/$D13</f>
-        <v>0.53162732023788073</v>
+        <f t="shared" si="0"/>
+        <v>0.59949892627057988</v>
       </c>
       <c r="C13">
-        <v>0.29499999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D13">
-        <v>0.55489999999999995</v>
+        <v>0.55879999999999996</v>
       </c>
       <c r="E13">
-        <v>0.69220000000000004</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="F13">
-        <v>0.5343</v>
+        <v>0.53680000000000005</v>
       </c>
       <c r="G13">
-        <v>0.8659</v>
+        <v>0.8679</v>
       </c>
       <c r="H13">
-        <v>0.68020000000000003</v>
+        <v>0.69269999999999998</v>
       </c>
       <c r="I13">
-        <v>0.59060000000000001</v>
+        <v>0.59630000000000005</v>
       </c>
       <c r="J13">
-        <v>0.15840000000000001</v>
+        <v>0.14729999999999999</v>
       </c>
       <c r="K13">
-        <v>0.49990000000000001</v>
+        <v>0.51170000000000004</v>
       </c>
       <c r="L13">
-        <v>2.9041999999999999</v>
+        <v>3.0068000000000001</v>
       </c>
       <c r="M13">
-        <v>179.63</v>
+        <v>166.51</v>
       </c>
       <c r="N13" t="s">
         <v>49</v>
@@ -1403,165 +1313,168 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5">
-        <f>$C14/$D14</f>
-        <v>0.55536028119507919</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.316</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.71189999999999998</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.57730000000000004</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.87819999999999998</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.70450000000000002</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.62450000000000006</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.12230000000000001</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.5071</v>
-      </c>
-      <c r="L14" s="5">
-        <v>2.79</v>
-      </c>
-      <c r="M14" s="5">
-        <v>139.61000000000001</v>
-      </c>
-      <c r="N14" s="5" t="s">
+    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C14">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F14">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H14">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="I14">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="J14">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.5161</v>
+      </c>
+      <c r="L14">
+        <v>3.4424999999999999</v>
+      </c>
+      <c r="M14">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59174714661984196</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.1757</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.503</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="M15" s="5">
+        <v>144.69</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="5" t="s">
+      <c r="O15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <f>$C15/$D15</f>
-        <v>0.53974664953185236</v>
-      </c>
-      <c r="C15">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D15">
-        <v>0.54469999999999996</v>
-      </c>
-      <c r="E15">
-        <v>0.68530000000000002</v>
-      </c>
-      <c r="F15">
-        <v>0.53110000000000002</v>
-      </c>
-      <c r="G15">
-        <v>0.86339999999999995</v>
-      </c>
-      <c r="H15">
-        <v>0.66449999999999998</v>
-      </c>
-      <c r="I15">
-        <v>0.57650000000000001</v>
-      </c>
-      <c r="J15">
-        <v>0.1396</v>
-      </c>
-      <c r="K15">
-        <v>0.49330000000000002</v>
-      </c>
-      <c r="L15">
-        <v>2.738</v>
-      </c>
-      <c r="M15">
-        <v>191.44</v>
-      </c>
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59070255155540019</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.6885</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="M16" s="5">
+        <v>146.47999999999999</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <f>$C16/$D16</f>
-        <v>0.5790240349599417</v>
-      </c>
-      <c r="C16">
-        <v>0.318</v>
-      </c>
-      <c r="D16">
-        <v>0.54920000000000002</v>
-      </c>
-      <c r="E16">
-        <v>0.69030000000000002</v>
-      </c>
-      <c r="F16">
-        <v>0.53210000000000002</v>
-      </c>
-      <c r="G16">
-        <v>0.86550000000000005</v>
-      </c>
-      <c r="H16">
-        <v>0.67869999999999997</v>
-      </c>
-      <c r="I16">
-        <v>0.60650000000000004</v>
-      </c>
-      <c r="J16">
-        <v>0.1177</v>
-      </c>
-      <c r="K16">
-        <v>0.49459999999999998</v>
-      </c>
-      <c r="L16">
-        <v>2.7317999999999998</v>
-      </c>
-      <c r="M16">
-        <v>190.68</v>
-      </c>
-      <c r="N16" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="5">
-        <f>$C17/$D17</f>
+        <f t="shared" si="0"/>
         <v>0.58141577375724574</v>
       </c>
       <c r="C17" s="5">
@@ -1608,150 +1521,153 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
+      <c r="A18" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B18">
-        <f>$C18/$D18</f>
-        <v>0.55433589462129529</v>
+        <f t="shared" si="0"/>
+        <v>0.5790240349599417</v>
       </c>
       <c r="C18">
-        <v>0.30299999999999999</v>
+        <v>0.318</v>
       </c>
       <c r="D18">
-        <v>0.54659999999999997</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="E18">
-        <v>0.68610000000000004</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="F18">
-        <v>0.5242</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="G18">
-        <v>0.86080000000000001</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="H18">
-        <v>0.66379999999999995</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="I18">
-        <v>0.58730000000000004</v>
+        <v>0.60650000000000004</v>
       </c>
       <c r="J18">
-        <v>0.1447</v>
+        <v>0.1177</v>
       </c>
       <c r="K18">
-        <v>0.49880000000000002</v>
+        <v>0.49459999999999998</v>
       </c>
       <c r="L18">
-        <v>2.6879</v>
+        <v>2.7317999999999998</v>
       </c>
       <c r="M18">
-        <v>196.89</v>
+        <v>190.68</v>
       </c>
       <c r="N18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" t="s">
         <v>54</v>
-      </c>
-      <c r="O18" t="s">
-        <v>49</v>
       </c>
       <c r="P18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>16</v>
+      <c r="A19" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B19">
-        <f>$C19/$D19</f>
-        <v>0.55545404714050794</v>
+        <f t="shared" si="0"/>
+        <v>0.57776162790697672</v>
       </c>
       <c r="C19">
-        <v>0.30399999999999999</v>
+        <v>0.318</v>
       </c>
       <c r="D19">
-        <v>0.54730000000000001</v>
+        <v>0.5504</v>
       </c>
       <c r="E19">
-        <v>0.68600000000000005</v>
+        <v>0.68310000000000004</v>
       </c>
       <c r="F19">
-        <v>0.52610000000000001</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="G19">
-        <v>0.86209999999999998</v>
+        <v>0.85960000000000003</v>
       </c>
       <c r="H19">
-        <v>0.66600000000000004</v>
+        <v>0.66859999999999997</v>
       </c>
       <c r="I19">
-        <v>0.58899999999999997</v>
+        <v>0.59730000000000005</v>
       </c>
       <c r="J19">
-        <v>0.14460000000000001</v>
+        <v>0.14069999999999999</v>
       </c>
       <c r="K19">
-        <v>0.496</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="L19">
-        <v>2.6855000000000002</v>
+        <v>2.681</v>
+      </c>
+      <c r="M19">
+        <v>190.63</v>
       </c>
       <c r="N19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
+      <c r="A20" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B20">
-        <f>$C20/$D20</f>
-        <v>0.57776162790697672</v>
+        <f t="shared" si="0"/>
+        <v>0.57184483700600985</v>
       </c>
       <c r="C20">
-        <v>0.318</v>
+        <v>0.314</v>
       </c>
       <c r="D20">
-        <v>0.5504</v>
+        <v>0.54910000000000003</v>
       </c>
       <c r="E20">
-        <v>0.68310000000000004</v>
+        <v>0.69730000000000003</v>
       </c>
       <c r="F20">
-        <v>0.52900000000000003</v>
+        <v>0.53590000000000004</v>
       </c>
       <c r="G20">
-        <v>0.85960000000000003</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="H20">
-        <v>0.66859999999999997</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="I20">
-        <v>0.59730000000000005</v>
+        <v>0.59770000000000001</v>
       </c>
       <c r="J20">
-        <v>0.14069999999999999</v>
+        <v>0.1038</v>
       </c>
       <c r="K20">
-        <v>0.50700000000000001</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="L20">
-        <v>2.681</v>
+        <v>2.9560979999999999</v>
       </c>
       <c r="M20">
-        <v>190.63</v>
+        <v>176.95</v>
       </c>
       <c r="N20" t="s">
         <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P20" t="s">
         <v>62</v>
@@ -1762,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <f>$C21/$D21</f>
+        <f t="shared" si="0"/>
         <v>0.55545471047377026</v>
       </c>
       <c r="C21">
@@ -1809,327 +1725,401 @@
       </c>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5">
-        <f>$C22/$D22</f>
-        <v>0.59174714661984196</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.56950000000000001</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.70940000000000003</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.55610000000000004</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.87590000000000001</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.69410000000000005</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0.61240000000000006</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.1757</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0.503</v>
-      </c>
-      <c r="L22" s="5">
-        <v>2.5430000000000001</v>
-      </c>
-      <c r="M22" s="5">
-        <v>144.69</v>
-      </c>
-      <c r="N22" s="5" t="s">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.55545404714050794</v>
+      </c>
+      <c r="C22">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F22">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H22">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I22">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J22">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.496</v>
+      </c>
+      <c r="L22">
+        <v>2.6855000000000002</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.55536028119507919</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.316</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.5071</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2.79</v>
+      </c>
+      <c r="M23" s="5">
+        <v>139.61000000000001</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="5" t="s">
+      <c r="O23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <f>$C23/$D23</f>
-        <v>0.55374592833876224</v>
-      </c>
-      <c r="C23">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D23">
-        <v>0.55259999999999998</v>
-      </c>
-      <c r="E23">
-        <v>0.68110000000000004</v>
-      </c>
-      <c r="F23">
-        <v>0.52310000000000001</v>
-      </c>
-      <c r="G23">
-        <v>0.85880000000000001</v>
-      </c>
-      <c r="H23">
-        <v>0.66420000000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.58420000000000005</v>
-      </c>
-      <c r="J23">
-        <v>0.18340000000000001</v>
-      </c>
-      <c r="K23">
-        <v>0.50170000000000003</v>
-      </c>
-      <c r="L23">
-        <v>2.5041000000000002</v>
-      </c>
-      <c r="N23" t="s">
-        <v>54</v>
-      </c>
-      <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
+      <c r="A24" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B24">
-        <f>$C24/$D24</f>
-        <v>0.60419681620839372</v>
+        <f t="shared" si="0"/>
+        <v>0.55433589462129529</v>
       </c>
       <c r="C24">
-        <v>0.33400000000000002</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D24">
-        <v>0.55279999999999996</v>
+        <v>0.54659999999999997</v>
       </c>
       <c r="E24">
-        <v>0.68269999999999997</v>
+        <v>0.68610000000000004</v>
       </c>
       <c r="F24">
-        <v>0.51910000000000001</v>
+        <v>0.5242</v>
       </c>
       <c r="G24">
-        <v>0.85629999999999995</v>
+        <v>0.86080000000000001</v>
       </c>
       <c r="H24">
-        <v>0.66769999999999996</v>
+        <v>0.66379999999999995</v>
       </c>
       <c r="I24">
-        <v>0.58350000000000002</v>
+        <v>0.58730000000000004</v>
       </c>
       <c r="J24">
-        <v>0.20050000000000001</v>
+        <v>0.1447</v>
       </c>
       <c r="K24">
-        <v>0.48980000000000001</v>
+        <v>0.49880000000000002</v>
       </c>
       <c r="L24">
-        <v>2.4630000000000001</v>
+        <v>2.6879</v>
       </c>
       <c r="M24">
-        <v>205.83</v>
+        <v>196.89</v>
       </c>
       <c r="N24" t="s">
         <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5">
-        <f>$C25/$D25</f>
-        <v>0.59070255155540019</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.55374592833876224</v>
+      </c>
+      <c r="C25">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="E25">
+        <v>0.68110000000000004</v>
+      </c>
+      <c r="F25">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="J25">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="L25">
+        <v>2.5041000000000002</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.5513866231647635</v>
+      </c>
+      <c r="C26">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D25" s="5">
-        <v>0.57220000000000004</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.55879999999999996</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.87039999999999995</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.6885</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0.60750000000000004</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.18579999999999999</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0.52210000000000001</v>
-      </c>
-      <c r="L25" s="5">
-        <v>2.4489999999999998</v>
-      </c>
-      <c r="M25" s="5">
-        <v>146.47999999999999</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" s="5" t="s">
+      <c r="D26">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="F26">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.8921</v>
+      </c>
+      <c r="H26">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="J26">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="L26">
+        <v>4.4893999999999998</v>
+      </c>
+      <c r="M26">
+        <v>74.86</v>
+      </c>
+      <c r="N26" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" t="s">
         <v>51</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <f>$C26/$D26</f>
-        <v>0.5444813584348468</v>
-      </c>
-      <c r="C26">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.54179999999999995</v>
-      </c>
-      <c r="E26">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="F26">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="G26">
-        <v>0.86060000000000003</v>
-      </c>
-      <c r="H26">
-        <v>0.64839999999999998</v>
-      </c>
-      <c r="I26">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="J26">
-        <v>0.1416</v>
-      </c>
-      <c r="K26">
-        <v>0.48830000000000001</v>
-      </c>
-      <c r="L26">
-        <v>2.4116</v>
-      </c>
-      <c r="M26">
-        <v>217.43</v>
-      </c>
-      <c r="N26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" t="s">
-        <v>54</v>
       </c>
       <c r="P26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>41</v>
+      <c r="A27" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B27">
-        <f>$C27/$D27</f>
-        <v>0.70199692780337941</v>
+        <f t="shared" si="0"/>
+        <v>0.5444813584348468</v>
       </c>
       <c r="C27">
-        <v>0.45700000000000002</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D27">
-        <v>0.65100000000000002</v>
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="E27">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F27">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G27">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="H27">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="I27">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J27">
+        <v>0.1416</v>
+      </c>
+      <c r="K27">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="L27">
+        <v>2.4116</v>
       </c>
       <c r="M27">
-        <v>50.21</v>
+        <v>217.43</v>
       </c>
       <c r="N27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>42</v>
+      <c r="A28" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B28">
-        <f>$C28/$D28</f>
-        <v>0.67924528301886788</v>
+        <f t="shared" si="0"/>
+        <v>0.53974664953185236</v>
       </c>
       <c r="C28">
-        <v>0.432</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D28">
-        <v>0.63600000000000001</v>
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="G28">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="J28">
+        <v>0.1396</v>
+      </c>
+      <c r="K28">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="L28">
+        <v>2.738</v>
       </c>
       <c r="M28">
-        <v>55.72</v>
+        <v>191.44</v>
       </c>
       <c r="N28" t="s">
         <v>49</v>
       </c>
       <c r="O28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>40</v>
+      <c r="A29" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B29">
-        <f>$C29/$D29</f>
-        <v>0.66931637519872811</v>
+        <f t="shared" si="0"/>
+        <v>0.53162732023788073</v>
       </c>
       <c r="C29">
-        <v>0.42099999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D29">
-        <v>0.629</v>
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="E29">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="F29">
+        <v>0.5343</v>
+      </c>
+      <c r="G29">
+        <v>0.8659</v>
+      </c>
+      <c r="H29">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="I29">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="J29">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="K29">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="L29">
+        <v>2.9041999999999999</v>
       </c>
       <c r="M29">
-        <v>59.1</v>
+        <v>179.63</v>
       </c>
       <c r="N29" t="s">
         <v>49</v>
@@ -2138,49 +2128,1540 @@
         <v>49</v>
       </c>
       <c r="P29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.47673469387755096</v>
+      </c>
+      <c r="C30">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D30">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E30">
+        <v>0.746</v>
+      </c>
+      <c r="F30">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="G30">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="H30">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="I30">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J30">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="K30">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="L30">
+        <v>5.1547000000000001</v>
+      </c>
+      <c r="M30">
+        <v>74.27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O30" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C7FE6C-004D-4BC2-ACD3-A945594646EF}">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.796875" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" customWidth="1"/>
+    <col min="12" max="12" width="14.796875" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="22.09765625" customWidth="1"/>
+    <col min="15" max="15" width="30.59765625" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="53.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B30" si="0">$C2/$D2</f>
+        <v>0.71901462663587379</v>
+      </c>
+      <c r="C2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="J2">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="L2">
+        <v>9.4437999999999995</v>
+      </c>
+      <c r="M2">
+        <v>54.05</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>0.70199692780337941</v>
+      </c>
+      <c r="C3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="M3">
+        <v>50.21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.67924528301886788</v>
+      </c>
+      <c r="C4">
+        <v>0.432</v>
+      </c>
+      <c r="D4">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M4">
+        <v>55.72</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.66931637519872811</v>
+      </c>
+      <c r="C5">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.629</v>
+      </c>
+      <c r="M5">
+        <v>59.1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.66161045667258345</v>
+      </c>
+      <c r="C6">
+        <v>0.41</v>
+      </c>
+      <c r="D6">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.2324</v>
+      </c>
+      <c r="K6">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="L6">
+        <v>5.1485000000000003</v>
+      </c>
+      <c r="M6">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.63271604938271597</v>
+      </c>
+      <c r="C7">
+        <v>0.41</v>
+      </c>
+      <c r="D7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="M7">
+        <v>56.57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.62328877435980035</v>
+      </c>
+      <c r="C8">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="I8">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.2155</v>
+      </c>
+      <c r="K8">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="L8">
+        <v>5.6660000000000004</v>
+      </c>
+      <c r="M8">
+        <v>74.63</v>
+      </c>
+      <c r="N8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.61334641805691847</v>
+      </c>
+      <c r="C9">
+        <v>0.375</v>
+      </c>
+      <c r="D9">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="G9">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.1835</v>
+      </c>
+      <c r="K9">
+        <v>0.56210000000000004</v>
+      </c>
+      <c r="L9">
+        <v>5.0006000000000004</v>
+      </c>
+      <c r="M9">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C10">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="L10">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="M10">
+        <v>205.83</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.60295395308427446</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.57550000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="L11" s="5">
+        <v>3.0562999999999998</v>
+      </c>
+      <c r="M11" s="5">
+        <v>137.4</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C12">
+        <v>0.33</v>
+      </c>
+      <c r="D12">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="E12">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.8669</v>
+      </c>
+      <c r="H12">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="J12">
+        <v>0.1111</v>
+      </c>
+      <c r="K12">
+        <v>0.4965</v>
+      </c>
+      <c r="L12">
+        <v>3.1675059999999999</v>
+      </c>
+      <c r="M12">
+        <v>166.31</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.59949892627057988</v>
+      </c>
+      <c r="C13">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D13">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="E13">
+        <v>0.69669999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="G13">
+        <v>0.8679</v>
+      </c>
+      <c r="H13">
+        <v>0.69269999999999998</v>
+      </c>
+      <c r="I13">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="J13">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="L13">
+        <v>3.0068000000000001</v>
+      </c>
+      <c r="M13">
+        <v>166.51</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C14">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F14">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H14">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="I14">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="J14">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.5161</v>
+      </c>
+      <c r="L14">
+        <v>3.4424999999999999</v>
+      </c>
+      <c r="M14">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59174714661984196</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.1757</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.503</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="M15" s="5">
+        <v>144.69</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59070255155540019</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.6885</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="M16" s="5">
+        <v>146.47999999999999</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.58141577375724574</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.71330000000000005</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.56189999999999996</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.877</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.158</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2.6960999999999999</v>
+      </c>
+      <c r="M17" s="5">
+        <v>140.46</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.5790240349599417</v>
+      </c>
+      <c r="C18">
+        <v>0.318</v>
+      </c>
+      <c r="D18">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.69030000000000002</v>
+      </c>
+      <c r="F18">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="H18">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="I18">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="J18">
+        <v>0.1177</v>
+      </c>
+      <c r="K18">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="L18">
+        <v>2.7317999999999998</v>
+      </c>
+      <c r="M18">
+        <v>190.68</v>
+      </c>
+      <c r="N18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="C19">
+        <v>0.318</v>
+      </c>
+      <c r="D19">
+        <v>0.5504</v>
+      </c>
+      <c r="E19">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="F19">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G19">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="H19">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="I19">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="J19">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L19">
+        <v>2.681</v>
+      </c>
+      <c r="M19">
+        <v>190.63</v>
+      </c>
+      <c r="N19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="C20">
+        <v>0.314</v>
+      </c>
+      <c r="D20">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="E20">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="F20">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="G20">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="H20">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="I20">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.1038</v>
+      </c>
+      <c r="K20">
+        <v>0.49230000000000002</v>
+      </c>
+      <c r="L20">
+        <v>2.9560979999999999</v>
+      </c>
+      <c r="M20">
+        <v>176.95</v>
+      </c>
+      <c r="N20" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="C21">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="E21">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="F21">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="G21">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="H21">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="I21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.1608</v>
+      </c>
+      <c r="K21">
+        <v>0.498</v>
+      </c>
+      <c r="L21">
+        <v>2.6278999999999999</v>
+      </c>
+      <c r="M21">
+        <v>201.41</v>
+      </c>
+      <c r="N21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.55545404714050794</v>
+      </c>
+      <c r="C22">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F22">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H22">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I22">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J22">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.496</v>
+      </c>
+      <c r="L22">
+        <v>2.6855000000000002</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.55536028119507919</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.316</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.5071</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2.79</v>
+      </c>
+      <c r="M23" s="5">
+        <v>139.61000000000001</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="C24">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="E24">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="F24">
+        <v>0.5242</v>
+      </c>
+      <c r="G24">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="I24">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="J24">
+        <v>0.1447</v>
+      </c>
+      <c r="K24">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="L24">
+        <v>2.6879</v>
+      </c>
+      <c r="M24">
+        <v>196.89</v>
+      </c>
+      <c r="N24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.55374592833876224</v>
+      </c>
+      <c r="C25">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="E25">
+        <v>0.68110000000000004</v>
+      </c>
+      <c r="F25">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="J25">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="L25">
+        <v>2.5041000000000002</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.5513866231647635</v>
+      </c>
+      <c r="C26">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="F26">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.8921</v>
+      </c>
+      <c r="H26">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="J26">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="L26">
+        <v>4.4893999999999998</v>
+      </c>
+      <c r="M26">
+        <v>74.86</v>
+      </c>
+      <c r="N26" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="C27">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="E27">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F27">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G27">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="H27">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="I27">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J27">
+        <v>0.1416</v>
+      </c>
+      <c r="K27">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="L27">
+        <v>2.4116</v>
+      </c>
+      <c r="M27">
+        <v>217.43</v>
+      </c>
+      <c r="N27" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.53974664953185236</v>
+      </c>
+      <c r="C28">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D28">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="G28">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="J28">
+        <v>0.1396</v>
+      </c>
+      <c r="K28">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="L28">
+        <v>2.738</v>
+      </c>
+      <c r="M28">
+        <v>191.44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="C29">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D29">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="E29">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="F29">
+        <v>0.5343</v>
+      </c>
+      <c r="G29">
+        <v>0.8659</v>
+      </c>
+      <c r="H29">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="I29">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="J29">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="K29">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="L29">
+        <v>2.9041999999999999</v>
+      </c>
+      <c r="M29">
+        <v>179.63</v>
+      </c>
+      <c r="N29" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
       <c r="B30">
-        <f>$C30/$D30</f>
-        <v>0.63271604938271597</v>
+        <f t="shared" si="0"/>
+        <v>0.47673469387755096</v>
       </c>
       <c r="C30">
-        <v>0.41</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D30">
-        <v>0.64800000000000002</v>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E30">
+        <v>0.746</v>
+      </c>
+      <c r="F30">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="G30">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="H30">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="I30">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J30">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="K30">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="L30">
+        <v>5.1547000000000001</v>
       </c>
       <c r="M30">
-        <v>56.57</v>
+        <v>74.27</v>
       </c>
       <c r="N30" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P30" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q30">
-    <sortCondition descending="1" ref="L2:L30"/>
+    <sortCondition descending="1" ref="B2:B30"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47C056D-056D-4A11-9CF6-07B5A523E342}">
   <dimension ref="A1:R30"/>
   <sheetViews>
@@ -2270,7 +3751,7 @@
         <v>51</v>
       </c>
       <c r="E2">
-        <f>$F2/$G2</f>
+        <f t="shared" ref="E2:E30" si="0">$F2/$G2</f>
         <v>0.71901462663587379</v>
       </c>
       <c r="F2">
@@ -2321,7 +3802,7 @@
         <v>52</v>
       </c>
       <c r="E3">
-        <f>$F3/$G3</f>
+        <f t="shared" si="0"/>
         <v>0.62328877435980035</v>
       </c>
       <c r="F3">
@@ -2372,7 +3853,7 @@
         <v>57</v>
       </c>
       <c r="E4">
-        <f>$F4/$G4</f>
+        <f t="shared" si="0"/>
         <v>0.47673469387755096</v>
       </c>
       <c r="F4">
@@ -2423,7 +3904,7 @@
         <v>51</v>
       </c>
       <c r="E5">
-        <f>$F5/$G5</f>
+        <f t="shared" si="0"/>
         <v>0.66161045667258345</v>
       </c>
       <c r="F5">
@@ -2474,7 +3955,7 @@
         <v>53</v>
       </c>
       <c r="E6">
-        <f>$F6/$G6</f>
+        <f t="shared" si="0"/>
         <v>0.61334641805691847</v>
       </c>
       <c r="F6">
@@ -2525,7 +4006,7 @@
         <v>51</v>
       </c>
       <c r="E7">
-        <f>$F7/$G7</f>
+        <f t="shared" si="0"/>
         <v>0.5513866231647635</v>
       </c>
       <c r="F7">
@@ -2576,7 +4057,7 @@
         <v>49</v>
       </c>
       <c r="E8">
-        <f>$F8/$G8</f>
+        <f t="shared" si="0"/>
         <v>0.59372797744890771</v>
       </c>
       <c r="F8">
@@ -2627,7 +4108,7 @@
         <v>54</v>
       </c>
       <c r="E9">
-        <f>$F9/$G9</f>
+        <f t="shared" si="0"/>
         <v>0.60240963855421692</v>
       </c>
       <c r="F9">
@@ -2678,7 +4159,7 @@
         <v>50</v>
       </c>
       <c r="E10">
-        <f>$F10/$G10</f>
+        <f t="shared" si="0"/>
         <v>0.60295395308427446</v>
       </c>
       <c r="F10">
@@ -2729,7 +4210,7 @@
         <v>49</v>
       </c>
       <c r="E11">
-        <f>$F11/$G11</f>
+        <f t="shared" si="0"/>
         <v>0.59949892627057988</v>
       </c>
       <c r="F11">
@@ -2780,7 +4261,7 @@
         <v>49</v>
       </c>
       <c r="E12">
-        <f>$F12/$G12</f>
+        <f t="shared" si="0"/>
         <v>0.57184483700600985</v>
       </c>
       <c r="F12">
@@ -2831,7 +4312,7 @@
         <v>49</v>
       </c>
       <c r="E13">
-        <f>$F13/$G13</f>
+        <f t="shared" si="0"/>
         <v>0.53162732023788073</v>
       </c>
       <c r="F13">
@@ -2882,7 +4363,7 @@
         <v>52</v>
       </c>
       <c r="E14">
-        <f>$F14/$G14</f>
+        <f t="shared" si="0"/>
         <v>0.55536028119507919</v>
       </c>
       <c r="F14">
@@ -2933,7 +4414,7 @@
         <v>54</v>
       </c>
       <c r="E15">
-        <f>$F15/$G15</f>
+        <f t="shared" si="0"/>
         <v>0.53974664953185236</v>
       </c>
       <c r="F15">
@@ -2984,7 +4465,7 @@
         <v>54</v>
       </c>
       <c r="E16">
-        <f>$F16/$G16</f>
+        <f t="shared" si="0"/>
         <v>0.5790240349599417</v>
       </c>
       <c r="F16">
@@ -3035,7 +4516,7 @@
         <v>57</v>
       </c>
       <c r="E17">
-        <f>$F17/$G17</f>
+        <f t="shared" si="0"/>
         <v>0.58141577375724574</v>
       </c>
       <c r="F17">
@@ -3086,7 +4567,7 @@
         <v>49</v>
       </c>
       <c r="E18">
-        <f>$F18/$G18</f>
+        <f t="shared" si="0"/>
         <v>0.55433589462129529</v>
       </c>
       <c r="F18">
@@ -3137,7 +4618,7 @@
         <v>49</v>
       </c>
       <c r="E19">
-        <f>$F19/$G19</f>
+        <f t="shared" si="0"/>
         <v>0.55545404714050794</v>
       </c>
       <c r="F19">
@@ -3185,7 +4666,7 @@
         <v>54</v>
       </c>
       <c r="E20">
-        <f>$F20/$G20</f>
+        <f t="shared" si="0"/>
         <v>0.57776162790697672</v>
       </c>
       <c r="F20">
@@ -3236,7 +4717,7 @@
         <v>54</v>
       </c>
       <c r="E21">
-        <f>$F21/$G21</f>
+        <f t="shared" si="0"/>
         <v>0.55545471047377026</v>
       </c>
       <c r="F21">
@@ -3287,7 +4768,7 @@
         <v>53</v>
       </c>
       <c r="E22">
-        <f>$F22/$G22</f>
+        <f t="shared" si="0"/>
         <v>0.59174714661984196</v>
       </c>
       <c r="F22">
@@ -3338,7 +4819,7 @@
         <v>54</v>
       </c>
       <c r="E23">
-        <f>$F23/$G23</f>
+        <f t="shared" si="0"/>
         <v>0.55374592833876224</v>
       </c>
       <c r="F23">
@@ -3386,7 +4867,7 @@
         <v>54</v>
       </c>
       <c r="E24">
-        <f>$F24/$G24</f>
+        <f t="shared" si="0"/>
         <v>0.60419681620839372</v>
       </c>
       <c r="F24">
@@ -3437,7 +4918,7 @@
         <v>51</v>
       </c>
       <c r="E25">
-        <f>$F25/$G25</f>
+        <f t="shared" si="0"/>
         <v>0.59070255155540019</v>
       </c>
       <c r="F25">
@@ -3488,7 +4969,7 @@
         <v>54</v>
       </c>
       <c r="E26">
-        <f>$F26/$G26</f>
+        <f t="shared" si="0"/>
         <v>0.5444813584348468</v>
       </c>
       <c r="F26">
@@ -3536,7 +5017,7 @@
         <v>50</v>
       </c>
       <c r="E27">
-        <f>$F27/$G27</f>
+        <f t="shared" si="0"/>
         <v>0.70199692780337941</v>
       </c>
       <c r="F27">
@@ -3563,7 +5044,7 @@
         <v>51</v>
       </c>
       <c r="E28">
-        <f>$F28/$G28</f>
+        <f t="shared" si="0"/>
         <v>0.67924528301886788</v>
       </c>
       <c r="F28">
@@ -3590,7 +5071,7 @@
         <v>49</v>
       </c>
       <c r="E29">
-        <f>$F29/$G29</f>
+        <f t="shared" si="0"/>
         <v>0.66931637519872811</v>
       </c>
       <c r="F29">
@@ -3617,7 +5098,7 @@
         <v>51</v>
       </c>
       <c r="E30">
-        <f>$F30/$G30</f>
+        <f t="shared" si="0"/>
         <v>0.63271604938271597</v>
       </c>
       <c r="F30">
@@ -3642,7 +5123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07223A4F-088F-4D71-80B8-0765EDD12E4D}">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -4537,7 +6018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B2657C-3F70-4C68-86E3-8A7090548D9C}">
   <dimension ref="A1:M110"/>
   <sheetViews>
@@ -7191,7 +8672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF17639-D595-4C91-8264-6F6A2FA3B3ED}">
   <dimension ref="A1:P45"/>
   <sheetViews>
@@ -7889,7 +9370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690173A2-9D17-4DD4-9142-5654C71F63B6}">
   <dimension ref="A1:P30"/>
   <sheetViews>

--- a/documents/model_list.xlsx
+++ b/documents/model_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Nextchip\JARVIS\Minions\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nextchip\Minions\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769167E-1A9E-452E-B6F3-16EBAB4655BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A8276-4E07-40B8-8A83-E4F8561AF306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="3" r:id="rId1"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C7FE6C-004D-4BC2-ACD3-A945594646EF}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -796,7 +796,7 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <f>$C2/$D2</f>
+        <f t="shared" ref="B2:B30" si="0">$C2/$D2</f>
         <v>0.71901462663587379</v>
       </c>
       <c r="C2">
@@ -847,7 +847,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <f>$C3/$D3</f>
+        <f t="shared" si="0"/>
         <v>0.62328877435980035</v>
       </c>
       <c r="C3">
@@ -890,7 +890,7 @@
         <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -898,7 +898,7 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <f>$C4/$D4</f>
+        <f t="shared" si="0"/>
         <v>0.47673469387755096</v>
       </c>
       <c r="C4">
@@ -941,7 +941,7 @@
         <v>57</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -949,7 +949,7 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <f>$C5/$D5</f>
+        <f t="shared" si="0"/>
         <v>0.66161045667258345</v>
       </c>
       <c r="C5">
@@ -1000,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <f>$C6/$D6</f>
+        <f t="shared" si="0"/>
         <v>0.61334641805691847</v>
       </c>
       <c r="C6">
@@ -1043,7 +1043,7 @@
         <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -1051,7 +1051,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <f>$C7/$D7</f>
+        <f t="shared" si="0"/>
         <v>0.5513866231647635</v>
       </c>
       <c r="C7">
@@ -1094,7 +1094,7 @@
         <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
@@ -1102,7 +1102,7 @@
         <v>39</v>
       </c>
       <c r="B8">
-        <f>$C8/$D8</f>
+        <f t="shared" si="0"/>
         <v>0.59372797744890771</v>
       </c>
       <c r="C8">
@@ -1145,7 +1145,7 @@
         <v>49</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
@@ -1153,7 +1153,7 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <f>$C9/$D9</f>
+        <f t="shared" si="0"/>
         <v>0.60240963855421692</v>
       </c>
       <c r="C9">
@@ -1196,7 +1196,7 @@
         <v>54</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1204,7 +1204,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="5">
-        <f>$C10/$D10</f>
+        <f t="shared" si="0"/>
         <v>0.60295395308427446</v>
       </c>
       <c r="C10" s="5">
@@ -1255,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <f>$C11/$D11</f>
+        <f t="shared" si="0"/>
         <v>0.59949892627057988</v>
       </c>
       <c r="C11">
@@ -1298,7 +1298,7 @@
         <v>49</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
@@ -1306,7 +1306,7 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <f>$C12/$D12</f>
+        <f t="shared" si="0"/>
         <v>0.57184483700600985</v>
       </c>
       <c r="C12">
@@ -1349,7 +1349,7 @@
         <v>49</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
@@ -1357,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <f>$C13/$D13</f>
+        <f t="shared" si="0"/>
         <v>0.53162732023788073</v>
       </c>
       <c r="C13">
@@ -1400,7 +1400,7 @@
         <v>49</v>
       </c>
       <c r="P13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="5">
-        <f>$C14/$D14</f>
+        <f t="shared" si="0"/>
         <v>0.55536028119507919</v>
       </c>
       <c r="C14" s="5">
@@ -1459,7 +1459,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <f>$C15/$D15</f>
+        <f t="shared" si="0"/>
         <v>0.53974664953185236</v>
       </c>
       <c r="C15">
@@ -1502,7 +1502,7 @@
         <v>54</v>
       </c>
       <c r="P15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
@@ -1510,7 +1510,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <f>$C16/$D16</f>
+        <f t="shared" si="0"/>
         <v>0.5790240349599417</v>
       </c>
       <c r="C16">
@@ -1553,7 +1553,7 @@
         <v>54</v>
       </c>
       <c r="P16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1561,7 +1561,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="5">
-        <f>$C17/$D17</f>
+        <f t="shared" si="0"/>
         <v>0.58141577375724574</v>
       </c>
       <c r="C17" s="5">
@@ -1612,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>$C18/$D18</f>
+        <f t="shared" si="0"/>
         <v>0.55433589462129529</v>
       </c>
       <c r="C18">
@@ -1655,7 +1655,7 @@
         <v>49</v>
       </c>
       <c r="P18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
@@ -1663,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <f>$C19/$D19</f>
+        <f t="shared" si="0"/>
         <v>0.55545404714050794</v>
       </c>
       <c r="C19">
@@ -1711,7 +1711,7 @@
         <v>45</v>
       </c>
       <c r="B20">
-        <f>$C20/$D20</f>
+        <f t="shared" si="0"/>
         <v>0.57776162790697672</v>
       </c>
       <c r="C20">
@@ -1754,7 +1754,7 @@
         <v>54</v>
       </c>
       <c r="P20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
@@ -1762,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <f>$C21/$D21</f>
+        <f t="shared" si="0"/>
         <v>0.55545471047377026</v>
       </c>
       <c r="C21">
@@ -1805,7 +1805,7 @@
         <v>54</v>
       </c>
       <c r="P21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1813,7 +1813,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <f>$C22/$D22</f>
+        <f t="shared" si="0"/>
         <v>0.59174714661984196</v>
       </c>
       <c r="C22" s="5">
@@ -1864,7 +1864,7 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <f>$C23/$D23</f>
+        <f t="shared" si="0"/>
         <v>0.55374592833876224</v>
       </c>
       <c r="C23">
@@ -1912,7 +1912,7 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <f>$C24/$D24</f>
+        <f t="shared" si="0"/>
         <v>0.60419681620839372</v>
       </c>
       <c r="C24">
@@ -1955,7 +1955,7 @@
         <v>54</v>
       </c>
       <c r="P24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1963,7 +1963,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5">
-        <f>$C25/$D25</f>
+        <f t="shared" si="0"/>
         <v>0.59070255155540019</v>
       </c>
       <c r="C25" s="5">
@@ -2014,7 +2014,7 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <f>$C26/$D26</f>
+        <f t="shared" si="0"/>
         <v>0.5444813584348468</v>
       </c>
       <c r="C26">
@@ -2057,7 +2057,7 @@
         <v>54</v>
       </c>
       <c r="P26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
@@ -2065,7 +2065,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <f>$C27/$D27</f>
+        <f t="shared" si="0"/>
         <v>0.70199692780337941</v>
       </c>
       <c r="C27">
@@ -2092,7 +2092,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <f>$C28/$D28</f>
+        <f t="shared" si="0"/>
         <v>0.67924528301886788</v>
       </c>
       <c r="C28">
@@ -2119,7 +2119,7 @@
         <v>40</v>
       </c>
       <c r="B29">
-        <f>$C29/$D29</f>
+        <f t="shared" si="0"/>
         <v>0.66931637519872811</v>
       </c>
       <c r="C29">
@@ -2146,7 +2146,7 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <f>$C30/$D30</f>
+        <f t="shared" si="0"/>
         <v>0.63271604938271597</v>
       </c>
       <c r="C30">
@@ -2270,7 +2270,7 @@
         <v>51</v>
       </c>
       <c r="E2">
-        <f>$F2/$G2</f>
+        <f t="shared" ref="E2:E30" si="0">$F2/$G2</f>
         <v>0.71901462663587379</v>
       </c>
       <c r="F2">
@@ -2321,7 +2321,7 @@
         <v>52</v>
       </c>
       <c r="E3">
-        <f>$F3/$G3</f>
+        <f t="shared" si="0"/>
         <v>0.62328877435980035</v>
       </c>
       <c r="F3">
@@ -2372,7 +2372,7 @@
         <v>57</v>
       </c>
       <c r="E4">
-        <f>$F4/$G4</f>
+        <f t="shared" si="0"/>
         <v>0.47673469387755096</v>
       </c>
       <c r="F4">
@@ -2423,7 +2423,7 @@
         <v>51</v>
       </c>
       <c r="E5">
-        <f>$F5/$G5</f>
+        <f t="shared" si="0"/>
         <v>0.66161045667258345</v>
       </c>
       <c r="F5">
@@ -2474,7 +2474,7 @@
         <v>53</v>
       </c>
       <c r="E6">
-        <f>$F6/$G6</f>
+        <f t="shared" si="0"/>
         <v>0.61334641805691847</v>
       </c>
       <c r="F6">
@@ -2525,7 +2525,7 @@
         <v>51</v>
       </c>
       <c r="E7">
-        <f>$F7/$G7</f>
+        <f t="shared" si="0"/>
         <v>0.5513866231647635</v>
       </c>
       <c r="F7">
@@ -2576,7 +2576,7 @@
         <v>49</v>
       </c>
       <c r="E8">
-        <f>$F8/$G8</f>
+        <f t="shared" si="0"/>
         <v>0.59372797744890771</v>
       </c>
       <c r="F8">
@@ -2627,7 +2627,7 @@
         <v>54</v>
       </c>
       <c r="E9">
-        <f>$F9/$G9</f>
+        <f t="shared" si="0"/>
         <v>0.60240963855421692</v>
       </c>
       <c r="F9">
@@ -2678,7 +2678,7 @@
         <v>50</v>
       </c>
       <c r="E10">
-        <f>$F10/$G10</f>
+        <f t="shared" si="0"/>
         <v>0.60295395308427446</v>
       </c>
       <c r="F10">
@@ -2729,7 +2729,7 @@
         <v>49</v>
       </c>
       <c r="E11">
-        <f>$F11/$G11</f>
+        <f t="shared" si="0"/>
         <v>0.59949892627057988</v>
       </c>
       <c r="F11">
@@ -2780,7 +2780,7 @@
         <v>49</v>
       </c>
       <c r="E12">
-        <f>$F12/$G12</f>
+        <f t="shared" si="0"/>
         <v>0.57184483700600985</v>
       </c>
       <c r="F12">
@@ -2831,7 +2831,7 @@
         <v>49</v>
       </c>
       <c r="E13">
-        <f>$F13/$G13</f>
+        <f t="shared" si="0"/>
         <v>0.53162732023788073</v>
       </c>
       <c r="F13">
@@ -2882,7 +2882,7 @@
         <v>52</v>
       </c>
       <c r="E14">
-        <f>$F14/$G14</f>
+        <f t="shared" si="0"/>
         <v>0.55536028119507919</v>
       </c>
       <c r="F14">
@@ -2933,7 +2933,7 @@
         <v>54</v>
       </c>
       <c r="E15">
-        <f>$F15/$G15</f>
+        <f t="shared" si="0"/>
         <v>0.53974664953185236</v>
       </c>
       <c r="F15">
@@ -2984,7 +2984,7 @@
         <v>54</v>
       </c>
       <c r="E16">
-        <f>$F16/$G16</f>
+        <f t="shared" si="0"/>
         <v>0.5790240349599417</v>
       </c>
       <c r="F16">
@@ -3035,7 +3035,7 @@
         <v>57</v>
       </c>
       <c r="E17">
-        <f>$F17/$G17</f>
+        <f t="shared" si="0"/>
         <v>0.58141577375724574</v>
       </c>
       <c r="F17">
@@ -3086,7 +3086,7 @@
         <v>49</v>
       </c>
       <c r="E18">
-        <f>$F18/$G18</f>
+        <f t="shared" si="0"/>
         <v>0.55433589462129529</v>
       </c>
       <c r="F18">
@@ -3137,7 +3137,7 @@
         <v>49</v>
       </c>
       <c r="E19">
-        <f>$F19/$G19</f>
+        <f t="shared" si="0"/>
         <v>0.55545404714050794</v>
       </c>
       <c r="F19">
@@ -3185,7 +3185,7 @@
         <v>54</v>
       </c>
       <c r="E20">
-        <f>$F20/$G20</f>
+        <f t="shared" si="0"/>
         <v>0.57776162790697672</v>
       </c>
       <c r="F20">
@@ -3236,7 +3236,7 @@
         <v>54</v>
       </c>
       <c r="E21">
-        <f>$F21/$G21</f>
+        <f t="shared" si="0"/>
         <v>0.55545471047377026</v>
       </c>
       <c r="F21">
@@ -3287,7 +3287,7 @@
         <v>53</v>
       </c>
       <c r="E22">
-        <f>$F22/$G22</f>
+        <f t="shared" si="0"/>
         <v>0.59174714661984196</v>
       </c>
       <c r="F22">
@@ -3338,7 +3338,7 @@
         <v>54</v>
       </c>
       <c r="E23">
-        <f>$F23/$G23</f>
+        <f t="shared" si="0"/>
         <v>0.55374592833876224</v>
       </c>
       <c r="F23">
@@ -3386,7 +3386,7 @@
         <v>54</v>
       </c>
       <c r="E24">
-        <f>$F24/$G24</f>
+        <f t="shared" si="0"/>
         <v>0.60419681620839372</v>
       </c>
       <c r="F24">
@@ -3437,7 +3437,7 @@
         <v>51</v>
       </c>
       <c r="E25">
-        <f>$F25/$G25</f>
+        <f t="shared" si="0"/>
         <v>0.59070255155540019</v>
       </c>
       <c r="F25">
@@ -3488,7 +3488,7 @@
         <v>54</v>
       </c>
       <c r="E26">
-        <f>$F26/$G26</f>
+        <f t="shared" si="0"/>
         <v>0.5444813584348468</v>
       </c>
       <c r="F26">
@@ -3536,7 +3536,7 @@
         <v>50</v>
       </c>
       <c r="E27">
-        <f>$F27/$G27</f>
+        <f t="shared" si="0"/>
         <v>0.70199692780337941</v>
       </c>
       <c r="F27">
@@ -3563,7 +3563,7 @@
         <v>51</v>
       </c>
       <c r="E28">
-        <f>$F28/$G28</f>
+        <f t="shared" si="0"/>
         <v>0.67924528301886788</v>
       </c>
       <c r="F28">
@@ -3590,7 +3590,7 @@
         <v>49</v>
       </c>
       <c r="E29">
-        <f>$F29/$G29</f>
+        <f t="shared" si="0"/>
         <v>0.66931637519872811</v>
       </c>
       <c r="F29">
@@ -3617,7 +3617,7 @@
         <v>51</v>
       </c>
       <c r="E30">
-        <f>$F30/$G30</f>
+        <f t="shared" si="0"/>
         <v>0.63271604938271597</v>
       </c>
       <c r="F30">

--- a/documents/model_list.xlsx
+++ b/documents/model_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nextchip\Minions\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Nextchip\JARVIS\Minions\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A8276-4E07-40B8-8A83-E4F8561AF306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040E7D2D-45BE-4044-87A8-3BFB8AC2F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="3" r:id="rId1"/>
@@ -314,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +351,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -366,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,6 +389,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C7FE6C-004D-4BC2-ACD3-A945594646EF}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -843,44 +852,44 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <f t="shared" si="0"/>
         <v>0.62328877435980035</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>0.38700000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>0.62090000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>0.74609999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>0.61750000000000005</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>0.89410000000000001</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>0.75539999999999996</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>0.66820000000000002</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>0.2155</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>0.57489999999999997</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>5.6660000000000004</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>74.63</v>
       </c>
       <c r="N3" t="s">
@@ -894,44 +903,44 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <f t="shared" si="0"/>
         <v>0.47673469387755096</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>0.29199999999999998</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>0.61250000000000004</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>0.746</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>0.61519999999999997</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>0.89290000000000003</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>0.75680000000000003</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>0.67159999999999997</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>0.16569999999999999</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>0.57299999999999995</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>5.1547000000000001</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>74.27</v>
       </c>
       <c r="N4" t="s">
@@ -996,44 +1005,44 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>0.61334641805691847</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>0.375</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>0.61140000000000005</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>0.73309999999999997</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>0.59830000000000005</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>0.89380000000000004</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>0.75509999999999999</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>0.67530000000000001</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>0.1835</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>0.56210000000000004</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>5.0006000000000004</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>77.989999999999995</v>
       </c>
       <c r="N6" t="s">
@@ -1047,44 +1056,44 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>0.5513866231647635</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.61299999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.73650000000000004</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>0.59770000000000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>0.8921</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>0.75609999999999999</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>0.66859999999999997</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>0.20730000000000001</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>0.55640000000000001</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>4.4893999999999998</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>74.86</v>
       </c>
       <c r="N7" t="s">

--- a/documents/model_list.xlsx
+++ b/documents/model_list.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Nextchip\JARVIS\Minions\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040E7D2D-45BE-4044-87A8-3BFB8AC2F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB02A75D-A074-41EB-A4FF-AE54FE3CDE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
-    <sheet name="v0.9" sheetId="1" r:id="rId3"/>
-    <sheet name="숫자놀이" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="v0.9" sheetId="1" r:id="rId4"/>
+    <sheet name="숫자놀이" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="71">
   <si>
     <t>Model Name</t>
   </si>
@@ -372,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,6 +393,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,7 +735,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -750,7 +754,7 @@
     <col min="17" max="17" width="53.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -800,12 +804,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B30" si="0">$C2/$D2</f>
+        <f>$C2/$D2</f>
         <v>0.71901462663587379</v>
       </c>
       <c r="C2">
@@ -851,253 +855,157 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.62328877435980035</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.62090000000000001</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.74609999999999999</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.89410000000000001</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.75539999999999996</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.66820000000000002</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.2155</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.57489999999999997</v>
-      </c>
-      <c r="L3" s="6">
-        <v>5.6660000000000004</v>
-      </c>
-      <c r="M3" s="6">
-        <v>74.63</v>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <f>$C3/$D3</f>
+        <v>0.70199692780337941</v>
+      </c>
+      <c r="C3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="M3">
+        <v>50.21</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.47673469387755096</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.746</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.61519999999999997</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.89290000000000003</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.75680000000000003</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.67159999999999997</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.16569999999999999</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="L4" s="6">
-        <v>5.1547000000000001</v>
-      </c>
-      <c r="M4" s="6">
-        <v>74.27</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <f>$C4/$D4</f>
+        <v>0.67924528301886788</v>
+      </c>
+      <c r="C4">
+        <v>0.432</v>
+      </c>
+      <c r="D4">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M4">
+        <v>55.72</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.66161045667258345</v>
+        <f>$C5/$D5</f>
+        <v>0.66931637519872811</v>
       </c>
       <c r="C5">
-        <v>0.41</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D5">
-        <v>0.61970000000000003</v>
-      </c>
-      <c r="E5">
-        <v>0.74280000000000002</v>
-      </c>
-      <c r="F5">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="G5">
-        <v>0.89459999999999995</v>
-      </c>
-      <c r="H5">
-        <v>0.73880000000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.66469999999999996</v>
-      </c>
-      <c r="J5">
-        <v>0.2324</v>
-      </c>
-      <c r="K5">
-        <v>0.57210000000000005</v>
-      </c>
-      <c r="L5">
-        <v>5.1485000000000003</v>
+        <v>0.629</v>
       </c>
       <c r="M5">
-        <v>74.319999999999993</v>
+        <v>59.1</v>
       </c>
       <c r="N5" t="s">
         <v>49</v>
       </c>
       <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <f>$C6/$D6</f>
+        <v>0.66161045667258345</v>
+      </c>
+      <c r="C6">
+        <v>0.41</v>
+      </c>
+      <c r="D6">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.2324</v>
+      </c>
+      <c r="K6">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="L6">
+        <v>5.1485000000000003</v>
+      </c>
+      <c r="M6">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
         <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.61334641805691847</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.61140000000000005</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.73309999999999997</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.59830000000000005</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.89380000000000004</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.75509999999999999</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.67530000000000001</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.1835</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.56210000000000004</v>
-      </c>
-      <c r="L6" s="6">
-        <v>5.0006000000000004</v>
-      </c>
-      <c r="M6" s="6">
-        <v>77.989999999999995</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5513866231647635</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.73650000000000004</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.59770000000000001</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.8921</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.75609999999999999</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.66859999999999997</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.20730000000000001</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.55640000000000001</v>
-      </c>
-      <c r="L7" s="6">
-        <v>4.4893999999999998</v>
-      </c>
-      <c r="M7" s="6">
-        <v>74.86</v>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <f>$C7/$D7</f>
+        <v>0.63271604938271597</v>
+      </c>
+      <c r="C7">
+        <v>0.41</v>
+      </c>
+      <c r="D7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="M7">
+        <v>56.57</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O7" t="s">
         <v>51</v>
@@ -1105,302 +1013,307 @@
       <c r="P7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.59372797744890771</v>
-      </c>
-      <c r="C8">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D8">
-        <v>0.56759999999999999</v>
-      </c>
-      <c r="E8">
-        <v>0.70109999999999995</v>
-      </c>
-      <c r="F8">
-        <v>0.54339999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.87470000000000003</v>
-      </c>
-      <c r="H8">
-        <v>0.71140000000000003</v>
-      </c>
-      <c r="I8">
-        <v>0.61480000000000001</v>
-      </c>
-      <c r="J8">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.5161</v>
-      </c>
-      <c r="L8">
-        <v>3.4424999999999999</v>
-      </c>
-      <c r="M8">
-        <v>145.05000000000001</v>
+      <c r="Q7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <f>$C8/$D8</f>
+        <v>0.62328877435980035</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.2155</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="L8" s="6">
+        <v>5.6660000000000004</v>
+      </c>
+      <c r="M8" s="6">
+        <v>74.63</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.60240963855421692</v>
-      </c>
-      <c r="C9">
-        <v>0.33</v>
-      </c>
-      <c r="D9">
-        <v>0.54779999999999995</v>
-      </c>
-      <c r="E9">
-        <v>0.69779999999999998</v>
-      </c>
-      <c r="F9">
-        <v>0.54090000000000005</v>
-      </c>
-      <c r="G9">
-        <v>0.8669</v>
-      </c>
-      <c r="H9">
-        <v>0.68120000000000003</v>
-      </c>
-      <c r="I9">
-        <v>0.59019999999999995</v>
-      </c>
-      <c r="J9">
-        <v>0.1111</v>
-      </c>
-      <c r="K9">
-        <v>0.4965</v>
-      </c>
-      <c r="L9">
-        <v>3.1675059999999999</v>
-      </c>
-      <c r="M9">
-        <v>166.31</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <f>$C9/$D9</f>
+        <v>0.61334641805691847</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.1835</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.56210000000000004</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5.0006000000000004</v>
+      </c>
+      <c r="M9" s="6">
+        <v>77.989999999999995</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>$C10/$D10</f>
+        <v>0.60419681620839372</v>
+      </c>
+      <c r="C10">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="L10">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="M10">
+        <v>205.83</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5">
-        <f t="shared" si="0"/>
+      <c r="B11" s="5">
+        <f>$C11/$D11</f>
         <v>0.60295395308427446</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="5">
         <v>0.34699999999999998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>0.57550000000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>0.71560000000000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="5">
         <v>0.57679999999999998</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>0.88300000000000001</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="5">
         <v>0.71360000000000001</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I11" s="5">
         <v>0.61570000000000003</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="5">
         <v>0.13519999999999999</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K11" s="5">
         <v>0.52839999999999998</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L11" s="5">
         <v>3.0562999999999998</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M11" s="5">
         <v>137.4</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.59949892627057988</v>
-      </c>
-      <c r="C11">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.55879999999999996</v>
-      </c>
-      <c r="E11">
-        <v>0.69669999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.53680000000000005</v>
-      </c>
-      <c r="G11">
-        <v>0.8679</v>
-      </c>
-      <c r="H11">
-        <v>0.69269999999999998</v>
-      </c>
-      <c r="I11">
-        <v>0.59630000000000005</v>
-      </c>
-      <c r="J11">
-        <v>0.14729999999999999</v>
-      </c>
-      <c r="K11">
-        <v>0.51170000000000004</v>
-      </c>
-      <c r="L11">
-        <v>3.0068000000000001</v>
-      </c>
-      <c r="M11">
-        <v>166.51</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <f>$C12/$D12</f>
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C12">
+        <v>0.33</v>
+      </c>
+      <c r="D12">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="E12">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.8669</v>
+      </c>
+      <c r="H12">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="J12">
+        <v>0.1111</v>
+      </c>
+      <c r="K12">
+        <v>0.4965</v>
+      </c>
+      <c r="L12">
+        <v>3.1675059999999999</v>
+      </c>
+      <c r="M12">
+        <v>166.31</v>
+      </c>
+      <c r="N12" t="s">
         <v>49</v>
       </c>
-      <c r="O11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.57184483700600985</v>
-      </c>
-      <c r="C12">
-        <v>0.314</v>
-      </c>
-      <c r="D12">
-        <v>0.54910000000000003</v>
-      </c>
-      <c r="E12">
-        <v>0.69730000000000003</v>
-      </c>
-      <c r="F12">
-        <v>0.53590000000000004</v>
-      </c>
-      <c r="G12">
-        <v>0.86960000000000004</v>
-      </c>
-      <c r="H12">
-        <v>0.69510000000000005</v>
-      </c>
-      <c r="I12">
-        <v>0.59770000000000001</v>
-      </c>
-      <c r="J12">
-        <v>0.1038</v>
-      </c>
-      <c r="K12">
-        <v>0.49230000000000002</v>
-      </c>
-      <c r="L12">
-        <v>2.9560979999999999</v>
-      </c>
-      <c r="M12">
-        <v>176.95</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>54</v>
-      </c>
-      <c r="O12" t="s">
-        <v>49</v>
       </c>
       <c r="P12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.53162732023788073</v>
+        <f>$C13/$D13</f>
+        <v>0.59949892627057988</v>
       </c>
       <c r="C13">
-        <v>0.29499999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D13">
-        <v>0.55489999999999995</v>
+        <v>0.55879999999999996</v>
       </c>
       <c r="E13">
-        <v>0.69220000000000004</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="F13">
-        <v>0.5343</v>
+        <v>0.53680000000000005</v>
       </c>
       <c r="G13">
-        <v>0.8659</v>
+        <v>0.8679</v>
       </c>
       <c r="H13">
-        <v>0.68020000000000003</v>
+        <v>0.69269999999999998</v>
       </c>
       <c r="I13">
-        <v>0.59060000000000001</v>
+        <v>0.59630000000000005</v>
       </c>
       <c r="J13">
-        <v>0.15840000000000001</v>
+        <v>0.14729999999999999</v>
       </c>
       <c r="K13">
-        <v>0.49990000000000001</v>
+        <v>0.51170000000000004</v>
       </c>
       <c r="L13">
-        <v>2.9041999999999999</v>
+        <v>3.0068000000000001</v>
       </c>
       <c r="M13">
-        <v>179.63</v>
+        <v>166.51</v>
       </c>
       <c r="N13" t="s">
         <v>49</v>
@@ -1412,165 +1325,168 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.55536028119507919</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.316</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.71189999999999998</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.57730000000000004</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.87819999999999998</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.70450000000000002</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.62450000000000006</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.12230000000000001</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.5071</v>
-      </c>
-      <c r="L14" s="5">
-        <v>2.79</v>
-      </c>
-      <c r="M14" s="5">
-        <v>139.61000000000001</v>
-      </c>
-      <c r="N14" s="5" t="s">
+    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f>$C14/$D14</f>
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C14">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F14">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H14">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="I14">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="J14">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.5161</v>
+      </c>
+      <c r="L14">
+        <v>3.4424999999999999</v>
+      </c>
+      <c r="M14">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5">
+        <f>$C15/$D15</f>
+        <v>0.59174714661984196</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.1757</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.503</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="M15" s="5">
+        <v>144.69</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="5" t="s">
+      <c r="O15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.53974664953185236</v>
-      </c>
-      <c r="C15">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D15">
-        <v>0.54469999999999996</v>
-      </c>
-      <c r="E15">
-        <v>0.68530000000000002</v>
-      </c>
-      <c r="F15">
-        <v>0.53110000000000002</v>
-      </c>
-      <c r="G15">
-        <v>0.86339999999999995</v>
-      </c>
-      <c r="H15">
-        <v>0.66449999999999998</v>
-      </c>
-      <c r="I15">
-        <v>0.57650000000000001</v>
-      </c>
-      <c r="J15">
-        <v>0.1396</v>
-      </c>
-      <c r="K15">
-        <v>0.49330000000000002</v>
-      </c>
-      <c r="L15">
-        <v>2.738</v>
-      </c>
-      <c r="M15">
-        <v>191.44</v>
-      </c>
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.5790240349599417</v>
-      </c>
-      <c r="C16">
-        <v>0.318</v>
-      </c>
-      <c r="D16">
-        <v>0.54920000000000002</v>
-      </c>
-      <c r="E16">
-        <v>0.69030000000000002</v>
-      </c>
-      <c r="F16">
-        <v>0.53210000000000002</v>
-      </c>
-      <c r="G16">
-        <v>0.86550000000000005</v>
-      </c>
-      <c r="H16">
-        <v>0.67869999999999997</v>
-      </c>
-      <c r="I16">
-        <v>0.60650000000000004</v>
-      </c>
-      <c r="J16">
-        <v>0.1177</v>
-      </c>
-      <c r="K16">
-        <v>0.49459999999999998</v>
-      </c>
-      <c r="L16">
-        <v>2.7317999999999998</v>
-      </c>
-      <c r="M16">
-        <v>190.68</v>
-      </c>
-      <c r="N16" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5">
+        <f>$C16/$D16</f>
+        <v>0.59070255155540019</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.6885</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="M16" s="5">
+        <v>146.47999999999999</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="5">
-        <f t="shared" si="0"/>
+        <f>$C17/$D17</f>
         <v>0.58141577375724574</v>
       </c>
       <c r="C17" s="5">
@@ -1617,150 +1533,153 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
+      <c r="A18" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.55433589462129529</v>
+        <f>$C18/$D18</f>
+        <v>0.5790240349599417</v>
       </c>
       <c r="C18">
-        <v>0.30299999999999999</v>
+        <v>0.318</v>
       </c>
       <c r="D18">
-        <v>0.54659999999999997</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="E18">
-        <v>0.68610000000000004</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="F18">
-        <v>0.5242</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="G18">
-        <v>0.86080000000000001</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="H18">
-        <v>0.66379999999999995</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="I18">
-        <v>0.58730000000000004</v>
+        <v>0.60650000000000004</v>
       </c>
       <c r="J18">
-        <v>0.1447</v>
+        <v>0.1177</v>
       </c>
       <c r="K18">
-        <v>0.49880000000000002</v>
+        <v>0.49459999999999998</v>
       </c>
       <c r="L18">
-        <v>2.6879</v>
+        <v>2.7317999999999998</v>
       </c>
       <c r="M18">
-        <v>196.89</v>
+        <v>190.68</v>
       </c>
       <c r="N18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" t="s">
         <v>54</v>
-      </c>
-      <c r="O18" t="s">
-        <v>49</v>
       </c>
       <c r="P18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>16</v>
+      <c r="A19" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0.55545404714050794</v>
+        <f>$C19/$D19</f>
+        <v>0.57776162790697672</v>
       </c>
       <c r="C19">
-        <v>0.30399999999999999</v>
+        <v>0.318</v>
       </c>
       <c r="D19">
-        <v>0.54730000000000001</v>
+        <v>0.5504</v>
       </c>
       <c r="E19">
-        <v>0.68600000000000005</v>
+        <v>0.68310000000000004</v>
       </c>
       <c r="F19">
-        <v>0.52610000000000001</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="G19">
-        <v>0.86209999999999998</v>
+        <v>0.85960000000000003</v>
       </c>
       <c r="H19">
-        <v>0.66600000000000004</v>
+        <v>0.66859999999999997</v>
       </c>
       <c r="I19">
-        <v>0.58899999999999997</v>
+        <v>0.59730000000000005</v>
       </c>
       <c r="J19">
-        <v>0.14460000000000001</v>
+        <v>0.14069999999999999</v>
       </c>
       <c r="K19">
-        <v>0.496</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="L19">
-        <v>2.6855000000000002</v>
+        <v>2.681</v>
+      </c>
+      <c r="M19">
+        <v>190.63</v>
       </c>
       <c r="N19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
+      <c r="A20" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.57776162790697672</v>
+        <f>$C20/$D20</f>
+        <v>0.57184483700600985</v>
       </c>
       <c r="C20">
-        <v>0.318</v>
+        <v>0.314</v>
       </c>
       <c r="D20">
-        <v>0.5504</v>
+        <v>0.54910000000000003</v>
       </c>
       <c r="E20">
-        <v>0.68310000000000004</v>
+        <v>0.69730000000000003</v>
       </c>
       <c r="F20">
-        <v>0.52900000000000003</v>
+        <v>0.53590000000000004</v>
       </c>
       <c r="G20">
-        <v>0.85960000000000003</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="H20">
-        <v>0.66859999999999997</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="I20">
-        <v>0.59730000000000005</v>
+        <v>0.59770000000000001</v>
       </c>
       <c r="J20">
-        <v>0.14069999999999999</v>
+        <v>0.1038</v>
       </c>
       <c r="K20">
-        <v>0.50700000000000001</v>
+        <v>0.49230000000000002</v>
       </c>
       <c r="L20">
-        <v>2.681</v>
+        <v>2.9560979999999999</v>
       </c>
       <c r="M20">
-        <v>190.63</v>
+        <v>176.95</v>
       </c>
       <c r="N20" t="s">
         <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P20" t="s">
         <v>63</v>
@@ -1771,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>$C21/$D21</f>
         <v>0.55545471047377026</v>
       </c>
       <c r="C21">
@@ -1818,327 +1737,401 @@
       </c>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.59174714661984196</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.56950000000000001</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.70940000000000003</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.55610000000000004</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.87590000000000001</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.69410000000000005</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0.61240000000000006</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.1757</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0.503</v>
-      </c>
-      <c r="L22" s="5">
-        <v>2.5430000000000001</v>
-      </c>
-      <c r="M22" s="5">
-        <v>144.69</v>
-      </c>
-      <c r="N22" s="5" t="s">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f>$C22/$D22</f>
+        <v>0.55545404714050794</v>
+      </c>
+      <c r="C22">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F22">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H22">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I22">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J22">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.496</v>
+      </c>
+      <c r="L22">
+        <v>2.6855000000000002</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <f>$C23/$D23</f>
+        <v>0.55536028119507919</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.316</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.5071</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2.79</v>
+      </c>
+      <c r="M23" s="5">
+        <v>139.61000000000001</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="5" t="s">
+      <c r="O23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>0.55374592833876224</v>
-      </c>
-      <c r="C23">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D23">
-        <v>0.55259999999999998</v>
-      </c>
-      <c r="E23">
-        <v>0.68110000000000004</v>
-      </c>
-      <c r="F23">
-        <v>0.52310000000000001</v>
-      </c>
-      <c r="G23">
-        <v>0.85880000000000001</v>
-      </c>
-      <c r="H23">
-        <v>0.66420000000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.58420000000000005</v>
-      </c>
-      <c r="J23">
-        <v>0.18340000000000001</v>
-      </c>
-      <c r="K23">
-        <v>0.50170000000000003</v>
-      </c>
-      <c r="L23">
-        <v>2.5041000000000002</v>
-      </c>
-      <c r="N23" t="s">
-        <v>54</v>
-      </c>
-      <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
+      <c r="A24" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>0.60419681620839372</v>
+        <f>$C24/$D24</f>
+        <v>0.55433589462129529</v>
       </c>
       <c r="C24">
-        <v>0.33400000000000002</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D24">
-        <v>0.55279999999999996</v>
+        <v>0.54659999999999997</v>
       </c>
       <c r="E24">
-        <v>0.68269999999999997</v>
+        <v>0.68610000000000004</v>
       </c>
       <c r="F24">
-        <v>0.51910000000000001</v>
+        <v>0.5242</v>
       </c>
       <c r="G24">
-        <v>0.85629999999999995</v>
+        <v>0.86080000000000001</v>
       </c>
       <c r="H24">
-        <v>0.66769999999999996</v>
+        <v>0.66379999999999995</v>
       </c>
       <c r="I24">
-        <v>0.58350000000000002</v>
+        <v>0.58730000000000004</v>
       </c>
       <c r="J24">
-        <v>0.20050000000000001</v>
+        <v>0.1447</v>
       </c>
       <c r="K24">
-        <v>0.48980000000000001</v>
+        <v>0.49880000000000002</v>
       </c>
       <c r="L24">
-        <v>2.4630000000000001</v>
+        <v>2.6879</v>
       </c>
       <c r="M24">
-        <v>205.83</v>
+        <v>196.89</v>
       </c>
       <c r="N24" t="s">
         <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.59070255155540019</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f>$C25/$D25</f>
+        <v>0.55374592833876224</v>
+      </c>
+      <c r="C25">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="E25">
+        <v>0.68110000000000004</v>
+      </c>
+      <c r="F25">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="J25">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="L25">
+        <v>2.5041000000000002</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <f>$C26/$D26</f>
+        <v>0.5513866231647635</v>
+      </c>
+      <c r="C26" s="6">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D25" s="5">
-        <v>0.57220000000000004</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.55879999999999996</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.87039999999999995</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.6885</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0.60750000000000004</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.18579999999999999</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0.52210000000000001</v>
-      </c>
-      <c r="L25" s="5">
-        <v>2.4489999999999998</v>
-      </c>
-      <c r="M25" s="5">
-        <v>146.47999999999999</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" s="5" t="s">
+      <c r="D26" s="6">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.8921</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="L26" s="6">
+        <v>4.4893999999999998</v>
+      </c>
+      <c r="M26" s="6">
+        <v>74.86</v>
+      </c>
+      <c r="N26" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" t="s">
         <v>51</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>0.5444813584348468</v>
-      </c>
-      <c r="C26">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.54179999999999995</v>
-      </c>
-      <c r="E26">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="F26">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="G26">
-        <v>0.86060000000000003</v>
-      </c>
-      <c r="H26">
-        <v>0.64839999999999998</v>
-      </c>
-      <c r="I26">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="J26">
-        <v>0.1416</v>
-      </c>
-      <c r="K26">
-        <v>0.48830000000000001</v>
-      </c>
-      <c r="L26">
-        <v>2.4116</v>
-      </c>
-      <c r="M26">
-        <v>217.43</v>
-      </c>
-      <c r="N26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" t="s">
-        <v>54</v>
       </c>
       <c r="P26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>41</v>
+      <c r="A27" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>0.70199692780337941</v>
+        <f>$C27/$D27</f>
+        <v>0.5444813584348468</v>
       </c>
       <c r="C27">
-        <v>0.45700000000000002</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D27">
-        <v>0.65100000000000002</v>
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="E27">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F27">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G27">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="H27">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="I27">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J27">
+        <v>0.1416</v>
+      </c>
+      <c r="K27">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="L27">
+        <v>2.4116</v>
       </c>
       <c r="M27">
-        <v>50.21</v>
+        <v>217.43</v>
       </c>
       <c r="N27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>42</v>
+      <c r="A28" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>0.67924528301886788</v>
+        <f>$C28/$D28</f>
+        <v>0.53974664953185236</v>
       </c>
       <c r="C28">
-        <v>0.432</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D28">
-        <v>0.63600000000000001</v>
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="G28">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="J28">
+        <v>0.1396</v>
+      </c>
+      <c r="K28">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="L28">
+        <v>2.738</v>
       </c>
       <c r="M28">
-        <v>55.72</v>
+        <v>191.44</v>
       </c>
       <c r="N28" t="s">
         <v>49</v>
       </c>
       <c r="O28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>40</v>
+      <c r="A29" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>0.66931637519872811</v>
+        <f>$C29/$D29</f>
+        <v>0.53162732023788073</v>
       </c>
       <c r="C29">
-        <v>0.42099999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D29">
-        <v>0.629</v>
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="E29">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="F29">
+        <v>0.5343</v>
+      </c>
+      <c r="G29">
+        <v>0.8659</v>
+      </c>
+      <c r="H29">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="I29">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="J29">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="K29">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="L29">
+        <v>2.9041999999999999</v>
       </c>
       <c r="M29">
-        <v>59.1</v>
+        <v>179.63</v>
       </c>
       <c r="N29" t="s">
         <v>49</v>
@@ -2147,42 +2140,63 @@
         <v>49</v>
       </c>
       <c r="P29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>0.63271604938271597</v>
-      </c>
-      <c r="C30">
-        <v>0.41</v>
-      </c>
-      <c r="D30">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="M30">
-        <v>56.57</v>
+      <c r="A30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6">
+        <f>$C30/$D30</f>
+        <v>0.47673469387755096</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.746</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="L30" s="6">
+        <v>5.1547000000000001</v>
+      </c>
+      <c r="M30" s="6">
+        <v>74.27</v>
       </c>
       <c r="N30" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P30" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q30">
-    <sortCondition descending="1" ref="L2:L30"/>
+    <sortCondition descending="1" ref="B2:B30"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2190,6 +2204,3964 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05414B38-54C9-4D3B-B176-9EBC54511259}">
+  <dimension ref="A1:FR30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.796875" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" customWidth="1"/>
+    <col min="13" max="13" width="12.09765625" customWidth="1"/>
+    <col min="14" max="14" width="22.09765625" customWidth="1"/>
+    <col min="15" max="15" width="30.59765625" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="53.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <f>$C2/$D2</f>
+        <v>0.71901462663587379</v>
+      </c>
+      <c r="C2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="J2">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="L2">
+        <v>9.4437999999999995</v>
+      </c>
+      <c r="M2">
+        <v>54.05</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <f>$C3/$D3</f>
+        <v>0.70199692780337941</v>
+      </c>
+      <c r="C3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="M3">
+        <v>50.21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <f>$C4/$D4</f>
+        <v>0.67924528301886788</v>
+      </c>
+      <c r="C4">
+        <v>0.432</v>
+      </c>
+      <c r="D4">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M4">
+        <v>55.72</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <f>$C5/$D5</f>
+        <v>0.66931637519872811</v>
+      </c>
+      <c r="C5">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.629</v>
+      </c>
+      <c r="M5">
+        <v>59.1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <f>$C6/$D6</f>
+        <v>0.66161045667258345</v>
+      </c>
+      <c r="C6">
+        <v>0.41</v>
+      </c>
+      <c r="D6">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.2324</v>
+      </c>
+      <c r="K6">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="L6">
+        <v>5.1485000000000003</v>
+      </c>
+      <c r="M6">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <f>$C7/$D7</f>
+        <v>0.63271604938271597</v>
+      </c>
+      <c r="C7">
+        <v>0.41</v>
+      </c>
+      <c r="D7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="M7">
+        <v>56.57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <f>$C8/$D8</f>
+        <v>0.62328877435980035</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.2155</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="L8" s="6">
+        <v>5.6660000000000004</v>
+      </c>
+      <c r="M8" s="6">
+        <v>74.63</v>
+      </c>
+      <c r="N8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <f>$C9/$D9</f>
+        <v>0.61334641805691847</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.1835</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.56210000000000004</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5.0006000000000004</v>
+      </c>
+      <c r="M9" s="6">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:174" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5">
+        <f>$C10/$D10</f>
+        <v>0.60295395308427446</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.57550000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3.0562999999999998</v>
+      </c>
+      <c r="M10" s="5">
+        <v>137.4</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="7"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="7"/>
+      <c r="BO10" s="7"/>
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="7"/>
+      <c r="BR10" s="7"/>
+      <c r="BS10" s="7"/>
+      <c r="BT10" s="7"/>
+      <c r="BU10" s="7"/>
+      <c r="BV10" s="7"/>
+      <c r="BW10" s="7"/>
+      <c r="BX10" s="7"/>
+      <c r="BY10" s="7"/>
+      <c r="BZ10" s="7"/>
+      <c r="CA10" s="7"/>
+      <c r="CB10" s="7"/>
+      <c r="CC10" s="7"/>
+      <c r="CD10" s="7"/>
+      <c r="CE10" s="7"/>
+      <c r="CF10" s="7"/>
+      <c r="CG10" s="7"/>
+      <c r="CH10" s="7"/>
+      <c r="CI10" s="7"/>
+      <c r="CJ10" s="7"/>
+      <c r="CK10" s="7"/>
+      <c r="CL10" s="7"/>
+      <c r="CM10" s="7"/>
+      <c r="CN10" s="7"/>
+      <c r="CO10" s="7"/>
+      <c r="CP10" s="7"/>
+      <c r="CQ10" s="7"/>
+      <c r="CR10" s="7"/>
+      <c r="CS10" s="7"/>
+      <c r="CT10" s="7"/>
+      <c r="CU10" s="7"/>
+      <c r="CV10" s="7"/>
+      <c r="CW10" s="7"/>
+      <c r="CX10" s="7"/>
+      <c r="CY10" s="7"/>
+      <c r="CZ10" s="7"/>
+      <c r="DA10" s="7"/>
+      <c r="DB10" s="7"/>
+      <c r="DC10" s="7"/>
+      <c r="DD10" s="7"/>
+      <c r="DE10" s="7"/>
+      <c r="DF10" s="7"/>
+      <c r="DG10" s="7"/>
+      <c r="DH10" s="7"/>
+      <c r="DI10" s="7"/>
+      <c r="DJ10" s="7"/>
+      <c r="DK10" s="7"/>
+      <c r="DL10" s="7"/>
+      <c r="DM10" s="7"/>
+      <c r="DN10" s="7"/>
+      <c r="DO10" s="7"/>
+      <c r="DP10" s="7"/>
+      <c r="DQ10" s="7"/>
+      <c r="DR10" s="7"/>
+      <c r="DS10" s="7"/>
+      <c r="DT10" s="7"/>
+      <c r="DU10" s="7"/>
+      <c r="DV10" s="7"/>
+      <c r="DW10" s="7"/>
+      <c r="DX10" s="7"/>
+      <c r="DY10" s="7"/>
+      <c r="DZ10" s="7"/>
+      <c r="EA10" s="7"/>
+      <c r="EB10" s="7"/>
+      <c r="EC10" s="7"/>
+      <c r="ED10" s="7"/>
+      <c r="EE10" s="7"/>
+      <c r="EF10" s="7"/>
+      <c r="EG10" s="7"/>
+      <c r="EH10" s="7"/>
+      <c r="EI10" s="7"/>
+      <c r="EJ10" s="7"/>
+      <c r="EK10" s="7"/>
+      <c r="EL10" s="7"/>
+      <c r="EM10" s="7"/>
+      <c r="EN10" s="7"/>
+      <c r="EO10" s="7"/>
+      <c r="EP10" s="7"/>
+      <c r="EQ10" s="7"/>
+      <c r="ER10" s="7"/>
+      <c r="ES10" s="7"/>
+      <c r="ET10" s="7"/>
+      <c r="EU10" s="7"/>
+      <c r="EV10" s="7"/>
+      <c r="EW10" s="7"/>
+      <c r="EX10" s="7"/>
+      <c r="EY10" s="7"/>
+      <c r="EZ10" s="7"/>
+      <c r="FA10" s="7"/>
+      <c r="FB10" s="7"/>
+      <c r="FC10" s="7"/>
+      <c r="FD10" s="7"/>
+      <c r="FE10" s="7"/>
+      <c r="FF10" s="7"/>
+      <c r="FG10" s="7"/>
+      <c r="FH10" s="7"/>
+      <c r="FI10" s="7"/>
+      <c r="FJ10" s="7"/>
+      <c r="FK10" s="7"/>
+      <c r="FL10" s="7"/>
+      <c r="FM10" s="7"/>
+      <c r="FN10" s="7"/>
+      <c r="FO10" s="7"/>
+      <c r="FP10" s="7"/>
+      <c r="FQ10" s="7"/>
+      <c r="FR10" s="7"/>
+    </row>
+    <row r="11" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <f>$C11/$D11</f>
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="C11">
+        <v>0.33</v>
+      </c>
+      <c r="D11">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.8669</v>
+      </c>
+      <c r="H11">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="J11">
+        <v>0.1111</v>
+      </c>
+      <c r="K11">
+        <v>0.4965</v>
+      </c>
+      <c r="L11">
+        <v>3.1675059999999999</v>
+      </c>
+      <c r="M11">
+        <v>166.31</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="7"/>
+      <c r="BR11" s="7"/>
+      <c r="BS11" s="7"/>
+      <c r="BT11" s="7"/>
+      <c r="BU11" s="7"/>
+      <c r="BV11" s="7"/>
+      <c r="BW11" s="7"/>
+      <c r="BX11" s="7"/>
+      <c r="BY11" s="7"/>
+      <c r="BZ11" s="7"/>
+      <c r="CA11" s="7"/>
+      <c r="CB11" s="7"/>
+      <c r="CC11" s="7"/>
+      <c r="CD11" s="7"/>
+      <c r="CE11" s="7"/>
+      <c r="CF11" s="7"/>
+      <c r="CG11" s="7"/>
+      <c r="CH11" s="7"/>
+      <c r="CI11" s="7"/>
+      <c r="CJ11" s="7"/>
+      <c r="CK11" s="7"/>
+      <c r="CL11" s="7"/>
+      <c r="CM11" s="7"/>
+      <c r="CN11" s="7"/>
+      <c r="CO11" s="7"/>
+      <c r="CP11" s="7"/>
+      <c r="CQ11" s="7"/>
+      <c r="CR11" s="7"/>
+      <c r="CS11" s="7"/>
+      <c r="CT11" s="7"/>
+      <c r="CU11" s="7"/>
+      <c r="CV11" s="7"/>
+      <c r="CW11" s="7"/>
+      <c r="CX11" s="7"/>
+      <c r="CY11" s="7"/>
+      <c r="CZ11" s="7"/>
+      <c r="DA11" s="7"/>
+      <c r="DB11" s="7"/>
+      <c r="DC11" s="7"/>
+      <c r="DD11" s="7"/>
+      <c r="DE11" s="7"/>
+      <c r="DF11" s="7"/>
+      <c r="DG11" s="7"/>
+      <c r="DH11" s="7"/>
+      <c r="DI11" s="7"/>
+      <c r="DJ11" s="7"/>
+      <c r="DK11" s="7"/>
+      <c r="DL11" s="7"/>
+      <c r="DM11" s="7"/>
+      <c r="DN11" s="7"/>
+      <c r="DO11" s="7"/>
+      <c r="DP11" s="7"/>
+      <c r="DQ11" s="7"/>
+      <c r="DR11" s="7"/>
+      <c r="DS11" s="7"/>
+      <c r="DT11" s="7"/>
+      <c r="DU11" s="7"/>
+      <c r="DV11" s="7"/>
+      <c r="DW11" s="7"/>
+      <c r="DX11" s="7"/>
+      <c r="DY11" s="7"/>
+      <c r="DZ11" s="7"/>
+      <c r="EA11" s="7"/>
+      <c r="EB11" s="7"/>
+      <c r="EC11" s="7"/>
+      <c r="ED11" s="7"/>
+      <c r="EE11" s="7"/>
+      <c r="EF11" s="7"/>
+      <c r="EG11" s="7"/>
+      <c r="EH11" s="7"/>
+      <c r="EI11" s="7"/>
+      <c r="EJ11" s="7"/>
+      <c r="EK11" s="7"/>
+      <c r="EL11" s="7"/>
+      <c r="EM11" s="7"/>
+      <c r="EN11" s="7"/>
+      <c r="EO11" s="7"/>
+      <c r="EP11" s="7"/>
+      <c r="EQ11" s="7"/>
+      <c r="ER11" s="7"/>
+      <c r="ES11" s="7"/>
+      <c r="ET11" s="7"/>
+      <c r="EU11" s="7"/>
+      <c r="EV11" s="7"/>
+      <c r="EW11" s="7"/>
+      <c r="EX11" s="7"/>
+      <c r="EY11" s="7"/>
+      <c r="EZ11" s="7"/>
+      <c r="FA11" s="7"/>
+      <c r="FB11" s="7"/>
+      <c r="FC11" s="7"/>
+      <c r="FD11" s="7"/>
+      <c r="FE11" s="7"/>
+      <c r="FF11" s="7"/>
+      <c r="FG11" s="7"/>
+      <c r="FH11" s="7"/>
+      <c r="FI11" s="7"/>
+      <c r="FJ11" s="7"/>
+      <c r="FK11" s="7"/>
+      <c r="FL11" s="7"/>
+      <c r="FM11" s="7"/>
+      <c r="FN11" s="7"/>
+      <c r="FO11" s="7"/>
+      <c r="FP11" s="7"/>
+      <c r="FQ11" s="7"/>
+      <c r="FR11" s="7"/>
+    </row>
+    <row r="12" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <f>$C12/$D12</f>
+        <v>0.59372797744890771</v>
+      </c>
+      <c r="C12">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="F12">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="H12">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.5161</v>
+      </c>
+      <c r="L12">
+        <v>3.4424999999999999</v>
+      </c>
+      <c r="M12">
+        <v>145.05000000000001</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="7"/>
+      <c r="BU12" s="7"/>
+      <c r="BV12" s="7"/>
+      <c r="BW12" s="7"/>
+      <c r="BX12" s="7"/>
+      <c r="BY12" s="7"/>
+      <c r="BZ12" s="7"/>
+      <c r="CA12" s="7"/>
+      <c r="CB12" s="7"/>
+      <c r="CC12" s="7"/>
+      <c r="CD12" s="7"/>
+      <c r="CE12" s="7"/>
+      <c r="CF12" s="7"/>
+      <c r="CG12" s="7"/>
+      <c r="CH12" s="7"/>
+      <c r="CI12" s="7"/>
+      <c r="CJ12" s="7"/>
+      <c r="CK12" s="7"/>
+      <c r="CL12" s="7"/>
+      <c r="CM12" s="7"/>
+      <c r="CN12" s="7"/>
+      <c r="CO12" s="7"/>
+      <c r="CP12" s="7"/>
+      <c r="CQ12" s="7"/>
+      <c r="CR12" s="7"/>
+      <c r="CS12" s="7"/>
+      <c r="CT12" s="7"/>
+      <c r="CU12" s="7"/>
+      <c r="CV12" s="7"/>
+      <c r="CW12" s="7"/>
+      <c r="CX12" s="7"/>
+      <c r="CY12" s="7"/>
+      <c r="CZ12" s="7"/>
+      <c r="DA12" s="7"/>
+      <c r="DB12" s="7"/>
+      <c r="DC12" s="7"/>
+      <c r="DD12" s="7"/>
+      <c r="DE12" s="7"/>
+      <c r="DF12" s="7"/>
+      <c r="DG12" s="7"/>
+      <c r="DH12" s="7"/>
+      <c r="DI12" s="7"/>
+      <c r="DJ12" s="7"/>
+      <c r="DK12" s="7"/>
+      <c r="DL12" s="7"/>
+      <c r="DM12" s="7"/>
+      <c r="DN12" s="7"/>
+      <c r="DO12" s="7"/>
+      <c r="DP12" s="7"/>
+      <c r="DQ12" s="7"/>
+      <c r="DR12" s="7"/>
+      <c r="DS12" s="7"/>
+      <c r="DT12" s="7"/>
+      <c r="DU12" s="7"/>
+      <c r="DV12" s="7"/>
+      <c r="DW12" s="7"/>
+      <c r="DX12" s="7"/>
+      <c r="DY12" s="7"/>
+      <c r="DZ12" s="7"/>
+      <c r="EA12" s="7"/>
+      <c r="EB12" s="7"/>
+      <c r="EC12" s="7"/>
+      <c r="ED12" s="7"/>
+      <c r="EE12" s="7"/>
+      <c r="EF12" s="7"/>
+      <c r="EG12" s="7"/>
+      <c r="EH12" s="7"/>
+      <c r="EI12" s="7"/>
+      <c r="EJ12" s="7"/>
+      <c r="EK12" s="7"/>
+      <c r="EL12" s="7"/>
+      <c r="EM12" s="7"/>
+      <c r="EN12" s="7"/>
+      <c r="EO12" s="7"/>
+      <c r="EP12" s="7"/>
+      <c r="EQ12" s="7"/>
+      <c r="ER12" s="7"/>
+      <c r="ES12" s="7"/>
+      <c r="ET12" s="7"/>
+      <c r="EU12" s="7"/>
+      <c r="EV12" s="7"/>
+      <c r="EW12" s="7"/>
+      <c r="EX12" s="7"/>
+      <c r="EY12" s="7"/>
+      <c r="EZ12" s="7"/>
+      <c r="FA12" s="7"/>
+      <c r="FB12" s="7"/>
+      <c r="FC12" s="7"/>
+      <c r="FD12" s="7"/>
+      <c r="FE12" s="7"/>
+      <c r="FF12" s="7"/>
+      <c r="FG12" s="7"/>
+      <c r="FH12" s="7"/>
+      <c r="FI12" s="7"/>
+      <c r="FJ12" s="7"/>
+      <c r="FK12" s="7"/>
+      <c r="FL12" s="7"/>
+      <c r="FM12" s="7"/>
+      <c r="FN12" s="7"/>
+      <c r="FO12" s="7"/>
+      <c r="FP12" s="7"/>
+      <c r="FQ12" s="7"/>
+      <c r="FR12" s="7"/>
+    </row>
+    <row r="13" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5">
+        <f>$C13/$D13</f>
+        <v>0.59174714661984196</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.1757</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.503</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="M13" s="5">
+        <v>144.69</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="7"/>
+      <c r="BU13" s="7"/>
+      <c r="BV13" s="7"/>
+      <c r="BW13" s="7"/>
+      <c r="BX13" s="7"/>
+      <c r="BY13" s="7"/>
+      <c r="BZ13" s="7"/>
+      <c r="CA13" s="7"/>
+      <c r="CB13" s="7"/>
+      <c r="CC13" s="7"/>
+      <c r="CD13" s="7"/>
+      <c r="CE13" s="7"/>
+      <c r="CF13" s="7"/>
+      <c r="CG13" s="7"/>
+      <c r="CH13" s="7"/>
+      <c r="CI13" s="7"/>
+      <c r="CJ13" s="7"/>
+      <c r="CK13" s="7"/>
+      <c r="CL13" s="7"/>
+      <c r="CM13" s="7"/>
+      <c r="CN13" s="7"/>
+      <c r="CO13" s="7"/>
+      <c r="CP13" s="7"/>
+      <c r="CQ13" s="7"/>
+      <c r="CR13" s="7"/>
+      <c r="CS13" s="7"/>
+      <c r="CT13" s="7"/>
+      <c r="CU13" s="7"/>
+      <c r="CV13" s="7"/>
+      <c r="CW13" s="7"/>
+      <c r="CX13" s="7"/>
+      <c r="CY13" s="7"/>
+      <c r="CZ13" s="7"/>
+      <c r="DA13" s="7"/>
+      <c r="DB13" s="7"/>
+      <c r="DC13" s="7"/>
+      <c r="DD13" s="7"/>
+      <c r="DE13" s="7"/>
+      <c r="DF13" s="7"/>
+      <c r="DG13" s="7"/>
+      <c r="DH13" s="7"/>
+      <c r="DI13" s="7"/>
+      <c r="DJ13" s="7"/>
+      <c r="DK13" s="7"/>
+      <c r="DL13" s="7"/>
+      <c r="DM13" s="7"/>
+      <c r="DN13" s="7"/>
+      <c r="DO13" s="7"/>
+      <c r="DP13" s="7"/>
+      <c r="DQ13" s="7"/>
+      <c r="DR13" s="7"/>
+      <c r="DS13" s="7"/>
+      <c r="DT13" s="7"/>
+      <c r="DU13" s="7"/>
+      <c r="DV13" s="7"/>
+      <c r="DW13" s="7"/>
+      <c r="DX13" s="7"/>
+      <c r="DY13" s="7"/>
+      <c r="DZ13" s="7"/>
+      <c r="EA13" s="7"/>
+      <c r="EB13" s="7"/>
+      <c r="EC13" s="7"/>
+      <c r="ED13" s="7"/>
+      <c r="EE13" s="7"/>
+      <c r="EF13" s="7"/>
+      <c r="EG13" s="7"/>
+      <c r="EH13" s="7"/>
+      <c r="EI13" s="7"/>
+      <c r="EJ13" s="7"/>
+      <c r="EK13" s="7"/>
+      <c r="EL13" s="7"/>
+      <c r="EM13" s="7"/>
+      <c r="EN13" s="7"/>
+      <c r="EO13" s="7"/>
+      <c r="EP13" s="7"/>
+      <c r="EQ13" s="7"/>
+      <c r="ER13" s="7"/>
+      <c r="ES13" s="7"/>
+      <c r="ET13" s="7"/>
+      <c r="EU13" s="7"/>
+      <c r="EV13" s="7"/>
+      <c r="EW13" s="7"/>
+      <c r="EX13" s="7"/>
+      <c r="EY13" s="7"/>
+      <c r="EZ13" s="7"/>
+      <c r="FA13" s="7"/>
+      <c r="FB13" s="7"/>
+      <c r="FC13" s="7"/>
+      <c r="FD13" s="7"/>
+      <c r="FE13" s="7"/>
+      <c r="FF13" s="7"/>
+      <c r="FG13" s="7"/>
+      <c r="FH13" s="7"/>
+      <c r="FI13" s="7"/>
+      <c r="FJ13" s="7"/>
+      <c r="FK13" s="7"/>
+      <c r="FL13" s="7"/>
+      <c r="FM13" s="7"/>
+      <c r="FN13" s="7"/>
+      <c r="FO13" s="7"/>
+      <c r="FP13" s="7"/>
+      <c r="FQ13" s="7"/>
+      <c r="FR13" s="7"/>
+    </row>
+    <row r="14" spans="1:174" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <f>$C14/$D14</f>
+        <v>0.59070255155540019</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.57220000000000004</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.6885</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="M14" s="5">
+        <v>146.47999999999999</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="7"/>
+      <c r="BL14" s="7"/>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="7"/>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7"/>
+      <c r="BR14" s="7"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="7"/>
+      <c r="BU14" s="7"/>
+      <c r="BV14" s="7"/>
+      <c r="BW14" s="7"/>
+      <c r="BX14" s="7"/>
+      <c r="BY14" s="7"/>
+      <c r="BZ14" s="7"/>
+      <c r="CA14" s="7"/>
+      <c r="CB14" s="7"/>
+      <c r="CC14" s="7"/>
+      <c r="CD14" s="7"/>
+      <c r="CE14" s="7"/>
+      <c r="CF14" s="7"/>
+      <c r="CG14" s="7"/>
+      <c r="CH14" s="7"/>
+      <c r="CI14" s="7"/>
+      <c r="CJ14" s="7"/>
+      <c r="CK14" s="7"/>
+      <c r="CL14" s="7"/>
+      <c r="CM14" s="7"/>
+      <c r="CN14" s="7"/>
+      <c r="CO14" s="7"/>
+      <c r="CP14" s="7"/>
+      <c r="CQ14" s="7"/>
+      <c r="CR14" s="7"/>
+      <c r="CS14" s="7"/>
+      <c r="CT14" s="7"/>
+      <c r="CU14" s="7"/>
+      <c r="CV14" s="7"/>
+      <c r="CW14" s="7"/>
+      <c r="CX14" s="7"/>
+      <c r="CY14" s="7"/>
+      <c r="CZ14" s="7"/>
+      <c r="DA14" s="7"/>
+      <c r="DB14" s="7"/>
+      <c r="DC14" s="7"/>
+      <c r="DD14" s="7"/>
+      <c r="DE14" s="7"/>
+      <c r="DF14" s="7"/>
+      <c r="DG14" s="7"/>
+      <c r="DH14" s="7"/>
+      <c r="DI14" s="7"/>
+      <c r="DJ14" s="7"/>
+      <c r="DK14" s="7"/>
+      <c r="DL14" s="7"/>
+      <c r="DM14" s="7"/>
+      <c r="DN14" s="7"/>
+      <c r="DO14" s="7"/>
+      <c r="DP14" s="7"/>
+      <c r="DQ14" s="7"/>
+      <c r="DR14" s="7"/>
+      <c r="DS14" s="7"/>
+      <c r="DT14" s="7"/>
+      <c r="DU14" s="7"/>
+      <c r="DV14" s="7"/>
+      <c r="DW14" s="7"/>
+      <c r="DX14" s="7"/>
+      <c r="DY14" s="7"/>
+      <c r="DZ14" s="7"/>
+      <c r="EA14" s="7"/>
+      <c r="EB14" s="7"/>
+      <c r="EC14" s="7"/>
+      <c r="ED14" s="7"/>
+      <c r="EE14" s="7"/>
+      <c r="EF14" s="7"/>
+      <c r="EG14" s="7"/>
+      <c r="EH14" s="7"/>
+      <c r="EI14" s="7"/>
+      <c r="EJ14" s="7"/>
+      <c r="EK14" s="7"/>
+      <c r="EL14" s="7"/>
+      <c r="EM14" s="7"/>
+      <c r="EN14" s="7"/>
+      <c r="EO14" s="7"/>
+      <c r="EP14" s="7"/>
+      <c r="EQ14" s="7"/>
+      <c r="ER14" s="7"/>
+      <c r="ES14" s="7"/>
+      <c r="ET14" s="7"/>
+      <c r="EU14" s="7"/>
+      <c r="EV14" s="7"/>
+      <c r="EW14" s="7"/>
+      <c r="EX14" s="7"/>
+      <c r="EY14" s="7"/>
+      <c r="EZ14" s="7"/>
+      <c r="FA14" s="7"/>
+      <c r="FB14" s="7"/>
+      <c r="FC14" s="7"/>
+      <c r="FD14" s="7"/>
+      <c r="FE14" s="7"/>
+      <c r="FF14" s="7"/>
+      <c r="FG14" s="7"/>
+      <c r="FH14" s="7"/>
+      <c r="FI14" s="7"/>
+      <c r="FJ14" s="7"/>
+      <c r="FK14" s="7"/>
+      <c r="FL14" s="7"/>
+      <c r="FM14" s="7"/>
+      <c r="FN14" s="7"/>
+      <c r="FO14" s="7"/>
+      <c r="FP14" s="7"/>
+      <c r="FQ14" s="7"/>
+      <c r="FR14" s="7"/>
+    </row>
+    <row r="15" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
+        <f>$C15/$D15</f>
+        <v>0.58141577375724574</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.71330000000000005</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.56189999999999996</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.877</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.158</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2.6960999999999999</v>
+      </c>
+      <c r="M15" s="5">
+        <v>140.46</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="7"/>
+      <c r="BE15" s="7"/>
+      <c r="BF15" s="7"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="7"/>
+      <c r="BK15" s="7"/>
+      <c r="BL15" s="7"/>
+      <c r="BM15" s="7"/>
+      <c r="BN15" s="7"/>
+      <c r="BO15" s="7"/>
+      <c r="BP15" s="7"/>
+      <c r="BQ15" s="7"/>
+      <c r="BR15" s="7"/>
+      <c r="BS15" s="7"/>
+      <c r="BT15" s="7"/>
+      <c r="BU15" s="7"/>
+      <c r="BV15" s="7"/>
+      <c r="BW15" s="7"/>
+      <c r="BX15" s="7"/>
+      <c r="BY15" s="7"/>
+      <c r="BZ15" s="7"/>
+      <c r="CA15" s="7"/>
+      <c r="CB15" s="7"/>
+      <c r="CC15" s="7"/>
+      <c r="CD15" s="7"/>
+      <c r="CE15" s="7"/>
+      <c r="CF15" s="7"/>
+      <c r="CG15" s="7"/>
+      <c r="CH15" s="7"/>
+      <c r="CI15" s="7"/>
+      <c r="CJ15" s="7"/>
+      <c r="CK15" s="7"/>
+      <c r="CL15" s="7"/>
+      <c r="CM15" s="7"/>
+      <c r="CN15" s="7"/>
+      <c r="CO15" s="7"/>
+      <c r="CP15" s="7"/>
+      <c r="CQ15" s="7"/>
+      <c r="CR15" s="7"/>
+      <c r="CS15" s="7"/>
+      <c r="CT15" s="7"/>
+      <c r="CU15" s="7"/>
+      <c r="CV15" s="7"/>
+      <c r="CW15" s="7"/>
+      <c r="CX15" s="7"/>
+      <c r="CY15" s="7"/>
+      <c r="CZ15" s="7"/>
+      <c r="DA15" s="7"/>
+      <c r="DB15" s="7"/>
+      <c r="DC15" s="7"/>
+      <c r="DD15" s="7"/>
+      <c r="DE15" s="7"/>
+      <c r="DF15" s="7"/>
+      <c r="DG15" s="7"/>
+      <c r="DH15" s="7"/>
+      <c r="DI15" s="7"/>
+      <c r="DJ15" s="7"/>
+      <c r="DK15" s="7"/>
+      <c r="DL15" s="7"/>
+      <c r="DM15" s="7"/>
+      <c r="DN15" s="7"/>
+      <c r="DO15" s="7"/>
+      <c r="DP15" s="7"/>
+      <c r="DQ15" s="7"/>
+      <c r="DR15" s="7"/>
+      <c r="DS15" s="7"/>
+      <c r="DT15" s="7"/>
+      <c r="DU15" s="7"/>
+      <c r="DV15" s="7"/>
+      <c r="DW15" s="7"/>
+      <c r="DX15" s="7"/>
+      <c r="DY15" s="7"/>
+      <c r="DZ15" s="7"/>
+      <c r="EA15" s="7"/>
+      <c r="EB15" s="7"/>
+      <c r="EC15" s="7"/>
+      <c r="ED15" s="7"/>
+      <c r="EE15" s="7"/>
+      <c r="EF15" s="7"/>
+      <c r="EG15" s="7"/>
+      <c r="EH15" s="7"/>
+      <c r="EI15" s="7"/>
+      <c r="EJ15" s="7"/>
+      <c r="EK15" s="7"/>
+      <c r="EL15" s="7"/>
+      <c r="EM15" s="7"/>
+      <c r="EN15" s="7"/>
+      <c r="EO15" s="7"/>
+      <c r="EP15" s="7"/>
+      <c r="EQ15" s="7"/>
+      <c r="ER15" s="7"/>
+      <c r="ES15" s="7"/>
+      <c r="ET15" s="7"/>
+      <c r="EU15" s="7"/>
+      <c r="EV15" s="7"/>
+      <c r="EW15" s="7"/>
+      <c r="EX15" s="7"/>
+      <c r="EY15" s="7"/>
+      <c r="EZ15" s="7"/>
+      <c r="FA15" s="7"/>
+      <c r="FB15" s="7"/>
+      <c r="FC15" s="7"/>
+      <c r="FD15" s="7"/>
+      <c r="FE15" s="7"/>
+      <c r="FF15" s="7"/>
+      <c r="FG15" s="7"/>
+      <c r="FH15" s="7"/>
+      <c r="FI15" s="7"/>
+      <c r="FJ15" s="7"/>
+      <c r="FK15" s="7"/>
+      <c r="FL15" s="7"/>
+      <c r="FM15" s="7"/>
+      <c r="FN15" s="7"/>
+      <c r="FO15" s="7"/>
+      <c r="FP15" s="7"/>
+      <c r="FQ15" s="7"/>
+      <c r="FR15" s="7"/>
+    </row>
+    <row r="16" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <f>$C16/$D16</f>
+        <v>0.57776162790697672</v>
+      </c>
+      <c r="C16">
+        <v>0.318</v>
+      </c>
+      <c r="D16">
+        <v>0.5504</v>
+      </c>
+      <c r="E16">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="F16">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G16">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="H16">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="J16">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="L16">
+        <v>2.681</v>
+      </c>
+      <c r="M16">
+        <v>190.63</v>
+      </c>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="7"/>
+      <c r="BD16" s="7"/>
+      <c r="BE16" s="7"/>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="7"/>
+      <c r="BK16" s="7"/>
+      <c r="BL16" s="7"/>
+      <c r="BM16" s="7"/>
+      <c r="BN16" s="7"/>
+      <c r="BO16" s="7"/>
+      <c r="BP16" s="7"/>
+      <c r="BQ16" s="7"/>
+      <c r="BR16" s="7"/>
+      <c r="BS16" s="7"/>
+      <c r="BT16" s="7"/>
+      <c r="BU16" s="7"/>
+      <c r="BV16" s="7"/>
+      <c r="BW16" s="7"/>
+      <c r="BX16" s="7"/>
+      <c r="BY16" s="7"/>
+      <c r="BZ16" s="7"/>
+      <c r="CA16" s="7"/>
+      <c r="CB16" s="7"/>
+      <c r="CC16" s="7"/>
+      <c r="CD16" s="7"/>
+      <c r="CE16" s="7"/>
+      <c r="CF16" s="7"/>
+      <c r="CG16" s="7"/>
+      <c r="CH16" s="7"/>
+      <c r="CI16" s="7"/>
+      <c r="CJ16" s="7"/>
+      <c r="CK16" s="7"/>
+      <c r="CL16" s="7"/>
+      <c r="CM16" s="7"/>
+      <c r="CN16" s="7"/>
+      <c r="CO16" s="7"/>
+      <c r="CP16" s="7"/>
+      <c r="CQ16" s="7"/>
+      <c r="CR16" s="7"/>
+      <c r="CS16" s="7"/>
+      <c r="CT16" s="7"/>
+      <c r="CU16" s="7"/>
+      <c r="CV16" s="7"/>
+      <c r="CW16" s="7"/>
+      <c r="CX16" s="7"/>
+      <c r="CY16" s="7"/>
+      <c r="CZ16" s="7"/>
+      <c r="DA16" s="7"/>
+      <c r="DB16" s="7"/>
+      <c r="DC16" s="7"/>
+      <c r="DD16" s="7"/>
+      <c r="DE16" s="7"/>
+      <c r="DF16" s="7"/>
+      <c r="DG16" s="7"/>
+      <c r="DH16" s="7"/>
+      <c r="DI16" s="7"/>
+      <c r="DJ16" s="7"/>
+      <c r="DK16" s="7"/>
+      <c r="DL16" s="7"/>
+      <c r="DM16" s="7"/>
+      <c r="DN16" s="7"/>
+      <c r="DO16" s="7"/>
+      <c r="DP16" s="7"/>
+      <c r="DQ16" s="7"/>
+      <c r="DR16" s="7"/>
+      <c r="DS16" s="7"/>
+      <c r="DT16" s="7"/>
+      <c r="DU16" s="7"/>
+      <c r="DV16" s="7"/>
+      <c r="DW16" s="7"/>
+      <c r="DX16" s="7"/>
+      <c r="DY16" s="7"/>
+      <c r="DZ16" s="7"/>
+      <c r="EA16" s="7"/>
+      <c r="EB16" s="7"/>
+      <c r="EC16" s="7"/>
+      <c r="ED16" s="7"/>
+      <c r="EE16" s="7"/>
+      <c r="EF16" s="7"/>
+      <c r="EG16" s="7"/>
+      <c r="EH16" s="7"/>
+      <c r="EI16" s="7"/>
+      <c r="EJ16" s="7"/>
+      <c r="EK16" s="7"/>
+      <c r="EL16" s="7"/>
+      <c r="EM16" s="7"/>
+      <c r="EN16" s="7"/>
+      <c r="EO16" s="7"/>
+      <c r="EP16" s="7"/>
+      <c r="EQ16" s="7"/>
+      <c r="ER16" s="7"/>
+      <c r="ES16" s="7"/>
+      <c r="ET16" s="7"/>
+      <c r="EU16" s="7"/>
+      <c r="EV16" s="7"/>
+      <c r="EW16" s="7"/>
+      <c r="EX16" s="7"/>
+      <c r="EY16" s="7"/>
+      <c r="EZ16" s="7"/>
+      <c r="FA16" s="7"/>
+      <c r="FB16" s="7"/>
+      <c r="FC16" s="7"/>
+      <c r="FD16" s="7"/>
+      <c r="FE16" s="7"/>
+      <c r="FF16" s="7"/>
+      <c r="FG16" s="7"/>
+      <c r="FH16" s="7"/>
+      <c r="FI16" s="7"/>
+      <c r="FJ16" s="7"/>
+      <c r="FK16" s="7"/>
+      <c r="FL16" s="7"/>
+      <c r="FM16" s="7"/>
+      <c r="FN16" s="7"/>
+      <c r="FO16" s="7"/>
+      <c r="FP16" s="7"/>
+      <c r="FQ16" s="7"/>
+      <c r="FR16" s="7"/>
+    </row>
+    <row r="17" spans="1:174" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <f>$C17/$D17</f>
+        <v>0.57184483700600985</v>
+      </c>
+      <c r="C17">
+        <v>0.314</v>
+      </c>
+      <c r="D17">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="F17">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="G17">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="H17">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.1038</v>
+      </c>
+      <c r="K17">
+        <v>0.49230000000000002</v>
+      </c>
+      <c r="L17">
+        <v>2.9560979999999999</v>
+      </c>
+      <c r="M17">
+        <v>176.95</v>
+      </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7"/>
+      <c r="BL17" s="7"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="7"/>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="7"/>
+      <c r="BS17" s="7"/>
+      <c r="BT17" s="7"/>
+      <c r="BU17" s="7"/>
+      <c r="BV17" s="7"/>
+      <c r="BW17" s="7"/>
+      <c r="BX17" s="7"/>
+      <c r="BY17" s="7"/>
+      <c r="BZ17" s="7"/>
+      <c r="CA17" s="7"/>
+      <c r="CB17" s="7"/>
+      <c r="CC17" s="7"/>
+      <c r="CD17" s="7"/>
+      <c r="CE17" s="7"/>
+      <c r="CF17" s="7"/>
+      <c r="CG17" s="7"/>
+      <c r="CH17" s="7"/>
+      <c r="CI17" s="7"/>
+      <c r="CJ17" s="7"/>
+      <c r="CK17" s="7"/>
+      <c r="CL17" s="7"/>
+      <c r="CM17" s="7"/>
+      <c r="CN17" s="7"/>
+      <c r="CO17" s="7"/>
+      <c r="CP17" s="7"/>
+      <c r="CQ17" s="7"/>
+      <c r="CR17" s="7"/>
+      <c r="CS17" s="7"/>
+      <c r="CT17" s="7"/>
+      <c r="CU17" s="7"/>
+      <c r="CV17" s="7"/>
+      <c r="CW17" s="7"/>
+      <c r="CX17" s="7"/>
+      <c r="CY17" s="7"/>
+      <c r="CZ17" s="7"/>
+      <c r="DA17" s="7"/>
+      <c r="DB17" s="7"/>
+      <c r="DC17" s="7"/>
+      <c r="DD17" s="7"/>
+      <c r="DE17" s="7"/>
+      <c r="DF17" s="7"/>
+      <c r="DG17" s="7"/>
+      <c r="DH17" s="7"/>
+      <c r="DI17" s="7"/>
+      <c r="DJ17" s="7"/>
+      <c r="DK17" s="7"/>
+      <c r="DL17" s="7"/>
+      <c r="DM17" s="7"/>
+      <c r="DN17" s="7"/>
+      <c r="DO17" s="7"/>
+      <c r="DP17" s="7"/>
+      <c r="DQ17" s="7"/>
+      <c r="DR17" s="7"/>
+      <c r="DS17" s="7"/>
+      <c r="DT17" s="7"/>
+      <c r="DU17" s="7"/>
+      <c r="DV17" s="7"/>
+      <c r="DW17" s="7"/>
+      <c r="DX17" s="7"/>
+      <c r="DY17" s="7"/>
+      <c r="DZ17" s="7"/>
+      <c r="EA17" s="7"/>
+      <c r="EB17" s="7"/>
+      <c r="EC17" s="7"/>
+      <c r="ED17" s="7"/>
+      <c r="EE17" s="7"/>
+      <c r="EF17" s="7"/>
+      <c r="EG17" s="7"/>
+      <c r="EH17" s="7"/>
+      <c r="EI17" s="7"/>
+      <c r="EJ17" s="7"/>
+      <c r="EK17" s="7"/>
+      <c r="EL17" s="7"/>
+      <c r="EM17" s="7"/>
+      <c r="EN17" s="7"/>
+      <c r="EO17" s="7"/>
+      <c r="EP17" s="7"/>
+      <c r="EQ17" s="7"/>
+      <c r="ER17" s="7"/>
+      <c r="ES17" s="7"/>
+      <c r="ET17" s="7"/>
+      <c r="EU17" s="7"/>
+      <c r="EV17" s="7"/>
+      <c r="EW17" s="7"/>
+      <c r="EX17" s="7"/>
+      <c r="EY17" s="7"/>
+      <c r="EZ17" s="7"/>
+      <c r="FA17" s="7"/>
+      <c r="FB17" s="7"/>
+      <c r="FC17" s="7"/>
+      <c r="FD17" s="7"/>
+      <c r="FE17" s="7"/>
+      <c r="FF17" s="7"/>
+      <c r="FG17" s="7"/>
+      <c r="FH17" s="7"/>
+      <c r="FI17" s="7"/>
+      <c r="FJ17" s="7"/>
+      <c r="FK17" s="7"/>
+      <c r="FL17" s="7"/>
+      <c r="FM17" s="7"/>
+      <c r="FN17" s="7"/>
+      <c r="FO17" s="7"/>
+      <c r="FP17" s="7"/>
+      <c r="FQ17" s="7"/>
+      <c r="FR17" s="7"/>
+    </row>
+    <row r="18" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <f>$C18/$D18</f>
+        <v>0.55545471047377026</v>
+      </c>
+      <c r="C18">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="F18">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="H18">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="I18">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="J18">
+        <v>0.1608</v>
+      </c>
+      <c r="K18">
+        <v>0.498</v>
+      </c>
+      <c r="L18">
+        <v>2.6278999999999999</v>
+      </c>
+      <c r="M18">
+        <v>201.41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
+      <c r="BD18" s="7"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+      <c r="BT18" s="7"/>
+      <c r="BU18" s="7"/>
+      <c r="BV18" s="7"/>
+      <c r="BW18" s="7"/>
+      <c r="BX18" s="7"/>
+      <c r="BY18" s="7"/>
+      <c r="BZ18" s="7"/>
+      <c r="CA18" s="7"/>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7"/>
+      <c r="CD18" s="7"/>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="7"/>
+      <c r="CG18" s="7"/>
+      <c r="CH18" s="7"/>
+      <c r="CI18" s="7"/>
+      <c r="CJ18" s="7"/>
+      <c r="CK18" s="7"/>
+      <c r="CL18" s="7"/>
+      <c r="CM18" s="7"/>
+      <c r="CN18" s="7"/>
+      <c r="CO18" s="7"/>
+      <c r="CP18" s="7"/>
+      <c r="CQ18" s="7"/>
+      <c r="CR18" s="7"/>
+      <c r="CS18" s="7"/>
+      <c r="CT18" s="7"/>
+      <c r="CU18" s="7"/>
+      <c r="CV18" s="7"/>
+      <c r="CW18" s="7"/>
+      <c r="CX18" s="7"/>
+      <c r="CY18" s="7"/>
+      <c r="CZ18" s="7"/>
+      <c r="DA18" s="7"/>
+      <c r="DB18" s="7"/>
+      <c r="DC18" s="7"/>
+      <c r="DD18" s="7"/>
+      <c r="DE18" s="7"/>
+      <c r="DF18" s="7"/>
+      <c r="DG18" s="7"/>
+      <c r="DH18" s="7"/>
+      <c r="DI18" s="7"/>
+      <c r="DJ18" s="7"/>
+      <c r="DK18" s="7"/>
+      <c r="DL18" s="7"/>
+      <c r="DM18" s="7"/>
+      <c r="DN18" s="7"/>
+      <c r="DO18" s="7"/>
+      <c r="DP18" s="7"/>
+      <c r="DQ18" s="7"/>
+      <c r="DR18" s="7"/>
+      <c r="DS18" s="7"/>
+      <c r="DT18" s="7"/>
+      <c r="DU18" s="7"/>
+      <c r="DV18" s="7"/>
+      <c r="DW18" s="7"/>
+      <c r="DX18" s="7"/>
+      <c r="DY18" s="7"/>
+      <c r="DZ18" s="7"/>
+      <c r="EA18" s="7"/>
+      <c r="EB18" s="7"/>
+      <c r="EC18" s="7"/>
+      <c r="ED18" s="7"/>
+      <c r="EE18" s="7"/>
+      <c r="EF18" s="7"/>
+      <c r="EG18" s="7"/>
+      <c r="EH18" s="7"/>
+      <c r="EI18" s="7"/>
+      <c r="EJ18" s="7"/>
+      <c r="EK18" s="7"/>
+      <c r="EL18" s="7"/>
+      <c r="EM18" s="7"/>
+      <c r="EN18" s="7"/>
+      <c r="EO18" s="7"/>
+      <c r="EP18" s="7"/>
+      <c r="EQ18" s="7"/>
+      <c r="ER18" s="7"/>
+      <c r="ES18" s="7"/>
+      <c r="ET18" s="7"/>
+      <c r="EU18" s="7"/>
+      <c r="EV18" s="7"/>
+      <c r="EW18" s="7"/>
+      <c r="EX18" s="7"/>
+      <c r="EY18" s="7"/>
+      <c r="EZ18" s="7"/>
+      <c r="FA18" s="7"/>
+      <c r="FB18" s="7"/>
+      <c r="FC18" s="7"/>
+      <c r="FD18" s="7"/>
+      <c r="FE18" s="7"/>
+      <c r="FF18" s="7"/>
+      <c r="FG18" s="7"/>
+      <c r="FH18" s="7"/>
+      <c r="FI18" s="7"/>
+      <c r="FJ18" s="7"/>
+      <c r="FK18" s="7"/>
+      <c r="FL18" s="7"/>
+      <c r="FM18" s="7"/>
+      <c r="FN18" s="7"/>
+      <c r="FO18" s="7"/>
+      <c r="FP18" s="7"/>
+      <c r="FQ18" s="7"/>
+      <c r="FR18" s="7"/>
+    </row>
+    <row r="19" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <f>$C19/$D19</f>
+        <v>0.55545404714050794</v>
+      </c>
+      <c r="C19">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H19">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I19">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J19">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.496</v>
+      </c>
+      <c r="L19">
+        <v>2.6855000000000002</v>
+      </c>
+      <c r="N19" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+      <c r="BU19" s="7"/>
+      <c r="BV19" s="7"/>
+      <c r="BW19" s="7"/>
+      <c r="BX19" s="7"/>
+      <c r="BY19" s="7"/>
+      <c r="BZ19" s="7"/>
+      <c r="CA19" s="7"/>
+      <c r="CB19" s="7"/>
+      <c r="CC19" s="7"/>
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7"/>
+      <c r="CF19" s="7"/>
+      <c r="CG19" s="7"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="7"/>
+      <c r="CJ19" s="7"/>
+      <c r="CK19" s="7"/>
+      <c r="CL19" s="7"/>
+      <c r="CM19" s="7"/>
+      <c r="CN19" s="7"/>
+      <c r="CO19" s="7"/>
+      <c r="CP19" s="7"/>
+      <c r="CQ19" s="7"/>
+      <c r="CR19" s="7"/>
+      <c r="CS19" s="7"/>
+      <c r="CT19" s="7"/>
+      <c r="CU19" s="7"/>
+      <c r="CV19" s="7"/>
+      <c r="CW19" s="7"/>
+      <c r="CX19" s="7"/>
+      <c r="CY19" s="7"/>
+      <c r="CZ19" s="7"/>
+      <c r="DA19" s="7"/>
+      <c r="DB19" s="7"/>
+      <c r="DC19" s="7"/>
+      <c r="DD19" s="7"/>
+      <c r="DE19" s="7"/>
+      <c r="DF19" s="7"/>
+      <c r="DG19" s="7"/>
+      <c r="DH19" s="7"/>
+      <c r="DI19" s="7"/>
+      <c r="DJ19" s="7"/>
+      <c r="DK19" s="7"/>
+      <c r="DL19" s="7"/>
+      <c r="DM19" s="7"/>
+      <c r="DN19" s="7"/>
+      <c r="DO19" s="7"/>
+      <c r="DP19" s="7"/>
+      <c r="DQ19" s="7"/>
+      <c r="DR19" s="7"/>
+      <c r="DS19" s="7"/>
+      <c r="DT19" s="7"/>
+      <c r="DU19" s="7"/>
+      <c r="DV19" s="7"/>
+      <c r="DW19" s="7"/>
+      <c r="DX19" s="7"/>
+      <c r="DY19" s="7"/>
+      <c r="DZ19" s="7"/>
+      <c r="EA19" s="7"/>
+      <c r="EB19" s="7"/>
+      <c r="EC19" s="7"/>
+      <c r="ED19" s="7"/>
+      <c r="EE19" s="7"/>
+      <c r="EF19" s="7"/>
+      <c r="EG19" s="7"/>
+      <c r="EH19" s="7"/>
+      <c r="EI19" s="7"/>
+      <c r="EJ19" s="7"/>
+      <c r="EK19" s="7"/>
+      <c r="EL19" s="7"/>
+      <c r="EM19" s="7"/>
+      <c r="EN19" s="7"/>
+      <c r="EO19" s="7"/>
+      <c r="EP19" s="7"/>
+      <c r="EQ19" s="7"/>
+      <c r="ER19" s="7"/>
+      <c r="ES19" s="7"/>
+      <c r="ET19" s="7"/>
+      <c r="EU19" s="7"/>
+      <c r="EV19" s="7"/>
+      <c r="EW19" s="7"/>
+      <c r="EX19" s="7"/>
+      <c r="EY19" s="7"/>
+      <c r="EZ19" s="7"/>
+      <c r="FA19" s="7"/>
+      <c r="FB19" s="7"/>
+      <c r="FC19" s="7"/>
+      <c r="FD19" s="7"/>
+      <c r="FE19" s="7"/>
+      <c r="FF19" s="7"/>
+      <c r="FG19" s="7"/>
+      <c r="FH19" s="7"/>
+      <c r="FI19" s="7"/>
+      <c r="FJ19" s="7"/>
+      <c r="FK19" s="7"/>
+      <c r="FL19" s="7"/>
+      <c r="FM19" s="7"/>
+      <c r="FN19" s="7"/>
+      <c r="FO19" s="7"/>
+      <c r="FP19" s="7"/>
+      <c r="FQ19" s="7"/>
+      <c r="FR19" s="7"/>
+    </row>
+    <row r="20" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5">
+        <f>$C20/$D20</f>
+        <v>0.55536028119507919</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.316</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.5071</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2.79</v>
+      </c>
+      <c r="M20" s="5">
+        <v>139.61000000000001</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="7"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="7"/>
+      <c r="BJ20" s="7"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="7"/>
+      <c r="BO20" s="7"/>
+      <c r="BP20" s="7"/>
+      <c r="BQ20" s="7"/>
+      <c r="BR20" s="7"/>
+      <c r="BS20" s="7"/>
+      <c r="BT20" s="7"/>
+      <c r="BU20" s="7"/>
+      <c r="BV20" s="7"/>
+      <c r="BW20" s="7"/>
+      <c r="BX20" s="7"/>
+      <c r="BY20" s="7"/>
+      <c r="BZ20" s="7"/>
+      <c r="CA20" s="7"/>
+      <c r="CB20" s="7"/>
+      <c r="CC20" s="7"/>
+      <c r="CD20" s="7"/>
+      <c r="CE20" s="7"/>
+      <c r="CF20" s="7"/>
+      <c r="CG20" s="7"/>
+      <c r="CH20" s="7"/>
+      <c r="CI20" s="7"/>
+      <c r="CJ20" s="7"/>
+      <c r="CK20" s="7"/>
+      <c r="CL20" s="7"/>
+      <c r="CM20" s="7"/>
+      <c r="CN20" s="7"/>
+      <c r="CO20" s="7"/>
+      <c r="CP20" s="7"/>
+      <c r="CQ20" s="7"/>
+      <c r="CR20" s="7"/>
+      <c r="CS20" s="7"/>
+      <c r="CT20" s="7"/>
+      <c r="CU20" s="7"/>
+      <c r="CV20" s="7"/>
+      <c r="CW20" s="7"/>
+      <c r="CX20" s="7"/>
+      <c r="CY20" s="7"/>
+      <c r="CZ20" s="7"/>
+      <c r="DA20" s="7"/>
+      <c r="DB20" s="7"/>
+      <c r="DC20" s="7"/>
+      <c r="DD20" s="7"/>
+      <c r="DE20" s="7"/>
+      <c r="DF20" s="7"/>
+      <c r="DG20" s="7"/>
+      <c r="DH20" s="7"/>
+      <c r="DI20" s="7"/>
+      <c r="DJ20" s="7"/>
+      <c r="DK20" s="7"/>
+      <c r="DL20" s="7"/>
+      <c r="DM20" s="7"/>
+      <c r="DN20" s="7"/>
+      <c r="DO20" s="7"/>
+      <c r="DP20" s="7"/>
+      <c r="DQ20" s="7"/>
+      <c r="DR20" s="7"/>
+      <c r="DS20" s="7"/>
+      <c r="DT20" s="7"/>
+      <c r="DU20" s="7"/>
+      <c r="DV20" s="7"/>
+      <c r="DW20" s="7"/>
+      <c r="DX20" s="7"/>
+      <c r="DY20" s="7"/>
+      <c r="DZ20" s="7"/>
+      <c r="EA20" s="7"/>
+      <c r="EB20" s="7"/>
+      <c r="EC20" s="7"/>
+      <c r="ED20" s="7"/>
+      <c r="EE20" s="7"/>
+      <c r="EF20" s="7"/>
+      <c r="EG20" s="7"/>
+      <c r="EH20" s="7"/>
+      <c r="EI20" s="7"/>
+      <c r="EJ20" s="7"/>
+      <c r="EK20" s="7"/>
+      <c r="EL20" s="7"/>
+      <c r="EM20" s="7"/>
+      <c r="EN20" s="7"/>
+      <c r="EO20" s="7"/>
+      <c r="EP20" s="7"/>
+      <c r="EQ20" s="7"/>
+      <c r="ER20" s="7"/>
+      <c r="ES20" s="7"/>
+      <c r="ET20" s="7"/>
+      <c r="EU20" s="7"/>
+      <c r="EV20" s="7"/>
+      <c r="EW20" s="7"/>
+      <c r="EX20" s="7"/>
+      <c r="EY20" s="7"/>
+      <c r="EZ20" s="7"/>
+      <c r="FA20" s="7"/>
+      <c r="FB20" s="7"/>
+      <c r="FC20" s="7"/>
+      <c r="FD20" s="7"/>
+      <c r="FE20" s="7"/>
+      <c r="FF20" s="7"/>
+      <c r="FG20" s="7"/>
+      <c r="FH20" s="7"/>
+      <c r="FI20" s="7"/>
+      <c r="FJ20" s="7"/>
+      <c r="FK20" s="7"/>
+      <c r="FL20" s="7"/>
+      <c r="FM20" s="7"/>
+      <c r="FN20" s="7"/>
+      <c r="FO20" s="7"/>
+      <c r="FP20" s="7"/>
+      <c r="FQ20" s="7"/>
+      <c r="FR20" s="7"/>
+    </row>
+    <row r="21" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <f>$C21/$D21</f>
+        <v>0.55433589462129529</v>
+      </c>
+      <c r="C21">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="E21">
+        <v>0.68610000000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.5242</v>
+      </c>
+      <c r="G21">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="I21">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="J21">
+        <v>0.1447</v>
+      </c>
+      <c r="K21">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="L21">
+        <v>2.6879</v>
+      </c>
+      <c r="M21">
+        <v>196.89</v>
+      </c>
+      <c r="N21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="7"/>
+      <c r="BD21" s="7"/>
+      <c r="BE21" s="7"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="7"/>
+      <c r="BH21" s="7"/>
+      <c r="BI21" s="7"/>
+      <c r="BJ21" s="7"/>
+      <c r="BK21" s="7"/>
+      <c r="BL21" s="7"/>
+      <c r="BM21" s="7"/>
+      <c r="BN21" s="7"/>
+      <c r="BO21" s="7"/>
+      <c r="BP21" s="7"/>
+      <c r="BQ21" s="7"/>
+      <c r="BR21" s="7"/>
+      <c r="BS21" s="7"/>
+      <c r="BT21" s="7"/>
+      <c r="BU21" s="7"/>
+      <c r="BV21" s="7"/>
+      <c r="BW21" s="7"/>
+      <c r="BX21" s="7"/>
+      <c r="BY21" s="7"/>
+      <c r="BZ21" s="7"/>
+      <c r="CA21" s="7"/>
+      <c r="CB21" s="7"/>
+      <c r="CC21" s="7"/>
+      <c r="CD21" s="7"/>
+      <c r="CE21" s="7"/>
+      <c r="CF21" s="7"/>
+      <c r="CG21" s="7"/>
+      <c r="CH21" s="7"/>
+      <c r="CI21" s="7"/>
+      <c r="CJ21" s="7"/>
+      <c r="CK21" s="7"/>
+      <c r="CL21" s="7"/>
+      <c r="CM21" s="7"/>
+      <c r="CN21" s="7"/>
+      <c r="CO21" s="7"/>
+      <c r="CP21" s="7"/>
+      <c r="CQ21" s="7"/>
+      <c r="CR21" s="7"/>
+      <c r="CS21" s="7"/>
+      <c r="CT21" s="7"/>
+      <c r="CU21" s="7"/>
+      <c r="CV21" s="7"/>
+      <c r="CW21" s="7"/>
+      <c r="CX21" s="7"/>
+      <c r="CY21" s="7"/>
+      <c r="CZ21" s="7"/>
+      <c r="DA21" s="7"/>
+      <c r="DB21" s="7"/>
+      <c r="DC21" s="7"/>
+      <c r="DD21" s="7"/>
+      <c r="DE21" s="7"/>
+      <c r="DF21" s="7"/>
+      <c r="DG21" s="7"/>
+      <c r="DH21" s="7"/>
+      <c r="DI21" s="7"/>
+      <c r="DJ21" s="7"/>
+      <c r="DK21" s="7"/>
+      <c r="DL21" s="7"/>
+      <c r="DM21" s="7"/>
+      <c r="DN21" s="7"/>
+      <c r="DO21" s="7"/>
+      <c r="DP21" s="7"/>
+      <c r="DQ21" s="7"/>
+      <c r="DR21" s="7"/>
+      <c r="DS21" s="7"/>
+      <c r="DT21" s="7"/>
+      <c r="DU21" s="7"/>
+      <c r="DV21" s="7"/>
+      <c r="DW21" s="7"/>
+      <c r="DX21" s="7"/>
+      <c r="DY21" s="7"/>
+      <c r="DZ21" s="7"/>
+      <c r="EA21" s="7"/>
+      <c r="EB21" s="7"/>
+      <c r="EC21" s="7"/>
+      <c r="ED21" s="7"/>
+      <c r="EE21" s="7"/>
+      <c r="EF21" s="7"/>
+      <c r="EG21" s="7"/>
+      <c r="EH21" s="7"/>
+      <c r="EI21" s="7"/>
+      <c r="EJ21" s="7"/>
+      <c r="EK21" s="7"/>
+      <c r="EL21" s="7"/>
+      <c r="EM21" s="7"/>
+      <c r="EN21" s="7"/>
+      <c r="EO21" s="7"/>
+      <c r="EP21" s="7"/>
+      <c r="EQ21" s="7"/>
+      <c r="ER21" s="7"/>
+      <c r="ES21" s="7"/>
+      <c r="ET21" s="7"/>
+      <c r="EU21" s="7"/>
+      <c r="EV21" s="7"/>
+      <c r="EW21" s="7"/>
+      <c r="EX21" s="7"/>
+      <c r="EY21" s="7"/>
+      <c r="EZ21" s="7"/>
+      <c r="FA21" s="7"/>
+      <c r="FB21" s="7"/>
+      <c r="FC21" s="7"/>
+      <c r="FD21" s="7"/>
+      <c r="FE21" s="7"/>
+      <c r="FF21" s="7"/>
+      <c r="FG21" s="7"/>
+      <c r="FH21" s="7"/>
+      <c r="FI21" s="7"/>
+      <c r="FJ21" s="7"/>
+      <c r="FK21" s="7"/>
+      <c r="FL21" s="7"/>
+      <c r="FM21" s="7"/>
+      <c r="FN21" s="7"/>
+      <c r="FO21" s="7"/>
+      <c r="FP21" s="7"/>
+      <c r="FQ21" s="7"/>
+      <c r="FR21" s="7"/>
+    </row>
+    <row r="22" spans="1:174" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <f>$C22/$D22</f>
+        <v>0.55374592833876224</v>
+      </c>
+      <c r="C22">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.68110000000000004</v>
+      </c>
+      <c r="F22">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="J22">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="L22">
+        <v>2.5041000000000002</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="7"/>
+      <c r="BK22" s="7"/>
+      <c r="BL22" s="7"/>
+      <c r="BM22" s="7"/>
+      <c r="BN22" s="7"/>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
+      <c r="BR22" s="7"/>
+      <c r="BS22" s="7"/>
+      <c r="BT22" s="7"/>
+      <c r="BU22" s="7"/>
+      <c r="BV22" s="7"/>
+      <c r="BW22" s="7"/>
+      <c r="BX22" s="7"/>
+      <c r="BY22" s="7"/>
+      <c r="BZ22" s="7"/>
+      <c r="CA22" s="7"/>
+      <c r="CB22" s="7"/>
+      <c r="CC22" s="7"/>
+      <c r="CD22" s="7"/>
+      <c r="CE22" s="7"/>
+      <c r="CF22" s="7"/>
+      <c r="CG22" s="7"/>
+      <c r="CH22" s="7"/>
+      <c r="CI22" s="7"/>
+      <c r="CJ22" s="7"/>
+      <c r="CK22" s="7"/>
+      <c r="CL22" s="7"/>
+      <c r="CM22" s="7"/>
+      <c r="CN22" s="7"/>
+      <c r="CO22" s="7"/>
+      <c r="CP22" s="7"/>
+      <c r="CQ22" s="7"/>
+      <c r="CR22" s="7"/>
+      <c r="CS22" s="7"/>
+      <c r="CT22" s="7"/>
+      <c r="CU22" s="7"/>
+      <c r="CV22" s="7"/>
+      <c r="CW22" s="7"/>
+      <c r="CX22" s="7"/>
+      <c r="CY22" s="7"/>
+      <c r="CZ22" s="7"/>
+      <c r="DA22" s="7"/>
+      <c r="DB22" s="7"/>
+      <c r="DC22" s="7"/>
+      <c r="DD22" s="7"/>
+      <c r="DE22" s="7"/>
+      <c r="DF22" s="7"/>
+      <c r="DG22" s="7"/>
+      <c r="DH22" s="7"/>
+      <c r="DI22" s="7"/>
+      <c r="DJ22" s="7"/>
+      <c r="DK22" s="7"/>
+      <c r="DL22" s="7"/>
+      <c r="DM22" s="7"/>
+      <c r="DN22" s="7"/>
+      <c r="DO22" s="7"/>
+      <c r="DP22" s="7"/>
+      <c r="DQ22" s="7"/>
+      <c r="DR22" s="7"/>
+      <c r="DS22" s="7"/>
+      <c r="DT22" s="7"/>
+      <c r="DU22" s="7"/>
+      <c r="DV22" s="7"/>
+      <c r="DW22" s="7"/>
+      <c r="DX22" s="7"/>
+      <c r="DY22" s="7"/>
+      <c r="DZ22" s="7"/>
+      <c r="EA22" s="7"/>
+      <c r="EB22" s="7"/>
+      <c r="EC22" s="7"/>
+      <c r="ED22" s="7"/>
+      <c r="EE22" s="7"/>
+      <c r="EF22" s="7"/>
+      <c r="EG22" s="7"/>
+      <c r="EH22" s="7"/>
+      <c r="EI22" s="7"/>
+      <c r="EJ22" s="7"/>
+      <c r="EK22" s="7"/>
+      <c r="EL22" s="7"/>
+      <c r="EM22" s="7"/>
+      <c r="EN22" s="7"/>
+      <c r="EO22" s="7"/>
+      <c r="EP22" s="7"/>
+      <c r="EQ22" s="7"/>
+      <c r="ER22" s="7"/>
+      <c r="ES22" s="7"/>
+      <c r="ET22" s="7"/>
+      <c r="EU22" s="7"/>
+      <c r="EV22" s="7"/>
+      <c r="EW22" s="7"/>
+      <c r="EX22" s="7"/>
+      <c r="EY22" s="7"/>
+      <c r="EZ22" s="7"/>
+      <c r="FA22" s="7"/>
+      <c r="FB22" s="7"/>
+      <c r="FC22" s="7"/>
+      <c r="FD22" s="7"/>
+      <c r="FE22" s="7"/>
+      <c r="FF22" s="7"/>
+      <c r="FG22" s="7"/>
+      <c r="FH22" s="7"/>
+      <c r="FI22" s="7"/>
+      <c r="FJ22" s="7"/>
+      <c r="FK22" s="7"/>
+      <c r="FL22" s="7"/>
+      <c r="FM22" s="7"/>
+      <c r="FN22" s="7"/>
+      <c r="FO22" s="7"/>
+      <c r="FP22" s="7"/>
+      <c r="FQ22" s="7"/>
+      <c r="FR22" s="7"/>
+    </row>
+    <row r="23" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6">
+        <f>$C23/$D23</f>
+        <v>0.5513866231647635</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.8921</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="L23" s="6">
+        <v>4.4893999999999998</v>
+      </c>
+      <c r="M23" s="6">
+        <v>74.86</v>
+      </c>
+      <c r="N23" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="7"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7"/>
+      <c r="BF23" s="7"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="7"/>
+      <c r="BI23" s="7"/>
+      <c r="BJ23" s="7"/>
+      <c r="BK23" s="7"/>
+      <c r="BL23" s="7"/>
+      <c r="BM23" s="7"/>
+      <c r="BN23" s="7"/>
+      <c r="BO23" s="7"/>
+      <c r="BP23" s="7"/>
+      <c r="BQ23" s="7"/>
+      <c r="BR23" s="7"/>
+      <c r="BS23" s="7"/>
+      <c r="BT23" s="7"/>
+      <c r="BU23" s="7"/>
+      <c r="BV23" s="7"/>
+      <c r="BW23" s="7"/>
+      <c r="BX23" s="7"/>
+      <c r="BY23" s="7"/>
+      <c r="BZ23" s="7"/>
+      <c r="CA23" s="7"/>
+      <c r="CB23" s="7"/>
+      <c r="CC23" s="7"/>
+      <c r="CD23" s="7"/>
+      <c r="CE23" s="7"/>
+      <c r="CF23" s="7"/>
+      <c r="CG23" s="7"/>
+      <c r="CH23" s="7"/>
+      <c r="CI23" s="7"/>
+      <c r="CJ23" s="7"/>
+      <c r="CK23" s="7"/>
+      <c r="CL23" s="7"/>
+      <c r="CM23" s="7"/>
+      <c r="CN23" s="7"/>
+      <c r="CO23" s="7"/>
+      <c r="CP23" s="7"/>
+      <c r="CQ23" s="7"/>
+      <c r="CR23" s="7"/>
+      <c r="CS23" s="7"/>
+      <c r="CT23" s="7"/>
+      <c r="CU23" s="7"/>
+      <c r="CV23" s="7"/>
+      <c r="CW23" s="7"/>
+      <c r="CX23" s="7"/>
+      <c r="CY23" s="7"/>
+      <c r="CZ23" s="7"/>
+      <c r="DA23" s="7"/>
+      <c r="DB23" s="7"/>
+      <c r="DC23" s="7"/>
+      <c r="DD23" s="7"/>
+      <c r="DE23" s="7"/>
+      <c r="DF23" s="7"/>
+      <c r="DG23" s="7"/>
+      <c r="DH23" s="7"/>
+      <c r="DI23" s="7"/>
+      <c r="DJ23" s="7"/>
+      <c r="DK23" s="7"/>
+      <c r="DL23" s="7"/>
+      <c r="DM23" s="7"/>
+      <c r="DN23" s="7"/>
+      <c r="DO23" s="7"/>
+      <c r="DP23" s="7"/>
+      <c r="DQ23" s="7"/>
+      <c r="DR23" s="7"/>
+      <c r="DS23" s="7"/>
+      <c r="DT23" s="7"/>
+      <c r="DU23" s="7"/>
+      <c r="DV23" s="7"/>
+      <c r="DW23" s="7"/>
+      <c r="DX23" s="7"/>
+      <c r="DY23" s="7"/>
+      <c r="DZ23" s="7"/>
+      <c r="EA23" s="7"/>
+      <c r="EB23" s="7"/>
+      <c r="EC23" s="7"/>
+      <c r="ED23" s="7"/>
+      <c r="EE23" s="7"/>
+      <c r="EF23" s="7"/>
+      <c r="EG23" s="7"/>
+      <c r="EH23" s="7"/>
+      <c r="EI23" s="7"/>
+      <c r="EJ23" s="7"/>
+      <c r="EK23" s="7"/>
+      <c r="EL23" s="7"/>
+      <c r="EM23" s="7"/>
+      <c r="EN23" s="7"/>
+      <c r="EO23" s="7"/>
+      <c r="EP23" s="7"/>
+      <c r="EQ23" s="7"/>
+      <c r="ER23" s="7"/>
+      <c r="ES23" s="7"/>
+      <c r="ET23" s="7"/>
+      <c r="EU23" s="7"/>
+      <c r="EV23" s="7"/>
+      <c r="EW23" s="7"/>
+      <c r="EX23" s="7"/>
+      <c r="EY23" s="7"/>
+      <c r="EZ23" s="7"/>
+      <c r="FA23" s="7"/>
+      <c r="FB23" s="7"/>
+      <c r="FC23" s="7"/>
+      <c r="FD23" s="7"/>
+      <c r="FE23" s="7"/>
+      <c r="FF23" s="7"/>
+      <c r="FG23" s="7"/>
+      <c r="FH23" s="7"/>
+      <c r="FI23" s="7"/>
+      <c r="FJ23" s="7"/>
+      <c r="FK23" s="7"/>
+      <c r="FL23" s="7"/>
+      <c r="FM23" s="7"/>
+      <c r="FN23" s="7"/>
+      <c r="FO23" s="7"/>
+      <c r="FP23" s="7"/>
+      <c r="FQ23" s="7"/>
+      <c r="FR23" s="7"/>
+    </row>
+    <row r="24" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <f>$C24/$D24</f>
+        <v>0.5444813584348468</v>
+      </c>
+      <c r="C24">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="E24">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F24">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G24">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="H24">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="I24">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J24">
+        <v>0.1416</v>
+      </c>
+      <c r="K24">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="L24">
+        <v>2.4116</v>
+      </c>
+      <c r="M24">
+        <v>217.43</v>
+      </c>
+      <c r="N24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="7"/>
+      <c r="BG24" s="7"/>
+      <c r="BH24" s="7"/>
+      <c r="BI24" s="7"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="7"/>
+      <c r="BL24" s="7"/>
+      <c r="BM24" s="7"/>
+      <c r="BN24" s="7"/>
+      <c r="BO24" s="7"/>
+      <c r="BP24" s="7"/>
+      <c r="BQ24" s="7"/>
+      <c r="BR24" s="7"/>
+      <c r="BS24" s="7"/>
+      <c r="BT24" s="7"/>
+      <c r="BU24" s="7"/>
+      <c r="BV24" s="7"/>
+      <c r="BW24" s="7"/>
+      <c r="BX24" s="7"/>
+      <c r="BY24" s="7"/>
+      <c r="BZ24" s="7"/>
+      <c r="CA24" s="7"/>
+      <c r="CB24" s="7"/>
+      <c r="CC24" s="7"/>
+      <c r="CD24" s="7"/>
+      <c r="CE24" s="7"/>
+      <c r="CF24" s="7"/>
+      <c r="CG24" s="7"/>
+      <c r="CH24" s="7"/>
+      <c r="CI24" s="7"/>
+      <c r="CJ24" s="7"/>
+      <c r="CK24" s="7"/>
+      <c r="CL24" s="7"/>
+      <c r="CM24" s="7"/>
+      <c r="CN24" s="7"/>
+      <c r="CO24" s="7"/>
+      <c r="CP24" s="7"/>
+      <c r="CQ24" s="7"/>
+      <c r="CR24" s="7"/>
+      <c r="CS24" s="7"/>
+      <c r="CT24" s="7"/>
+      <c r="CU24" s="7"/>
+      <c r="CV24" s="7"/>
+      <c r="CW24" s="7"/>
+      <c r="CX24" s="7"/>
+      <c r="CY24" s="7"/>
+      <c r="CZ24" s="7"/>
+      <c r="DA24" s="7"/>
+      <c r="DB24" s="7"/>
+      <c r="DC24" s="7"/>
+      <c r="DD24" s="7"/>
+      <c r="DE24" s="7"/>
+      <c r="DF24" s="7"/>
+      <c r="DG24" s="7"/>
+      <c r="DH24" s="7"/>
+      <c r="DI24" s="7"/>
+      <c r="DJ24" s="7"/>
+      <c r="DK24" s="7"/>
+      <c r="DL24" s="7"/>
+      <c r="DM24" s="7"/>
+      <c r="DN24" s="7"/>
+      <c r="DO24" s="7"/>
+      <c r="DP24" s="7"/>
+      <c r="DQ24" s="7"/>
+      <c r="DR24" s="7"/>
+      <c r="DS24" s="7"/>
+      <c r="DT24" s="7"/>
+      <c r="DU24" s="7"/>
+      <c r="DV24" s="7"/>
+      <c r="DW24" s="7"/>
+      <c r="DX24" s="7"/>
+      <c r="DY24" s="7"/>
+      <c r="DZ24" s="7"/>
+      <c r="EA24" s="7"/>
+      <c r="EB24" s="7"/>
+      <c r="EC24" s="7"/>
+      <c r="ED24" s="7"/>
+      <c r="EE24" s="7"/>
+      <c r="EF24" s="7"/>
+      <c r="EG24" s="7"/>
+      <c r="EH24" s="7"/>
+      <c r="EI24" s="7"/>
+      <c r="EJ24" s="7"/>
+      <c r="EK24" s="7"/>
+      <c r="EL24" s="7"/>
+      <c r="EM24" s="7"/>
+      <c r="EN24" s="7"/>
+      <c r="EO24" s="7"/>
+      <c r="EP24" s="7"/>
+      <c r="EQ24" s="7"/>
+      <c r="ER24" s="7"/>
+      <c r="ES24" s="7"/>
+      <c r="ET24" s="7"/>
+      <c r="EU24" s="7"/>
+      <c r="EV24" s="7"/>
+      <c r="EW24" s="7"/>
+      <c r="EX24" s="7"/>
+      <c r="EY24" s="7"/>
+      <c r="EZ24" s="7"/>
+      <c r="FA24" s="7"/>
+      <c r="FB24" s="7"/>
+      <c r="FC24" s="7"/>
+      <c r="FD24" s="7"/>
+      <c r="FE24" s="7"/>
+      <c r="FF24" s="7"/>
+      <c r="FG24" s="7"/>
+      <c r="FH24" s="7"/>
+      <c r="FI24" s="7"/>
+      <c r="FJ24" s="7"/>
+      <c r="FK24" s="7"/>
+      <c r="FL24" s="7"/>
+      <c r="FM24" s="7"/>
+      <c r="FN24" s="7"/>
+      <c r="FO24" s="7"/>
+      <c r="FP24" s="7"/>
+      <c r="FQ24" s="7"/>
+      <c r="FR24" s="7"/>
+    </row>
+    <row r="25" spans="1:174" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <f>$C25/$D25</f>
+        <v>0.53162732023788073</v>
+      </c>
+      <c r="C25">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="E25">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="F25">
+        <v>0.5343</v>
+      </c>
+      <c r="G25">
+        <v>0.8659</v>
+      </c>
+      <c r="H25">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="I25">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="L25">
+        <v>2.9041999999999999</v>
+      </c>
+      <c r="M25">
+        <v>179.63</v>
+      </c>
+      <c r="N25" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" s="7"/>
+      <c r="BC25" s="7"/>
+      <c r="BD25" s="7"/>
+      <c r="BE25" s="7"/>
+      <c r="BF25" s="7"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="7"/>
+      <c r="BI25" s="7"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="7"/>
+      <c r="BL25" s="7"/>
+      <c r="BM25" s="7"/>
+      <c r="BN25" s="7"/>
+      <c r="BO25" s="7"/>
+      <c r="BP25" s="7"/>
+      <c r="BQ25" s="7"/>
+      <c r="BR25" s="7"/>
+      <c r="BS25" s="7"/>
+      <c r="BT25" s="7"/>
+      <c r="BU25" s="7"/>
+      <c r="BV25" s="7"/>
+      <c r="BW25" s="7"/>
+      <c r="BX25" s="7"/>
+      <c r="BY25" s="7"/>
+      <c r="BZ25" s="7"/>
+      <c r="CA25" s="7"/>
+      <c r="CB25" s="7"/>
+      <c r="CC25" s="7"/>
+      <c r="CD25" s="7"/>
+      <c r="CE25" s="7"/>
+      <c r="CF25" s="7"/>
+      <c r="CG25" s="7"/>
+      <c r="CH25" s="7"/>
+      <c r="CI25" s="7"/>
+      <c r="CJ25" s="7"/>
+      <c r="CK25" s="7"/>
+      <c r="CL25" s="7"/>
+      <c r="CM25" s="7"/>
+      <c r="CN25" s="7"/>
+      <c r="CO25" s="7"/>
+      <c r="CP25" s="7"/>
+      <c r="CQ25" s="7"/>
+      <c r="CR25" s="7"/>
+      <c r="CS25" s="7"/>
+      <c r="CT25" s="7"/>
+      <c r="CU25" s="7"/>
+      <c r="CV25" s="7"/>
+      <c r="CW25" s="7"/>
+      <c r="CX25" s="7"/>
+      <c r="CY25" s="7"/>
+      <c r="CZ25" s="7"/>
+      <c r="DA25" s="7"/>
+      <c r="DB25" s="7"/>
+      <c r="DC25" s="7"/>
+      <c r="DD25" s="7"/>
+      <c r="DE25" s="7"/>
+      <c r="DF25" s="7"/>
+      <c r="DG25" s="7"/>
+      <c r="DH25" s="7"/>
+      <c r="DI25" s="7"/>
+      <c r="DJ25" s="7"/>
+      <c r="DK25" s="7"/>
+      <c r="DL25" s="7"/>
+      <c r="DM25" s="7"/>
+      <c r="DN25" s="7"/>
+      <c r="DO25" s="7"/>
+      <c r="DP25" s="7"/>
+      <c r="DQ25" s="7"/>
+      <c r="DR25" s="7"/>
+      <c r="DS25" s="7"/>
+      <c r="DT25" s="7"/>
+      <c r="DU25" s="7"/>
+      <c r="DV25" s="7"/>
+      <c r="DW25" s="7"/>
+      <c r="DX25" s="7"/>
+      <c r="DY25" s="7"/>
+      <c r="DZ25" s="7"/>
+      <c r="EA25" s="7"/>
+      <c r="EB25" s="7"/>
+      <c r="EC25" s="7"/>
+      <c r="ED25" s="7"/>
+      <c r="EE25" s="7"/>
+      <c r="EF25" s="7"/>
+      <c r="EG25" s="7"/>
+      <c r="EH25" s="7"/>
+      <c r="EI25" s="7"/>
+      <c r="EJ25" s="7"/>
+      <c r="EK25" s="7"/>
+      <c r="EL25" s="7"/>
+      <c r="EM25" s="7"/>
+      <c r="EN25" s="7"/>
+      <c r="EO25" s="7"/>
+      <c r="EP25" s="7"/>
+      <c r="EQ25" s="7"/>
+      <c r="ER25" s="7"/>
+      <c r="ES25" s="7"/>
+      <c r="ET25" s="7"/>
+      <c r="EU25" s="7"/>
+      <c r="EV25" s="7"/>
+      <c r="EW25" s="7"/>
+      <c r="EX25" s="7"/>
+      <c r="EY25" s="7"/>
+      <c r="EZ25" s="7"/>
+      <c r="FA25" s="7"/>
+      <c r="FB25" s="7"/>
+      <c r="FC25" s="7"/>
+      <c r="FD25" s="7"/>
+      <c r="FE25" s="7"/>
+      <c r="FF25" s="7"/>
+      <c r="FG25" s="7"/>
+      <c r="FH25" s="7"/>
+      <c r="FI25" s="7"/>
+      <c r="FJ25" s="7"/>
+      <c r="FK25" s="7"/>
+      <c r="FL25" s="7"/>
+      <c r="FM25" s="7"/>
+      <c r="FN25" s="7"/>
+      <c r="FO25" s="7"/>
+      <c r="FP25" s="7"/>
+      <c r="FQ25" s="7"/>
+      <c r="FR25" s="7"/>
+    </row>
+    <row r="26" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="6">
+        <f>$C26/$D26</f>
+        <v>0.47673469387755096</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.746</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="L26" s="6">
+        <v>5.1547000000000001</v>
+      </c>
+      <c r="M26" s="6">
+        <v>74.27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" t="s">
+        <v>57</v>
+      </c>
+      <c r="P26" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7"/>
+      <c r="BR26" s="7"/>
+      <c r="BS26" s="7"/>
+      <c r="BT26" s="7"/>
+      <c r="BU26" s="7"/>
+      <c r="BV26" s="7"/>
+      <c r="BW26" s="7"/>
+      <c r="BX26" s="7"/>
+      <c r="BY26" s="7"/>
+      <c r="BZ26" s="7"/>
+      <c r="CA26" s="7"/>
+      <c r="CB26" s="7"/>
+      <c r="CC26" s="7"/>
+      <c r="CD26" s="7"/>
+      <c r="CE26" s="7"/>
+      <c r="CF26" s="7"/>
+      <c r="CG26" s="7"/>
+      <c r="CH26" s="7"/>
+      <c r="CI26" s="7"/>
+      <c r="CJ26" s="7"/>
+      <c r="CK26" s="7"/>
+      <c r="CL26" s="7"/>
+      <c r="CM26" s="7"/>
+      <c r="CN26" s="7"/>
+      <c r="CO26" s="7"/>
+      <c r="CP26" s="7"/>
+      <c r="CQ26" s="7"/>
+      <c r="CR26" s="7"/>
+      <c r="CS26" s="7"/>
+      <c r="CT26" s="7"/>
+      <c r="CU26" s="7"/>
+      <c r="CV26" s="7"/>
+      <c r="CW26" s="7"/>
+      <c r="CX26" s="7"/>
+      <c r="CY26" s="7"/>
+      <c r="CZ26" s="7"/>
+      <c r="DA26" s="7"/>
+      <c r="DB26" s="7"/>
+      <c r="DC26" s="7"/>
+      <c r="DD26" s="7"/>
+      <c r="DE26" s="7"/>
+      <c r="DF26" s="7"/>
+      <c r="DG26" s="7"/>
+      <c r="DH26" s="7"/>
+      <c r="DI26" s="7"/>
+      <c r="DJ26" s="7"/>
+      <c r="DK26" s="7"/>
+      <c r="DL26" s="7"/>
+      <c r="DM26" s="7"/>
+      <c r="DN26" s="7"/>
+      <c r="DO26" s="7"/>
+      <c r="DP26" s="7"/>
+      <c r="DQ26" s="7"/>
+      <c r="DR26" s="7"/>
+      <c r="DS26" s="7"/>
+      <c r="DT26" s="7"/>
+      <c r="DU26" s="7"/>
+      <c r="DV26" s="7"/>
+      <c r="DW26" s="7"/>
+      <c r="DX26" s="7"/>
+      <c r="DY26" s="7"/>
+      <c r="DZ26" s="7"/>
+      <c r="EA26" s="7"/>
+      <c r="EB26" s="7"/>
+      <c r="EC26" s="7"/>
+      <c r="ED26" s="7"/>
+      <c r="EE26" s="7"/>
+      <c r="EF26" s="7"/>
+      <c r="EG26" s="7"/>
+      <c r="EH26" s="7"/>
+      <c r="EI26" s="7"/>
+      <c r="EJ26" s="7"/>
+      <c r="EK26" s="7"/>
+      <c r="EL26" s="7"/>
+      <c r="EM26" s="7"/>
+      <c r="EN26" s="7"/>
+      <c r="EO26" s="7"/>
+      <c r="EP26" s="7"/>
+      <c r="EQ26" s="7"/>
+      <c r="ER26" s="7"/>
+      <c r="ES26" s="7"/>
+      <c r="ET26" s="7"/>
+      <c r="EU26" s="7"/>
+      <c r="EV26" s="7"/>
+      <c r="EW26" s="7"/>
+      <c r="EX26" s="7"/>
+      <c r="EY26" s="7"/>
+      <c r="EZ26" s="7"/>
+      <c r="FA26" s="7"/>
+      <c r="FB26" s="7"/>
+      <c r="FC26" s="7"/>
+      <c r="FD26" s="7"/>
+      <c r="FE26" s="7"/>
+      <c r="FF26" s="7"/>
+      <c r="FG26" s="7"/>
+      <c r="FH26" s="7"/>
+      <c r="FI26" s="7"/>
+      <c r="FJ26" s="7"/>
+      <c r="FK26" s="7"/>
+      <c r="FL26" s="7"/>
+      <c r="FM26" s="7"/>
+      <c r="FN26" s="7"/>
+      <c r="FO26" s="7"/>
+      <c r="FP26" s="7"/>
+      <c r="FQ26" s="7"/>
+      <c r="FR26" s="7"/>
+    </row>
+    <row r="27" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:174" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q30">
+    <sortCondition descending="1" ref="B2:B30"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47C056D-056D-4A11-9CF6-07B5A523E342}">
   <dimension ref="A1:R30"/>
   <sheetViews>
@@ -3651,7 +7623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07223A4F-088F-4D71-80B8-0765EDD12E4D}">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -4546,7 +8518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B2657C-3F70-4C68-86E3-8A7090548D9C}">
   <dimension ref="A1:M110"/>
   <sheetViews>
@@ -7200,7 +11172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF17639-D595-4C91-8264-6F6A2FA3B3ED}">
   <dimension ref="A1:P45"/>
   <sheetViews>
@@ -7898,7 +11870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690173A2-9D17-4DD4-9142-5654C71F63B6}">
   <dimension ref="A1:P30"/>
   <sheetViews>

--- a/documents/model_list.xlsx
+++ b/documents/model_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Nextchip\JARVIS\Minions\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB02A75D-A074-41EB-A4FF-AE54FE3CDE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F28008-E723-48BA-AAAE-354C770761FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{D776271B-2D3E-41B1-9B49-C6D7A4C96EAF}"/>
   </bookViews>
@@ -373,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,9 +393,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +732,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -809,7 +806,7 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <f>$C2/$D2</f>
+        <f t="shared" ref="B2:B30" si="0">$C2/$D2</f>
         <v>0.71901462663587379</v>
       </c>
       <c r="C2">
@@ -860,7 +857,7 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <f>$C3/$D3</f>
+        <f t="shared" si="0"/>
         <v>0.70199692780337941</v>
       </c>
       <c r="C3">
@@ -887,7 +884,7 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <f>$C4/$D4</f>
+        <f t="shared" si="0"/>
         <v>0.67924528301886788</v>
       </c>
       <c r="C4">
@@ -914,7 +911,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <f>$C5/$D5</f>
+        <f t="shared" si="0"/>
         <v>0.66931637519872811</v>
       </c>
       <c r="C5">
@@ -941,7 +938,7 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <f>$C6/$D6</f>
+        <f t="shared" si="0"/>
         <v>0.66161045667258345</v>
       </c>
       <c r="C6">
@@ -992,7 +989,7 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <f>$C7/$D7</f>
+        <f t="shared" si="0"/>
         <v>0.63271604938271597</v>
       </c>
       <c r="C7">
@@ -1022,7 +1019,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6">
-        <f>$C8/$D8</f>
+        <f t="shared" si="0"/>
         <v>0.62328877435980035</v>
       </c>
       <c r="C8" s="6">
@@ -1073,7 +1070,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="6">
-        <f>$C9/$D9</f>
+        <f t="shared" si="0"/>
         <v>0.61334641805691847</v>
       </c>
       <c r="C9" s="6">
@@ -1124,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>$C10/$D10</f>
+        <f t="shared" si="0"/>
         <v>0.60419681620839372</v>
       </c>
       <c r="C10">
@@ -1176,7 +1173,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="5">
-        <f>$C11/$D11</f>
+        <f t="shared" si="0"/>
         <v>0.60295395308427446</v>
       </c>
       <c r="C11" s="5">
@@ -1228,7 +1225,7 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <f>$C12/$D12</f>
+        <f t="shared" si="0"/>
         <v>0.60240963855421692</v>
       </c>
       <c r="C12">
@@ -1279,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <f>$C13/$D13</f>
+        <f t="shared" si="0"/>
         <v>0.59949892627057988</v>
       </c>
       <c r="C13">
@@ -1330,7 +1327,7 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <f>$C14/$D14</f>
+        <f t="shared" si="0"/>
         <v>0.59372797744890771</v>
       </c>
       <c r="C14">
@@ -1382,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="5">
-        <f>$C15/$D15</f>
+        <f t="shared" si="0"/>
         <v>0.59174714661984196</v>
       </c>
       <c r="C15" s="5">
@@ -1434,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="5">
-        <f>$C16/$D16</f>
+        <f t="shared" si="0"/>
         <v>0.59070255155540019</v>
       </c>
       <c r="C16" s="5">
@@ -1486,7 +1483,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="5">
-        <f>$C17/$D17</f>
+        <f t="shared" si="0"/>
         <v>0.58141577375724574</v>
       </c>
       <c r="C17" s="5">
@@ -1537,7 +1534,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <f>$C18/$D18</f>
+        <f t="shared" si="0"/>
         <v>0.5790240349599417</v>
       </c>
       <c r="C18">
@@ -1588,7 +1585,7 @@
         <v>45</v>
       </c>
       <c r="B19">
-        <f>$C19/$D19</f>
+        <f t="shared" si="0"/>
         <v>0.57776162790697672</v>
       </c>
       <c r="C19">
@@ -1639,7 +1636,7 @@
         <v>44</v>
       </c>
       <c r="B20">
-        <f>$C20/$D20</f>
+        <f t="shared" si="0"/>
         <v>0.57184483700600985</v>
       </c>
       <c r="C20">
@@ -1690,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <f>$C21/$D21</f>
+        <f t="shared" si="0"/>
         <v>0.55545471047377026</v>
       </c>
       <c r="C21">
@@ -1741,7 +1738,7 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <f>$C22/$D22</f>
+        <f t="shared" si="0"/>
         <v>0.55545404714050794</v>
       </c>
       <c r="C22">
@@ -1791,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <f>$C23/$D23</f>
+        <f t="shared" si="0"/>
         <v>0.55536028119507919</v>
       </c>
       <c r="C23" s="5">
@@ -1843,7 +1840,7 @@
         <v>17</v>
       </c>
       <c r="B24">
-        <f>$C24/$D24</f>
+        <f t="shared" si="0"/>
         <v>0.55433589462129529</v>
       </c>
       <c r="C24">
@@ -1894,7 +1891,7 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <f>$C25/$D25</f>
+        <f t="shared" si="0"/>
         <v>0.55374592833876224</v>
       </c>
       <c r="C25">
@@ -1944,7 +1941,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <f>$C26/$D26</f>
+        <f t="shared" si="0"/>
         <v>0.5513866231647635</v>
       </c>
       <c r="C26" s="6">
@@ -1995,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="B27">
-        <f>$C27/$D27</f>
+        <f t="shared" si="0"/>
         <v>0.5444813584348468</v>
       </c>
       <c r="C27">
@@ -2046,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <f>$C28/$D28</f>
+        <f t="shared" si="0"/>
         <v>0.53974664953185236</v>
       </c>
       <c r="C28">
@@ -2097,7 +2094,7 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <f>$C29/$D29</f>
+        <f t="shared" si="0"/>
         <v>0.53162732023788073</v>
       </c>
       <c r="C29">
@@ -2148,7 +2145,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="6">
-        <f>$C30/$D30</f>
+        <f t="shared" si="0"/>
         <v>0.47673469387755096</v>
       </c>
       <c r="C30" s="6">
@@ -2205,7 +2202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05414B38-54C9-4D3B-B176-9EBC54511259}">
-  <dimension ref="A1:FR30"/>
+  <dimension ref="A1:FR26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -2282,7 +2279,7 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <f>$C2/$D2</f>
+        <f t="shared" ref="B2:B26" si="0">$C2/$D2</f>
         <v>0.71901462663587379</v>
       </c>
       <c r="C2">
@@ -2333,7 +2330,7 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <f>$C3/$D3</f>
+        <f t="shared" si="0"/>
         <v>0.70199692780337941</v>
       </c>
       <c r="C3">
@@ -2360,7 +2357,7 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <f>$C4/$D4</f>
+        <f t="shared" si="0"/>
         <v>0.67924528301886788</v>
       </c>
       <c r="C4">
@@ -2387,7 +2384,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <f>$C5/$D5</f>
+        <f t="shared" si="0"/>
         <v>0.66931637519872811</v>
       </c>
       <c r="C5">
@@ -2414,7 +2411,7 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <f>$C6/$D6</f>
+        <f t="shared" si="0"/>
         <v>0.66161045667258345</v>
       </c>
       <c r="C6">
@@ -2465,7 +2462,7 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <f>$C7/$D7</f>
+        <f t="shared" si="0"/>
         <v>0.63271604938271597</v>
       </c>
       <c r="C7">
@@ -2495,7 +2492,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6">
-        <f>$C8/$D8</f>
+        <f t="shared" si="0"/>
         <v>0.62328877435980035</v>
       </c>
       <c r="C8" s="6">
@@ -2546,7 +2543,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="6">
-        <f>$C9/$D9</f>
+        <f t="shared" si="0"/>
         <v>0.61334641805691847</v>
       </c>
       <c r="C9" s="6">
@@ -2597,7 +2594,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="5">
-        <f>$C10/$D10</f>
+        <f t="shared" si="0"/>
         <v>0.60295395308427446</v>
       </c>
       <c r="C10" s="5">
@@ -2642,171 +2639,171 @@
       <c r="P10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="7"/>
-      <c r="BJ10" s="7"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
-      <c r="BM10" s="7"/>
-      <c r="BN10" s="7"/>
-      <c r="BO10" s="7"/>
-      <c r="BP10" s="7"/>
-      <c r="BQ10" s="7"/>
-      <c r="BR10" s="7"/>
-      <c r="BS10" s="7"/>
-      <c r="BT10" s="7"/>
-      <c r="BU10" s="7"/>
-      <c r="BV10" s="7"/>
-      <c r="BW10" s="7"/>
-      <c r="BX10" s="7"/>
-      <c r="BY10" s="7"/>
-      <c r="BZ10" s="7"/>
-      <c r="CA10" s="7"/>
-      <c r="CB10" s="7"/>
-      <c r="CC10" s="7"/>
-      <c r="CD10" s="7"/>
-      <c r="CE10" s="7"/>
-      <c r="CF10" s="7"/>
-      <c r="CG10" s="7"/>
-      <c r="CH10" s="7"/>
-      <c r="CI10" s="7"/>
-      <c r="CJ10" s="7"/>
-      <c r="CK10" s="7"/>
-      <c r="CL10" s="7"/>
-      <c r="CM10" s="7"/>
-      <c r="CN10" s="7"/>
-      <c r="CO10" s="7"/>
-      <c r="CP10" s="7"/>
-      <c r="CQ10" s="7"/>
-      <c r="CR10" s="7"/>
-      <c r="CS10" s="7"/>
-      <c r="CT10" s="7"/>
-      <c r="CU10" s="7"/>
-      <c r="CV10" s="7"/>
-      <c r="CW10" s="7"/>
-      <c r="CX10" s="7"/>
-      <c r="CY10" s="7"/>
-      <c r="CZ10" s="7"/>
-      <c r="DA10" s="7"/>
-      <c r="DB10" s="7"/>
-      <c r="DC10" s="7"/>
-      <c r="DD10" s="7"/>
-      <c r="DE10" s="7"/>
-      <c r="DF10" s="7"/>
-      <c r="DG10" s="7"/>
-      <c r="DH10" s="7"/>
-      <c r="DI10" s="7"/>
-      <c r="DJ10" s="7"/>
-      <c r="DK10" s="7"/>
-      <c r="DL10" s="7"/>
-      <c r="DM10" s="7"/>
-      <c r="DN10" s="7"/>
-      <c r="DO10" s="7"/>
-      <c r="DP10" s="7"/>
-      <c r="DQ10" s="7"/>
-      <c r="DR10" s="7"/>
-      <c r="DS10" s="7"/>
-      <c r="DT10" s="7"/>
-      <c r="DU10" s="7"/>
-      <c r="DV10" s="7"/>
-      <c r="DW10" s="7"/>
-      <c r="DX10" s="7"/>
-      <c r="DY10" s="7"/>
-      <c r="DZ10" s="7"/>
-      <c r="EA10" s="7"/>
-      <c r="EB10" s="7"/>
-      <c r="EC10" s="7"/>
-      <c r="ED10" s="7"/>
-      <c r="EE10" s="7"/>
-      <c r="EF10" s="7"/>
-      <c r="EG10" s="7"/>
-      <c r="EH10" s="7"/>
-      <c r="EI10" s="7"/>
-      <c r="EJ10" s="7"/>
-      <c r="EK10" s="7"/>
-      <c r="EL10" s="7"/>
-      <c r="EM10" s="7"/>
-      <c r="EN10" s="7"/>
-      <c r="EO10" s="7"/>
-      <c r="EP10" s="7"/>
-      <c r="EQ10" s="7"/>
-      <c r="ER10" s="7"/>
-      <c r="ES10" s="7"/>
-      <c r="ET10" s="7"/>
-      <c r="EU10" s="7"/>
-      <c r="EV10" s="7"/>
-      <c r="EW10" s="7"/>
-      <c r="EX10" s="7"/>
-      <c r="EY10" s="7"/>
-      <c r="EZ10" s="7"/>
-      <c r="FA10" s="7"/>
-      <c r="FB10" s="7"/>
-      <c r="FC10" s="7"/>
-      <c r="FD10" s="7"/>
-      <c r="FE10" s="7"/>
-      <c r="FF10" s="7"/>
-      <c r="FG10" s="7"/>
-      <c r="FH10" s="7"/>
-      <c r="FI10" s="7"/>
-      <c r="FJ10" s="7"/>
-      <c r="FK10" s="7"/>
-      <c r="FL10" s="7"/>
-      <c r="FM10" s="7"/>
-      <c r="FN10" s="7"/>
-      <c r="FO10" s="7"/>
-      <c r="FP10" s="7"/>
-      <c r="FQ10" s="7"/>
-      <c r="FR10" s="7"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10"/>
+      <c r="BR10"/>
+      <c r="BS10"/>
+      <c r="BT10"/>
+      <c r="BU10"/>
+      <c r="BV10"/>
+      <c r="BW10"/>
+      <c r="BX10"/>
+      <c r="BY10"/>
+      <c r="BZ10"/>
+      <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
+      <c r="CD10"/>
+      <c r="CE10"/>
+      <c r="CF10"/>
+      <c r="CG10"/>
+      <c r="CH10"/>
+      <c r="CI10"/>
+      <c r="CJ10"/>
+      <c r="CK10"/>
+      <c r="CL10"/>
+      <c r="CM10"/>
+      <c r="CN10"/>
+      <c r="CO10"/>
+      <c r="CP10"/>
+      <c r="CQ10"/>
+      <c r="CR10"/>
+      <c r="CS10"/>
+      <c r="CT10"/>
+      <c r="CU10"/>
+      <c r="CV10"/>
+      <c r="CW10"/>
+      <c r="CX10"/>
+      <c r="CY10"/>
+      <c r="CZ10"/>
+      <c r="DA10"/>
+      <c r="DB10"/>
+      <c r="DC10"/>
+      <c r="DD10"/>
+      <c r="DE10"/>
+      <c r="DF10"/>
+      <c r="DG10"/>
+      <c r="DH10"/>
+      <c r="DI10"/>
+      <c r="DJ10"/>
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+      <c r="DP10"/>
+      <c r="DQ10"/>
+      <c r="DR10"/>
+      <c r="DS10"/>
+      <c r="DT10"/>
+      <c r="DU10"/>
+      <c r="DV10"/>
+      <c r="DW10"/>
+      <c r="DX10"/>
+      <c r="DY10"/>
+      <c r="DZ10"/>
+      <c r="EA10"/>
+      <c r="EB10"/>
+      <c r="EC10"/>
+      <c r="ED10"/>
+      <c r="EE10"/>
+      <c r="EF10"/>
+      <c r="EG10"/>
+      <c r="EH10"/>
+      <c r="EI10"/>
+      <c r="EJ10"/>
+      <c r="EK10"/>
+      <c r="EL10"/>
+      <c r="EM10"/>
+      <c r="EN10"/>
+      <c r="EO10"/>
+      <c r="EP10"/>
+      <c r="EQ10"/>
+      <c r="ER10"/>
+      <c r="ES10"/>
+      <c r="ET10"/>
+      <c r="EU10"/>
+      <c r="EV10"/>
+      <c r="EW10"/>
+      <c r="EX10"/>
+      <c r="EY10"/>
+      <c r="EZ10"/>
+      <c r="FA10"/>
+      <c r="FB10"/>
+      <c r="FC10"/>
+      <c r="FD10"/>
+      <c r="FE10"/>
+      <c r="FF10"/>
+      <c r="FG10"/>
+      <c r="FH10"/>
+      <c r="FI10"/>
+      <c r="FJ10"/>
+      <c r="FK10"/>
+      <c r="FL10"/>
+      <c r="FM10"/>
+      <c r="FN10"/>
+      <c r="FO10"/>
+      <c r="FP10"/>
+      <c r="FQ10"/>
+      <c r="FR10"/>
     </row>
     <row r="11" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B11">
-        <f>$C11/$D11</f>
+        <f t="shared" si="0"/>
         <v>0.60240963855421692</v>
       </c>
       <c r="C11">
@@ -2851,171 +2848,13 @@
       <c r="P11" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-      <c r="BC11" s="7"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="7"/>
-      <c r="BJ11" s="7"/>
-      <c r="BK11" s="7"/>
-      <c r="BL11" s="7"/>
-      <c r="BM11" s="7"/>
-      <c r="BN11" s="7"/>
-      <c r="BO11" s="7"/>
-      <c r="BP11" s="7"/>
-      <c r="BQ11" s="7"/>
-      <c r="BR11" s="7"/>
-      <c r="BS11" s="7"/>
-      <c r="BT11" s="7"/>
-      <c r="BU11" s="7"/>
-      <c r="BV11" s="7"/>
-      <c r="BW11" s="7"/>
-      <c r="BX11" s="7"/>
-      <c r="BY11" s="7"/>
-      <c r="BZ11" s="7"/>
-      <c r="CA11" s="7"/>
-      <c r="CB11" s="7"/>
-      <c r="CC11" s="7"/>
-      <c r="CD11" s="7"/>
-      <c r="CE11" s="7"/>
-      <c r="CF11" s="7"/>
-      <c r="CG11" s="7"/>
-      <c r="CH11" s="7"/>
-      <c r="CI11" s="7"/>
-      <c r="CJ11" s="7"/>
-      <c r="CK11" s="7"/>
-      <c r="CL11" s="7"/>
-      <c r="CM11" s="7"/>
-      <c r="CN11" s="7"/>
-      <c r="CO11" s="7"/>
-      <c r="CP11" s="7"/>
-      <c r="CQ11" s="7"/>
-      <c r="CR11" s="7"/>
-      <c r="CS11" s="7"/>
-      <c r="CT11" s="7"/>
-      <c r="CU11" s="7"/>
-      <c r="CV11" s="7"/>
-      <c r="CW11" s="7"/>
-      <c r="CX11" s="7"/>
-      <c r="CY11" s="7"/>
-      <c r="CZ11" s="7"/>
-      <c r="DA11" s="7"/>
-      <c r="DB11" s="7"/>
-      <c r="DC11" s="7"/>
-      <c r="DD11" s="7"/>
-      <c r="DE11" s="7"/>
-      <c r="DF11" s="7"/>
-      <c r="DG11" s="7"/>
-      <c r="DH11" s="7"/>
-      <c r="DI11" s="7"/>
-      <c r="DJ11" s="7"/>
-      <c r="DK11" s="7"/>
-      <c r="DL11" s="7"/>
-      <c r="DM11" s="7"/>
-      <c r="DN11" s="7"/>
-      <c r="DO11" s="7"/>
-      <c r="DP11" s="7"/>
-      <c r="DQ11" s="7"/>
-      <c r="DR11" s="7"/>
-      <c r="DS11" s="7"/>
-      <c r="DT11" s="7"/>
-      <c r="DU11" s="7"/>
-      <c r="DV11" s="7"/>
-      <c r="DW11" s="7"/>
-      <c r="DX11" s="7"/>
-      <c r="DY11" s="7"/>
-      <c r="DZ11" s="7"/>
-      <c r="EA11" s="7"/>
-      <c r="EB11" s="7"/>
-      <c r="EC11" s="7"/>
-      <c r="ED11" s="7"/>
-      <c r="EE11" s="7"/>
-      <c r="EF11" s="7"/>
-      <c r="EG11" s="7"/>
-      <c r="EH11" s="7"/>
-      <c r="EI11" s="7"/>
-      <c r="EJ11" s="7"/>
-      <c r="EK11" s="7"/>
-      <c r="EL11" s="7"/>
-      <c r="EM11" s="7"/>
-      <c r="EN11" s="7"/>
-      <c r="EO11" s="7"/>
-      <c r="EP11" s="7"/>
-      <c r="EQ11" s="7"/>
-      <c r="ER11" s="7"/>
-      <c r="ES11" s="7"/>
-      <c r="ET11" s="7"/>
-      <c r="EU11" s="7"/>
-      <c r="EV11" s="7"/>
-      <c r="EW11" s="7"/>
-      <c r="EX11" s="7"/>
-      <c r="EY11" s="7"/>
-      <c r="EZ11" s="7"/>
-      <c r="FA11" s="7"/>
-      <c r="FB11" s="7"/>
-      <c r="FC11" s="7"/>
-      <c r="FD11" s="7"/>
-      <c r="FE11" s="7"/>
-      <c r="FF11" s="7"/>
-      <c r="FG11" s="7"/>
-      <c r="FH11" s="7"/>
-      <c r="FI11" s="7"/>
-      <c r="FJ11" s="7"/>
-      <c r="FK11" s="7"/>
-      <c r="FL11" s="7"/>
-      <c r="FM11" s="7"/>
-      <c r="FN11" s="7"/>
-      <c r="FO11" s="7"/>
-      <c r="FP11" s="7"/>
-      <c r="FQ11" s="7"/>
-      <c r="FR11" s="7"/>
     </row>
     <row r="12" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B12">
-        <f>$C12/$D12</f>
+        <f t="shared" si="0"/>
         <v>0.59372797744890771</v>
       </c>
       <c r="C12">
@@ -3060,171 +2899,13 @@
       <c r="P12" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-      <c r="BC12" s="7"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="7"/>
-      <c r="BJ12" s="7"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
-      <c r="BM12" s="7"/>
-      <c r="BN12" s="7"/>
-      <c r="BO12" s="7"/>
-      <c r="BP12" s="7"/>
-      <c r="BQ12" s="7"/>
-      <c r="BR12" s="7"/>
-      <c r="BS12" s="7"/>
-      <c r="BT12" s="7"/>
-      <c r="BU12" s="7"/>
-      <c r="BV12" s="7"/>
-      <c r="BW12" s="7"/>
-      <c r="BX12" s="7"/>
-      <c r="BY12" s="7"/>
-      <c r="BZ12" s="7"/>
-      <c r="CA12" s="7"/>
-      <c r="CB12" s="7"/>
-      <c r="CC12" s="7"/>
-      <c r="CD12" s="7"/>
-      <c r="CE12" s="7"/>
-      <c r="CF12" s="7"/>
-      <c r="CG12" s="7"/>
-      <c r="CH12" s="7"/>
-      <c r="CI12" s="7"/>
-      <c r="CJ12" s="7"/>
-      <c r="CK12" s="7"/>
-      <c r="CL12" s="7"/>
-      <c r="CM12" s="7"/>
-      <c r="CN12" s="7"/>
-      <c r="CO12" s="7"/>
-      <c r="CP12" s="7"/>
-      <c r="CQ12" s="7"/>
-      <c r="CR12" s="7"/>
-      <c r="CS12" s="7"/>
-      <c r="CT12" s="7"/>
-      <c r="CU12" s="7"/>
-      <c r="CV12" s="7"/>
-      <c r="CW12" s="7"/>
-      <c r="CX12" s="7"/>
-      <c r="CY12" s="7"/>
-      <c r="CZ12" s="7"/>
-      <c r="DA12" s="7"/>
-      <c r="DB12" s="7"/>
-      <c r="DC12" s="7"/>
-      <c r="DD12" s="7"/>
-      <c r="DE12" s="7"/>
-      <c r="DF12" s="7"/>
-      <c r="DG12" s="7"/>
-      <c r="DH12" s="7"/>
-      <c r="DI12" s="7"/>
-      <c r="DJ12" s="7"/>
-      <c r="DK12" s="7"/>
-      <c r="DL12" s="7"/>
-      <c r="DM12" s="7"/>
-      <c r="DN12" s="7"/>
-      <c r="DO12" s="7"/>
-      <c r="DP12" s="7"/>
-      <c r="DQ12" s="7"/>
-      <c r="DR12" s="7"/>
-      <c r="DS12" s="7"/>
-      <c r="DT12" s="7"/>
-      <c r="DU12" s="7"/>
-      <c r="DV12" s="7"/>
-      <c r="DW12" s="7"/>
-      <c r="DX12" s="7"/>
-      <c r="DY12" s="7"/>
-      <c r="DZ12" s="7"/>
-      <c r="EA12" s="7"/>
-      <c r="EB12" s="7"/>
-      <c r="EC12" s="7"/>
-      <c r="ED12" s="7"/>
-      <c r="EE12" s="7"/>
-      <c r="EF12" s="7"/>
-      <c r="EG12" s="7"/>
-      <c r="EH12" s="7"/>
-      <c r="EI12" s="7"/>
-      <c r="EJ12" s="7"/>
-      <c r="EK12" s="7"/>
-      <c r="EL12" s="7"/>
-      <c r="EM12" s="7"/>
-      <c r="EN12" s="7"/>
-      <c r="EO12" s="7"/>
-      <c r="EP12" s="7"/>
-      <c r="EQ12" s="7"/>
-      <c r="ER12" s="7"/>
-      <c r="ES12" s="7"/>
-      <c r="ET12" s="7"/>
-      <c r="EU12" s="7"/>
-      <c r="EV12" s="7"/>
-      <c r="EW12" s="7"/>
-      <c r="EX12" s="7"/>
-      <c r="EY12" s="7"/>
-      <c r="EZ12" s="7"/>
-      <c r="FA12" s="7"/>
-      <c r="FB12" s="7"/>
-      <c r="FC12" s="7"/>
-      <c r="FD12" s="7"/>
-      <c r="FE12" s="7"/>
-      <c r="FF12" s="7"/>
-      <c r="FG12" s="7"/>
-      <c r="FH12" s="7"/>
-      <c r="FI12" s="7"/>
-      <c r="FJ12" s="7"/>
-      <c r="FK12" s="7"/>
-      <c r="FL12" s="7"/>
-      <c r="FM12" s="7"/>
-      <c r="FN12" s="7"/>
-      <c r="FO12" s="7"/>
-      <c r="FP12" s="7"/>
-      <c r="FQ12" s="7"/>
-      <c r="FR12" s="7"/>
     </row>
     <row r="13" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5">
-        <f>$C13/$D13</f>
+        <f t="shared" si="0"/>
         <v>0.59174714661984196</v>
       </c>
       <c r="C13" s="5">
@@ -3269,171 +2950,13 @@
       <c r="P13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="7"/>
-      <c r="BD13" s="7"/>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="7"/>
-      <c r="BH13" s="7"/>
-      <c r="BI13" s="7"/>
-      <c r="BJ13" s="7"/>
-      <c r="BK13" s="7"/>
-      <c r="BL13" s="7"/>
-      <c r="BM13" s="7"/>
-      <c r="BN13" s="7"/>
-      <c r="BO13" s="7"/>
-      <c r="BP13" s="7"/>
-      <c r="BQ13" s="7"/>
-      <c r="BR13" s="7"/>
-      <c r="BS13" s="7"/>
-      <c r="BT13" s="7"/>
-      <c r="BU13" s="7"/>
-      <c r="BV13" s="7"/>
-      <c r="BW13" s="7"/>
-      <c r="BX13" s="7"/>
-      <c r="BY13" s="7"/>
-      <c r="BZ13" s="7"/>
-      <c r="CA13" s="7"/>
-      <c r="CB13" s="7"/>
-      <c r="CC13" s="7"/>
-      <c r="CD13" s="7"/>
-      <c r="CE13" s="7"/>
-      <c r="CF13" s="7"/>
-      <c r="CG13" s="7"/>
-      <c r="CH13" s="7"/>
-      <c r="CI13" s="7"/>
-      <c r="CJ13" s="7"/>
-      <c r="CK13" s="7"/>
-      <c r="CL13" s="7"/>
-      <c r="CM13" s="7"/>
-      <c r="CN13" s="7"/>
-      <c r="CO13" s="7"/>
-      <c r="CP13" s="7"/>
-      <c r="CQ13" s="7"/>
-      <c r="CR13" s="7"/>
-      <c r="CS13" s="7"/>
-      <c r="CT13" s="7"/>
-      <c r="CU13" s="7"/>
-      <c r="CV13" s="7"/>
-      <c r="CW13" s="7"/>
-      <c r="CX13" s="7"/>
-      <c r="CY13" s="7"/>
-      <c r="CZ13" s="7"/>
-      <c r="DA13" s="7"/>
-      <c r="DB13" s="7"/>
-      <c r="DC13" s="7"/>
-      <c r="DD13" s="7"/>
-      <c r="DE13" s="7"/>
-      <c r="DF13" s="7"/>
-      <c r="DG13" s="7"/>
-      <c r="DH13" s="7"/>
-      <c r="DI13" s="7"/>
-      <c r="DJ13" s="7"/>
-      <c r="DK13" s="7"/>
-      <c r="DL13" s="7"/>
-      <c r="DM13" s="7"/>
-      <c r="DN13" s="7"/>
-      <c r="DO13" s="7"/>
-      <c r="DP13" s="7"/>
-      <c r="DQ13" s="7"/>
-      <c r="DR13" s="7"/>
-      <c r="DS13" s="7"/>
-      <c r="DT13" s="7"/>
-      <c r="DU13" s="7"/>
-      <c r="DV13" s="7"/>
-      <c r="DW13" s="7"/>
-      <c r="DX13" s="7"/>
-      <c r="DY13" s="7"/>
-      <c r="DZ13" s="7"/>
-      <c r="EA13" s="7"/>
-      <c r="EB13" s="7"/>
-      <c r="EC13" s="7"/>
-      <c r="ED13" s="7"/>
-      <c r="EE13" s="7"/>
-      <c r="EF13" s="7"/>
-      <c r="EG13" s="7"/>
-      <c r="EH13" s="7"/>
-      <c r="EI13" s="7"/>
-      <c r="EJ13" s="7"/>
-      <c r="EK13" s="7"/>
-      <c r="EL13" s="7"/>
-      <c r="EM13" s="7"/>
-      <c r="EN13" s="7"/>
-      <c r="EO13" s="7"/>
-      <c r="EP13" s="7"/>
-      <c r="EQ13" s="7"/>
-      <c r="ER13" s="7"/>
-      <c r="ES13" s="7"/>
-      <c r="ET13" s="7"/>
-      <c r="EU13" s="7"/>
-      <c r="EV13" s="7"/>
-      <c r="EW13" s="7"/>
-      <c r="EX13" s="7"/>
-      <c r="EY13" s="7"/>
-      <c r="EZ13" s="7"/>
-      <c r="FA13" s="7"/>
-      <c r="FB13" s="7"/>
-      <c r="FC13" s="7"/>
-      <c r="FD13" s="7"/>
-      <c r="FE13" s="7"/>
-      <c r="FF13" s="7"/>
-      <c r="FG13" s="7"/>
-      <c r="FH13" s="7"/>
-      <c r="FI13" s="7"/>
-      <c r="FJ13" s="7"/>
-      <c r="FK13" s="7"/>
-      <c r="FL13" s="7"/>
-      <c r="FM13" s="7"/>
-      <c r="FN13" s="7"/>
-      <c r="FO13" s="7"/>
-      <c r="FP13" s="7"/>
-      <c r="FQ13" s="7"/>
-      <c r="FR13" s="7"/>
     </row>
     <row r="14" spans="1:174" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5">
-        <f>$C14/$D14</f>
+        <f t="shared" si="0"/>
         <v>0.59070255155540019</v>
       </c>
       <c r="C14" s="5">
@@ -3478,171 +3001,171 @@
       <c r="P14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="7"/>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="7"/>
-      <c r="AX14" s="7"/>
-      <c r="AY14" s="7"/>
-      <c r="AZ14" s="7"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
-      <c r="BC14" s="7"/>
-      <c r="BD14" s="7"/>
-      <c r="BE14" s="7"/>
-      <c r="BF14" s="7"/>
-      <c r="BG14" s="7"/>
-      <c r="BH14" s="7"/>
-      <c r="BI14" s="7"/>
-      <c r="BJ14" s="7"/>
-      <c r="BK14" s="7"/>
-      <c r="BL14" s="7"/>
-      <c r="BM14" s="7"/>
-      <c r="BN14" s="7"/>
-      <c r="BO14" s="7"/>
-      <c r="BP14" s="7"/>
-      <c r="BQ14" s="7"/>
-      <c r="BR14" s="7"/>
-      <c r="BS14" s="7"/>
-      <c r="BT14" s="7"/>
-      <c r="BU14" s="7"/>
-      <c r="BV14" s="7"/>
-      <c r="BW14" s="7"/>
-      <c r="BX14" s="7"/>
-      <c r="BY14" s="7"/>
-      <c r="BZ14" s="7"/>
-      <c r="CA14" s="7"/>
-      <c r="CB14" s="7"/>
-      <c r="CC14" s="7"/>
-      <c r="CD14" s="7"/>
-      <c r="CE14" s="7"/>
-      <c r="CF14" s="7"/>
-      <c r="CG14" s="7"/>
-      <c r="CH14" s="7"/>
-      <c r="CI14" s="7"/>
-      <c r="CJ14" s="7"/>
-      <c r="CK14" s="7"/>
-      <c r="CL14" s="7"/>
-      <c r="CM14" s="7"/>
-      <c r="CN14" s="7"/>
-      <c r="CO14" s="7"/>
-      <c r="CP14" s="7"/>
-      <c r="CQ14" s="7"/>
-      <c r="CR14" s="7"/>
-      <c r="CS14" s="7"/>
-      <c r="CT14" s="7"/>
-      <c r="CU14" s="7"/>
-      <c r="CV14" s="7"/>
-      <c r="CW14" s="7"/>
-      <c r="CX14" s="7"/>
-      <c r="CY14" s="7"/>
-      <c r="CZ14" s="7"/>
-      <c r="DA14" s="7"/>
-      <c r="DB14" s="7"/>
-      <c r="DC14" s="7"/>
-      <c r="DD14" s="7"/>
-      <c r="DE14" s="7"/>
-      <c r="DF14" s="7"/>
-      <c r="DG14" s="7"/>
-      <c r="DH14" s="7"/>
-      <c r="DI14" s="7"/>
-      <c r="DJ14" s="7"/>
-      <c r="DK14" s="7"/>
-      <c r="DL14" s="7"/>
-      <c r="DM14" s="7"/>
-      <c r="DN14" s="7"/>
-      <c r="DO14" s="7"/>
-      <c r="DP14" s="7"/>
-      <c r="DQ14" s="7"/>
-      <c r="DR14" s="7"/>
-      <c r="DS14" s="7"/>
-      <c r="DT14" s="7"/>
-      <c r="DU14" s="7"/>
-      <c r="DV14" s="7"/>
-      <c r="DW14" s="7"/>
-      <c r="DX14" s="7"/>
-      <c r="DY14" s="7"/>
-      <c r="DZ14" s="7"/>
-      <c r="EA14" s="7"/>
-      <c r="EB14" s="7"/>
-      <c r="EC14" s="7"/>
-      <c r="ED14" s="7"/>
-      <c r="EE14" s="7"/>
-      <c r="EF14" s="7"/>
-      <c r="EG14" s="7"/>
-      <c r="EH14" s="7"/>
-      <c r="EI14" s="7"/>
-      <c r="EJ14" s="7"/>
-      <c r="EK14" s="7"/>
-      <c r="EL14" s="7"/>
-      <c r="EM14" s="7"/>
-      <c r="EN14" s="7"/>
-      <c r="EO14" s="7"/>
-      <c r="EP14" s="7"/>
-      <c r="EQ14" s="7"/>
-      <c r="ER14" s="7"/>
-      <c r="ES14" s="7"/>
-      <c r="ET14" s="7"/>
-      <c r="EU14" s="7"/>
-      <c r="EV14" s="7"/>
-      <c r="EW14" s="7"/>
-      <c r="EX14" s="7"/>
-      <c r="EY14" s="7"/>
-      <c r="EZ14" s="7"/>
-      <c r="FA14" s="7"/>
-      <c r="FB14" s="7"/>
-      <c r="FC14" s="7"/>
-      <c r="FD14" s="7"/>
-      <c r="FE14" s="7"/>
-      <c r="FF14" s="7"/>
-      <c r="FG14" s="7"/>
-      <c r="FH14" s="7"/>
-      <c r="FI14" s="7"/>
-      <c r="FJ14" s="7"/>
-      <c r="FK14" s="7"/>
-      <c r="FL14" s="7"/>
-      <c r="FM14" s="7"/>
-      <c r="FN14" s="7"/>
-      <c r="FO14" s="7"/>
-      <c r="FP14" s="7"/>
-      <c r="FQ14" s="7"/>
-      <c r="FR14" s="7"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14"/>
+      <c r="BQ14"/>
+      <c r="BR14"/>
+      <c r="BS14"/>
+      <c r="BT14"/>
+      <c r="BU14"/>
+      <c r="BV14"/>
+      <c r="BW14"/>
+      <c r="BX14"/>
+      <c r="BY14"/>
+      <c r="BZ14"/>
+      <c r="CA14"/>
+      <c r="CB14"/>
+      <c r="CC14"/>
+      <c r="CD14"/>
+      <c r="CE14"/>
+      <c r="CF14"/>
+      <c r="CG14"/>
+      <c r="CH14"/>
+      <c r="CI14"/>
+      <c r="CJ14"/>
+      <c r="CK14"/>
+      <c r="CL14"/>
+      <c r="CM14"/>
+      <c r="CN14"/>
+      <c r="CO14"/>
+      <c r="CP14"/>
+      <c r="CQ14"/>
+      <c r="CR14"/>
+      <c r="CS14"/>
+      <c r="CT14"/>
+      <c r="CU14"/>
+      <c r="CV14"/>
+      <c r="CW14"/>
+      <c r="CX14"/>
+      <c r="CY14"/>
+      <c r="CZ14"/>
+      <c r="DA14"/>
+      <c r="DB14"/>
+      <c r="DC14"/>
+      <c r="DD14"/>
+      <c r="DE14"/>
+      <c r="DF14"/>
+      <c r="DG14"/>
+      <c r="DH14"/>
+      <c r="DI14"/>
+      <c r="DJ14"/>
+      <c r="DK14"/>
+      <c r="DL14"/>
+      <c r="DM14"/>
+      <c r="DN14"/>
+      <c r="DO14"/>
+      <c r="DP14"/>
+      <c r="DQ14"/>
+      <c r="DR14"/>
+      <c r="DS14"/>
+      <c r="DT14"/>
+      <c r="DU14"/>
+      <c r="DV14"/>
+      <c r="DW14"/>
+      <c r="DX14"/>
+      <c r="DY14"/>
+      <c r="DZ14"/>
+      <c r="EA14"/>
+      <c r="EB14"/>
+      <c r="EC14"/>
+      <c r="ED14"/>
+      <c r="EE14"/>
+      <c r="EF14"/>
+      <c r="EG14"/>
+      <c r="EH14"/>
+      <c r="EI14"/>
+      <c r="EJ14"/>
+      <c r="EK14"/>
+      <c r="EL14"/>
+      <c r="EM14"/>
+      <c r="EN14"/>
+      <c r="EO14"/>
+      <c r="EP14"/>
+      <c r="EQ14"/>
+      <c r="ER14"/>
+      <c r="ES14"/>
+      <c r="ET14"/>
+      <c r="EU14"/>
+      <c r="EV14"/>
+      <c r="EW14"/>
+      <c r="EX14"/>
+      <c r="EY14"/>
+      <c r="EZ14"/>
+      <c r="FA14"/>
+      <c r="FB14"/>
+      <c r="FC14"/>
+      <c r="FD14"/>
+      <c r="FE14"/>
+      <c r="FF14"/>
+      <c r="FG14"/>
+      <c r="FH14"/>
+      <c r="FI14"/>
+      <c r="FJ14"/>
+      <c r="FK14"/>
+      <c r="FL14"/>
+      <c r="FM14"/>
+      <c r="FN14"/>
+      <c r="FO14"/>
+      <c r="FP14"/>
+      <c r="FQ14"/>
+      <c r="FR14"/>
     </row>
     <row r="15" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="5">
-        <f>$C15/$D15</f>
+        <f t="shared" si="0"/>
         <v>0.58141577375724574</v>
       </c>
       <c r="C15" s="5">
@@ -3687,171 +3210,13 @@
       <c r="P15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="7"/>
-      <c r="AT15" s="7"/>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="7"/>
-      <c r="AX15" s="7"/>
-      <c r="AY15" s="7"/>
-      <c r="AZ15" s="7"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="7"/>
-      <c r="BC15" s="7"/>
-      <c r="BD15" s="7"/>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="7"/>
-      <c r="BH15" s="7"/>
-      <c r="BI15" s="7"/>
-      <c r="BJ15" s="7"/>
-      <c r="BK15" s="7"/>
-      <c r="BL15" s="7"/>
-      <c r="BM15" s="7"/>
-      <c r="BN15" s="7"/>
-      <c r="BO15" s="7"/>
-      <c r="BP15" s="7"/>
-      <c r="BQ15" s="7"/>
-      <c r="BR15" s="7"/>
-      <c r="BS15" s="7"/>
-      <c r="BT15" s="7"/>
-      <c r="BU15" s="7"/>
-      <c r="BV15" s="7"/>
-      <c r="BW15" s="7"/>
-      <c r="BX15" s="7"/>
-      <c r="BY15" s="7"/>
-      <c r="BZ15" s="7"/>
-      <c r="CA15" s="7"/>
-      <c r="CB15" s="7"/>
-      <c r="CC15" s="7"/>
-      <c r="CD15" s="7"/>
-      <c r="CE15" s="7"/>
-      <c r="CF15" s="7"/>
-      <c r="CG15" s="7"/>
-      <c r="CH15" s="7"/>
-      <c r="CI15" s="7"/>
-      <c r="CJ15" s="7"/>
-      <c r="CK15" s="7"/>
-      <c r="CL15" s="7"/>
-      <c r="CM15" s="7"/>
-      <c r="CN15" s="7"/>
-      <c r="CO15" s="7"/>
-      <c r="CP15" s="7"/>
-      <c r="CQ15" s="7"/>
-      <c r="CR15" s="7"/>
-      <c r="CS15" s="7"/>
-      <c r="CT15" s="7"/>
-      <c r="CU15" s="7"/>
-      <c r="CV15" s="7"/>
-      <c r="CW15" s="7"/>
-      <c r="CX15" s="7"/>
-      <c r="CY15" s="7"/>
-      <c r="CZ15" s="7"/>
-      <c r="DA15" s="7"/>
-      <c r="DB15" s="7"/>
-      <c r="DC15" s="7"/>
-      <c r="DD15" s="7"/>
-      <c r="DE15" s="7"/>
-      <c r="DF15" s="7"/>
-      <c r="DG15" s="7"/>
-      <c r="DH15" s="7"/>
-      <c r="DI15" s="7"/>
-      <c r="DJ15" s="7"/>
-      <c r="DK15" s="7"/>
-      <c r="DL15" s="7"/>
-      <c r="DM15" s="7"/>
-      <c r="DN15" s="7"/>
-      <c r="DO15" s="7"/>
-      <c r="DP15" s="7"/>
-      <c r="DQ15" s="7"/>
-      <c r="DR15" s="7"/>
-      <c r="DS15" s="7"/>
-      <c r="DT15" s="7"/>
-      <c r="DU15" s="7"/>
-      <c r="DV15" s="7"/>
-      <c r="DW15" s="7"/>
-      <c r="DX15" s="7"/>
-      <c r="DY15" s="7"/>
-      <c r="DZ15" s="7"/>
-      <c r="EA15" s="7"/>
-      <c r="EB15" s="7"/>
-      <c r="EC15" s="7"/>
-      <c r="ED15" s="7"/>
-      <c r="EE15" s="7"/>
-      <c r="EF15" s="7"/>
-      <c r="EG15" s="7"/>
-      <c r="EH15" s="7"/>
-      <c r="EI15" s="7"/>
-      <c r="EJ15" s="7"/>
-      <c r="EK15" s="7"/>
-      <c r="EL15" s="7"/>
-      <c r="EM15" s="7"/>
-      <c r="EN15" s="7"/>
-      <c r="EO15" s="7"/>
-      <c r="EP15" s="7"/>
-      <c r="EQ15" s="7"/>
-      <c r="ER15" s="7"/>
-      <c r="ES15" s="7"/>
-      <c r="ET15" s="7"/>
-      <c r="EU15" s="7"/>
-      <c r="EV15" s="7"/>
-      <c r="EW15" s="7"/>
-      <c r="EX15" s="7"/>
-      <c r="EY15" s="7"/>
-      <c r="EZ15" s="7"/>
-      <c r="FA15" s="7"/>
-      <c r="FB15" s="7"/>
-      <c r="FC15" s="7"/>
-      <c r="FD15" s="7"/>
-      <c r="FE15" s="7"/>
-      <c r="FF15" s="7"/>
-      <c r="FG15" s="7"/>
-      <c r="FH15" s="7"/>
-      <c r="FI15" s="7"/>
-      <c r="FJ15" s="7"/>
-      <c r="FK15" s="7"/>
-      <c r="FL15" s="7"/>
-      <c r="FM15" s="7"/>
-      <c r="FN15" s="7"/>
-      <c r="FO15" s="7"/>
-      <c r="FP15" s="7"/>
-      <c r="FQ15" s="7"/>
-      <c r="FR15" s="7"/>
     </row>
     <row r="16" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B16">
-        <f>$C16/$D16</f>
+        <f t="shared" si="0"/>
         <v>0.57776162790697672</v>
       </c>
       <c r="C16">
@@ -3896,171 +3261,13 @@
       <c r="P16" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="7"/>
-      <c r="AW16" s="7"/>
-      <c r="AX16" s="7"/>
-      <c r="AY16" s="7"/>
-      <c r="AZ16" s="7"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="7"/>
-      <c r="BC16" s="7"/>
-      <c r="BD16" s="7"/>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="7"/>
-      <c r="BG16" s="7"/>
-      <c r="BH16" s="7"/>
-      <c r="BI16" s="7"/>
-      <c r="BJ16" s="7"/>
-      <c r="BK16" s="7"/>
-      <c r="BL16" s="7"/>
-      <c r="BM16" s="7"/>
-      <c r="BN16" s="7"/>
-      <c r="BO16" s="7"/>
-      <c r="BP16" s="7"/>
-      <c r="BQ16" s="7"/>
-      <c r="BR16" s="7"/>
-      <c r="BS16" s="7"/>
-      <c r="BT16" s="7"/>
-      <c r="BU16" s="7"/>
-      <c r="BV16" s="7"/>
-      <c r="BW16" s="7"/>
-      <c r="BX16" s="7"/>
-      <c r="BY16" s="7"/>
-      <c r="BZ16" s="7"/>
-      <c r="CA16" s="7"/>
-      <c r="CB16" s="7"/>
-      <c r="CC16" s="7"/>
-      <c r="CD16" s="7"/>
-      <c r="CE16" s="7"/>
-      <c r="CF16" s="7"/>
-      <c r="CG16" s="7"/>
-      <c r="CH16" s="7"/>
-      <c r="CI16" s="7"/>
-      <c r="CJ16" s="7"/>
-      <c r="CK16" s="7"/>
-      <c r="CL16" s="7"/>
-      <c r="CM16" s="7"/>
-      <c r="CN16" s="7"/>
-      <c r="CO16" s="7"/>
-      <c r="CP16" s="7"/>
-      <c r="CQ16" s="7"/>
-      <c r="CR16" s="7"/>
-      <c r="CS16" s="7"/>
-      <c r="CT16" s="7"/>
-      <c r="CU16" s="7"/>
-      <c r="CV16" s="7"/>
-      <c r="CW16" s="7"/>
-      <c r="CX16" s="7"/>
-      <c r="CY16" s="7"/>
-      <c r="CZ16" s="7"/>
-      <c r="DA16" s="7"/>
-      <c r="DB16" s="7"/>
-      <c r="DC16" s="7"/>
-      <c r="DD16" s="7"/>
-      <c r="DE16" s="7"/>
-      <c r="DF16" s="7"/>
-      <c r="DG16" s="7"/>
-      <c r="DH16" s="7"/>
-      <c r="DI16" s="7"/>
-      <c r="DJ16" s="7"/>
-      <c r="DK16" s="7"/>
-      <c r="DL16" s="7"/>
-      <c r="DM16" s="7"/>
-      <c r="DN16" s="7"/>
-      <c r="DO16" s="7"/>
-      <c r="DP16" s="7"/>
-      <c r="DQ16" s="7"/>
-      <c r="DR16" s="7"/>
-      <c r="DS16" s="7"/>
-      <c r="DT16" s="7"/>
-      <c r="DU16" s="7"/>
-      <c r="DV16" s="7"/>
-      <c r="DW16" s="7"/>
-      <c r="DX16" s="7"/>
-      <c r="DY16" s="7"/>
-      <c r="DZ16" s="7"/>
-      <c r="EA16" s="7"/>
-      <c r="EB16" s="7"/>
-      <c r="EC16" s="7"/>
-      <c r="ED16" s="7"/>
-      <c r="EE16" s="7"/>
-      <c r="EF16" s="7"/>
-      <c r="EG16" s="7"/>
-      <c r="EH16" s="7"/>
-      <c r="EI16" s="7"/>
-      <c r="EJ16" s="7"/>
-      <c r="EK16" s="7"/>
-      <c r="EL16" s="7"/>
-      <c r="EM16" s="7"/>
-      <c r="EN16" s="7"/>
-      <c r="EO16" s="7"/>
-      <c r="EP16" s="7"/>
-      <c r="EQ16" s="7"/>
-      <c r="ER16" s="7"/>
-      <c r="ES16" s="7"/>
-      <c r="ET16" s="7"/>
-      <c r="EU16" s="7"/>
-      <c r="EV16" s="7"/>
-      <c r="EW16" s="7"/>
-      <c r="EX16" s="7"/>
-      <c r="EY16" s="7"/>
-      <c r="EZ16" s="7"/>
-      <c r="FA16" s="7"/>
-      <c r="FB16" s="7"/>
-      <c r="FC16" s="7"/>
-      <c r="FD16" s="7"/>
-      <c r="FE16" s="7"/>
-      <c r="FF16" s="7"/>
-      <c r="FG16" s="7"/>
-      <c r="FH16" s="7"/>
-      <c r="FI16" s="7"/>
-      <c r="FJ16" s="7"/>
-      <c r="FK16" s="7"/>
-      <c r="FL16" s="7"/>
-      <c r="FM16" s="7"/>
-      <c r="FN16" s="7"/>
-      <c r="FO16" s="7"/>
-      <c r="FP16" s="7"/>
-      <c r="FQ16" s="7"/>
-      <c r="FR16" s="7"/>
     </row>
     <row r="17" spans="1:174" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B17">
-        <f>$C17/$D17</f>
+        <f t="shared" si="0"/>
         <v>0.57184483700600985</v>
       </c>
       <c r="C17">
@@ -4105,171 +3312,171 @@
       <c r="P17" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="7"/>
-      <c r="AT17" s="7"/>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="7"/>
-      <c r="AX17" s="7"/>
-      <c r="AY17" s="7"/>
-      <c r="AZ17" s="7"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="7"/>
-      <c r="BC17" s="7"/>
-      <c r="BD17" s="7"/>
-      <c r="BE17" s="7"/>
-      <c r="BF17" s="7"/>
-      <c r="BG17" s="7"/>
-      <c r="BH17" s="7"/>
-      <c r="BI17" s="7"/>
-      <c r="BJ17" s="7"/>
-      <c r="BK17" s="7"/>
-      <c r="BL17" s="7"/>
-      <c r="BM17" s="7"/>
-      <c r="BN17" s="7"/>
-      <c r="BO17" s="7"/>
-      <c r="BP17" s="7"/>
-      <c r="BQ17" s="7"/>
-      <c r="BR17" s="7"/>
-      <c r="BS17" s="7"/>
-      <c r="BT17" s="7"/>
-      <c r="BU17" s="7"/>
-      <c r="BV17" s="7"/>
-      <c r="BW17" s="7"/>
-      <c r="BX17" s="7"/>
-      <c r="BY17" s="7"/>
-      <c r="BZ17" s="7"/>
-      <c r="CA17" s="7"/>
-      <c r="CB17" s="7"/>
-      <c r="CC17" s="7"/>
-      <c r="CD17" s="7"/>
-      <c r="CE17" s="7"/>
-      <c r="CF17" s="7"/>
-      <c r="CG17" s="7"/>
-      <c r="CH17" s="7"/>
-      <c r="CI17" s="7"/>
-      <c r="CJ17" s="7"/>
-      <c r="CK17" s="7"/>
-      <c r="CL17" s="7"/>
-      <c r="CM17" s="7"/>
-      <c r="CN17" s="7"/>
-      <c r="CO17" s="7"/>
-      <c r="CP17" s="7"/>
-      <c r="CQ17" s="7"/>
-      <c r="CR17" s="7"/>
-      <c r="CS17" s="7"/>
-      <c r="CT17" s="7"/>
-      <c r="CU17" s="7"/>
-      <c r="CV17" s="7"/>
-      <c r="CW17" s="7"/>
-      <c r="CX17" s="7"/>
-      <c r="CY17" s="7"/>
-      <c r="CZ17" s="7"/>
-      <c r="DA17" s="7"/>
-      <c r="DB17" s="7"/>
-      <c r="DC17" s="7"/>
-      <c r="DD17" s="7"/>
-      <c r="DE17" s="7"/>
-      <c r="DF17" s="7"/>
-      <c r="DG17" s="7"/>
-      <c r="DH17" s="7"/>
-      <c r="DI17" s="7"/>
-      <c r="DJ17" s="7"/>
-      <c r="DK17" s="7"/>
-      <c r="DL17" s="7"/>
-      <c r="DM17" s="7"/>
-      <c r="DN17" s="7"/>
-      <c r="DO17" s="7"/>
-      <c r="DP17" s="7"/>
-      <c r="DQ17" s="7"/>
-      <c r="DR17" s="7"/>
-      <c r="DS17" s="7"/>
-      <c r="DT17" s="7"/>
-      <c r="DU17" s="7"/>
-      <c r="DV17" s="7"/>
-      <c r="DW17" s="7"/>
-      <c r="DX17" s="7"/>
-      <c r="DY17" s="7"/>
-      <c r="DZ17" s="7"/>
-      <c r="EA17" s="7"/>
-      <c r="EB17" s="7"/>
-      <c r="EC17" s="7"/>
-      <c r="ED17" s="7"/>
-      <c r="EE17" s="7"/>
-      <c r="EF17" s="7"/>
-      <c r="EG17" s="7"/>
-      <c r="EH17" s="7"/>
-      <c r="EI17" s="7"/>
-      <c r="EJ17" s="7"/>
-      <c r="EK17" s="7"/>
-      <c r="EL17" s="7"/>
-      <c r="EM17" s="7"/>
-      <c r="EN17" s="7"/>
-      <c r="EO17" s="7"/>
-      <c r="EP17" s="7"/>
-      <c r="EQ17" s="7"/>
-      <c r="ER17" s="7"/>
-      <c r="ES17" s="7"/>
-      <c r="ET17" s="7"/>
-      <c r="EU17" s="7"/>
-      <c r="EV17" s="7"/>
-      <c r="EW17" s="7"/>
-      <c r="EX17" s="7"/>
-      <c r="EY17" s="7"/>
-      <c r="EZ17" s="7"/>
-      <c r="FA17" s="7"/>
-      <c r="FB17" s="7"/>
-      <c r="FC17" s="7"/>
-      <c r="FD17" s="7"/>
-      <c r="FE17" s="7"/>
-      <c r="FF17" s="7"/>
-      <c r="FG17" s="7"/>
-      <c r="FH17" s="7"/>
-      <c r="FI17" s="7"/>
-      <c r="FJ17" s="7"/>
-      <c r="FK17" s="7"/>
-      <c r="FL17" s="7"/>
-      <c r="FM17" s="7"/>
-      <c r="FN17" s="7"/>
-      <c r="FO17" s="7"/>
-      <c r="FP17" s="7"/>
-      <c r="FQ17" s="7"/>
-      <c r="FR17" s="7"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
+      <c r="CF17"/>
+      <c r="CG17"/>
+      <c r="CH17"/>
+      <c r="CI17"/>
+      <c r="CJ17"/>
+      <c r="CK17"/>
+      <c r="CL17"/>
+      <c r="CM17"/>
+      <c r="CN17"/>
+      <c r="CO17"/>
+      <c r="CP17"/>
+      <c r="CQ17"/>
+      <c r="CR17"/>
+      <c r="CS17"/>
+      <c r="CT17"/>
+      <c r="CU17"/>
+      <c r="CV17"/>
+      <c r="CW17"/>
+      <c r="CX17"/>
+      <c r="CY17"/>
+      <c r="CZ17"/>
+      <c r="DA17"/>
+      <c r="DB17"/>
+      <c r="DC17"/>
+      <c r="DD17"/>
+      <c r="DE17"/>
+      <c r="DF17"/>
+      <c r="DG17"/>
+      <c r="DH17"/>
+      <c r="DI17"/>
+      <c r="DJ17"/>
+      <c r="DK17"/>
+      <c r="DL17"/>
+      <c r="DM17"/>
+      <c r="DN17"/>
+      <c r="DO17"/>
+      <c r="DP17"/>
+      <c r="DQ17"/>
+      <c r="DR17"/>
+      <c r="DS17"/>
+      <c r="DT17"/>
+      <c r="DU17"/>
+      <c r="DV17"/>
+      <c r="DW17"/>
+      <c r="DX17"/>
+      <c r="DY17"/>
+      <c r="DZ17"/>
+      <c r="EA17"/>
+      <c r="EB17"/>
+      <c r="EC17"/>
+      <c r="ED17"/>
+      <c r="EE17"/>
+      <c r="EF17"/>
+      <c r="EG17"/>
+      <c r="EH17"/>
+      <c r="EI17"/>
+      <c r="EJ17"/>
+      <c r="EK17"/>
+      <c r="EL17"/>
+      <c r="EM17"/>
+      <c r="EN17"/>
+      <c r="EO17"/>
+      <c r="EP17"/>
+      <c r="EQ17"/>
+      <c r="ER17"/>
+      <c r="ES17"/>
+      <c r="ET17"/>
+      <c r="EU17"/>
+      <c r="EV17"/>
+      <c r="EW17"/>
+      <c r="EX17"/>
+      <c r="EY17"/>
+      <c r="EZ17"/>
+      <c r="FA17"/>
+      <c r="FB17"/>
+      <c r="FC17"/>
+      <c r="FD17"/>
+      <c r="FE17"/>
+      <c r="FF17"/>
+      <c r="FG17"/>
+      <c r="FH17"/>
+      <c r="FI17"/>
+      <c r="FJ17"/>
+      <c r="FK17"/>
+      <c r="FL17"/>
+      <c r="FM17"/>
+      <c r="FN17"/>
+      <c r="FO17"/>
+      <c r="FP17"/>
+      <c r="FQ17"/>
+      <c r="FR17"/>
     </row>
     <row r="18" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18">
-        <f>$C18/$D18</f>
+        <f t="shared" si="0"/>
         <v>0.55545471047377026</v>
       </c>
       <c r="C18">
@@ -4314,171 +3521,13 @@
       <c r="P18" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="7"/>
-      <c r="AT18" s="7"/>
-      <c r="AU18" s="7"/>
-      <c r="AV18" s="7"/>
-      <c r="AW18" s="7"/>
-      <c r="AX18" s="7"/>
-      <c r="AY18" s="7"/>
-      <c r="AZ18" s="7"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="7"/>
-      <c r="BC18" s="7"/>
-      <c r="BD18" s="7"/>
-      <c r="BE18" s="7"/>
-      <c r="BF18" s="7"/>
-      <c r="BG18" s="7"/>
-      <c r="BH18" s="7"/>
-      <c r="BI18" s="7"/>
-      <c r="BJ18" s="7"/>
-      <c r="BK18" s="7"/>
-      <c r="BL18" s="7"/>
-      <c r="BM18" s="7"/>
-      <c r="BN18" s="7"/>
-      <c r="BO18" s="7"/>
-      <c r="BP18" s="7"/>
-      <c r="BQ18" s="7"/>
-      <c r="BR18" s="7"/>
-      <c r="BS18" s="7"/>
-      <c r="BT18" s="7"/>
-      <c r="BU18" s="7"/>
-      <c r="BV18" s="7"/>
-      <c r="BW18" s="7"/>
-      <c r="BX18" s="7"/>
-      <c r="BY18" s="7"/>
-      <c r="BZ18" s="7"/>
-      <c r="CA18" s="7"/>
-      <c r="CB18" s="7"/>
-      <c r="CC18" s="7"/>
-      <c r="CD18" s="7"/>
-      <c r="CE18" s="7"/>
-      <c r="CF18" s="7"/>
-      <c r="CG18" s="7"/>
-      <c r="CH18" s="7"/>
-      <c r="CI18" s="7"/>
-      <c r="CJ18" s="7"/>
-      <c r="CK18" s="7"/>
-      <c r="CL18" s="7"/>
-      <c r="CM18" s="7"/>
-      <c r="CN18" s="7"/>
-      <c r="CO18" s="7"/>
-      <c r="CP18" s="7"/>
-      <c r="CQ18" s="7"/>
-      <c r="CR18" s="7"/>
-      <c r="CS18" s="7"/>
-      <c r="CT18" s="7"/>
-      <c r="CU18" s="7"/>
-      <c r="CV18" s="7"/>
-      <c r="CW18" s="7"/>
-      <c r="CX18" s="7"/>
-      <c r="CY18" s="7"/>
-      <c r="CZ18" s="7"/>
-      <c r="DA18" s="7"/>
-      <c r="DB18" s="7"/>
-      <c r="DC18" s="7"/>
-      <c r="DD18" s="7"/>
-      <c r="DE18" s="7"/>
-      <c r="DF18" s="7"/>
-      <c r="DG18" s="7"/>
-      <c r="DH18" s="7"/>
-      <c r="DI18" s="7"/>
-      <c r="DJ18" s="7"/>
-      <c r="DK18" s="7"/>
-      <c r="DL18" s="7"/>
-      <c r="DM18" s="7"/>
-      <c r="DN18" s="7"/>
-      <c r="DO18" s="7"/>
-      <c r="DP18" s="7"/>
-      <c r="DQ18" s="7"/>
-      <c r="DR18" s="7"/>
-      <c r="DS18" s="7"/>
-      <c r="DT18" s="7"/>
-      <c r="DU18" s="7"/>
-      <c r="DV18" s="7"/>
-      <c r="DW18" s="7"/>
-      <c r="DX18" s="7"/>
-      <c r="DY18" s="7"/>
-      <c r="DZ18" s="7"/>
-      <c r="EA18" s="7"/>
-      <c r="EB18" s="7"/>
-      <c r="EC18" s="7"/>
-      <c r="ED18" s="7"/>
-      <c r="EE18" s="7"/>
-      <c r="EF18" s="7"/>
-      <c r="EG18" s="7"/>
-      <c r="EH18" s="7"/>
-      <c r="EI18" s="7"/>
-      <c r="EJ18" s="7"/>
-      <c r="EK18" s="7"/>
-      <c r="EL18" s="7"/>
-      <c r="EM18" s="7"/>
-      <c r="EN18" s="7"/>
-      <c r="EO18" s="7"/>
-      <c r="EP18" s="7"/>
-      <c r="EQ18" s="7"/>
-      <c r="ER18" s="7"/>
-      <c r="ES18" s="7"/>
-      <c r="ET18" s="7"/>
-      <c r="EU18" s="7"/>
-      <c r="EV18" s="7"/>
-      <c r="EW18" s="7"/>
-      <c r="EX18" s="7"/>
-      <c r="EY18" s="7"/>
-      <c r="EZ18" s="7"/>
-      <c r="FA18" s="7"/>
-      <c r="FB18" s="7"/>
-      <c r="FC18" s="7"/>
-      <c r="FD18" s="7"/>
-      <c r="FE18" s="7"/>
-      <c r="FF18" s="7"/>
-      <c r="FG18" s="7"/>
-      <c r="FH18" s="7"/>
-      <c r="FI18" s="7"/>
-      <c r="FJ18" s="7"/>
-      <c r="FK18" s="7"/>
-      <c r="FL18" s="7"/>
-      <c r="FM18" s="7"/>
-      <c r="FN18" s="7"/>
-      <c r="FO18" s="7"/>
-      <c r="FP18" s="7"/>
-      <c r="FQ18" s="7"/>
-      <c r="FR18" s="7"/>
     </row>
     <row r="19" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <f>$C19/$D19</f>
+        <f t="shared" si="0"/>
         <v>0.55545404714050794</v>
       </c>
       <c r="C19">
@@ -4520,171 +3569,13 @@
       <c r="P19" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="7"/>
-      <c r="AU19" s="7"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="7"/>
-      <c r="AX19" s="7"/>
-      <c r="AY19" s="7"/>
-      <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="7"/>
-      <c r="BC19" s="7"/>
-      <c r="BD19" s="7"/>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="7"/>
-      <c r="BG19" s="7"/>
-      <c r="BH19" s="7"/>
-      <c r="BI19" s="7"/>
-      <c r="BJ19" s="7"/>
-      <c r="BK19" s="7"/>
-      <c r="BL19" s="7"/>
-      <c r="BM19" s="7"/>
-      <c r="BN19" s="7"/>
-      <c r="BO19" s="7"/>
-      <c r="BP19" s="7"/>
-      <c r="BQ19" s="7"/>
-      <c r="BR19" s="7"/>
-      <c r="BS19" s="7"/>
-      <c r="BT19" s="7"/>
-      <c r="BU19" s="7"/>
-      <c r="BV19" s="7"/>
-      <c r="BW19" s="7"/>
-      <c r="BX19" s="7"/>
-      <c r="BY19" s="7"/>
-      <c r="BZ19" s="7"/>
-      <c r="CA19" s="7"/>
-      <c r="CB19" s="7"/>
-      <c r="CC19" s="7"/>
-      <c r="CD19" s="7"/>
-      <c r="CE19" s="7"/>
-      <c r="CF19" s="7"/>
-      <c r="CG19" s="7"/>
-      <c r="CH19" s="7"/>
-      <c r="CI19" s="7"/>
-      <c r="CJ19" s="7"/>
-      <c r="CK19" s="7"/>
-      <c r="CL19" s="7"/>
-      <c r="CM19" s="7"/>
-      <c r="CN19" s="7"/>
-      <c r="CO19" s="7"/>
-      <c r="CP19" s="7"/>
-      <c r="CQ19" s="7"/>
-      <c r="CR19" s="7"/>
-      <c r="CS19" s="7"/>
-      <c r="CT19" s="7"/>
-      <c r="CU19" s="7"/>
-      <c r="CV19" s="7"/>
-      <c r="CW19" s="7"/>
-      <c r="CX19" s="7"/>
-      <c r="CY19" s="7"/>
-      <c r="CZ19" s="7"/>
-      <c r="DA19" s="7"/>
-      <c r="DB19" s="7"/>
-      <c r="DC19" s="7"/>
-      <c r="DD19" s="7"/>
-      <c r="DE19" s="7"/>
-      <c r="DF19" s="7"/>
-      <c r="DG19" s="7"/>
-      <c r="DH19" s="7"/>
-      <c r="DI19" s="7"/>
-      <c r="DJ19" s="7"/>
-      <c r="DK19" s="7"/>
-      <c r="DL19" s="7"/>
-      <c r="DM19" s="7"/>
-      <c r="DN19" s="7"/>
-      <c r="DO19" s="7"/>
-      <c r="DP19" s="7"/>
-      <c r="DQ19" s="7"/>
-      <c r="DR19" s="7"/>
-      <c r="DS19" s="7"/>
-      <c r="DT19" s="7"/>
-      <c r="DU19" s="7"/>
-      <c r="DV19" s="7"/>
-      <c r="DW19" s="7"/>
-      <c r="DX19" s="7"/>
-      <c r="DY19" s="7"/>
-      <c r="DZ19" s="7"/>
-      <c r="EA19" s="7"/>
-      <c r="EB19" s="7"/>
-      <c r="EC19" s="7"/>
-      <c r="ED19" s="7"/>
-      <c r="EE19" s="7"/>
-      <c r="EF19" s="7"/>
-      <c r="EG19" s="7"/>
-      <c r="EH19" s="7"/>
-      <c r="EI19" s="7"/>
-      <c r="EJ19" s="7"/>
-      <c r="EK19" s="7"/>
-      <c r="EL19" s="7"/>
-      <c r="EM19" s="7"/>
-      <c r="EN19" s="7"/>
-      <c r="EO19" s="7"/>
-      <c r="EP19" s="7"/>
-      <c r="EQ19" s="7"/>
-      <c r="ER19" s="7"/>
-      <c r="ES19" s="7"/>
-      <c r="ET19" s="7"/>
-      <c r="EU19" s="7"/>
-      <c r="EV19" s="7"/>
-      <c r="EW19" s="7"/>
-      <c r="EX19" s="7"/>
-      <c r="EY19" s="7"/>
-      <c r="EZ19" s="7"/>
-      <c r="FA19" s="7"/>
-      <c r="FB19" s="7"/>
-      <c r="FC19" s="7"/>
-      <c r="FD19" s="7"/>
-      <c r="FE19" s="7"/>
-      <c r="FF19" s="7"/>
-      <c r="FG19" s="7"/>
-      <c r="FH19" s="7"/>
-      <c r="FI19" s="7"/>
-      <c r="FJ19" s="7"/>
-      <c r="FK19" s="7"/>
-      <c r="FL19" s="7"/>
-      <c r="FM19" s="7"/>
-      <c r="FN19" s="7"/>
-      <c r="FO19" s="7"/>
-      <c r="FP19" s="7"/>
-      <c r="FQ19" s="7"/>
-      <c r="FR19" s="7"/>
     </row>
     <row r="20" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="5">
-        <f>$C20/$D20</f>
+        <f t="shared" si="0"/>
         <v>0.55536028119507919</v>
       </c>
       <c r="C20" s="5">
@@ -4729,171 +3620,13 @@
       <c r="P20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="7"/>
-      <c r="AT20" s="7"/>
-      <c r="AU20" s="7"/>
-      <c r="AV20" s="7"/>
-      <c r="AW20" s="7"/>
-      <c r="AX20" s="7"/>
-      <c r="AY20" s="7"/>
-      <c r="AZ20" s="7"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="7"/>
-      <c r="BC20" s="7"/>
-      <c r="BD20" s="7"/>
-      <c r="BE20" s="7"/>
-      <c r="BF20" s="7"/>
-      <c r="BG20" s="7"/>
-      <c r="BH20" s="7"/>
-      <c r="BI20" s="7"/>
-      <c r="BJ20" s="7"/>
-      <c r="BK20" s="7"/>
-      <c r="BL20" s="7"/>
-      <c r="BM20" s="7"/>
-      <c r="BN20" s="7"/>
-      <c r="BO20" s="7"/>
-      <c r="BP20" s="7"/>
-      <c r="BQ20" s="7"/>
-      <c r="BR20" s="7"/>
-      <c r="BS20" s="7"/>
-      <c r="BT20" s="7"/>
-      <c r="BU20" s="7"/>
-      <c r="BV20" s="7"/>
-      <c r="BW20" s="7"/>
-      <c r="BX20" s="7"/>
-      <c r="BY20" s="7"/>
-      <c r="BZ20" s="7"/>
-      <c r="CA20" s="7"/>
-      <c r="CB20" s="7"/>
-      <c r="CC20" s="7"/>
-      <c r="CD20" s="7"/>
-      <c r="CE20" s="7"/>
-      <c r="CF20" s="7"/>
-      <c r="CG20" s="7"/>
-      <c r="CH20" s="7"/>
-      <c r="CI20" s="7"/>
-      <c r="CJ20" s="7"/>
-      <c r="CK20" s="7"/>
-      <c r="CL20" s="7"/>
-      <c r="CM20" s="7"/>
-      <c r="CN20" s="7"/>
-      <c r="CO20" s="7"/>
-      <c r="CP20" s="7"/>
-      <c r="CQ20" s="7"/>
-      <c r="CR20" s="7"/>
-      <c r="CS20" s="7"/>
-      <c r="CT20" s="7"/>
-      <c r="CU20" s="7"/>
-      <c r="CV20" s="7"/>
-      <c r="CW20" s="7"/>
-      <c r="CX20" s="7"/>
-      <c r="CY20" s="7"/>
-      <c r="CZ20" s="7"/>
-      <c r="DA20" s="7"/>
-      <c r="DB20" s="7"/>
-      <c r="DC20" s="7"/>
-      <c r="DD20" s="7"/>
-      <c r="DE20" s="7"/>
-      <c r="DF20" s="7"/>
-      <c r="DG20" s="7"/>
-      <c r="DH20" s="7"/>
-      <c r="DI20" s="7"/>
-      <c r="DJ20" s="7"/>
-      <c r="DK20" s="7"/>
-      <c r="DL20" s="7"/>
-      <c r="DM20" s="7"/>
-      <c r="DN20" s="7"/>
-      <c r="DO20" s="7"/>
-      <c r="DP20" s="7"/>
-      <c r="DQ20" s="7"/>
-      <c r="DR20" s="7"/>
-      <c r="DS20" s="7"/>
-      <c r="DT20" s="7"/>
-      <c r="DU20" s="7"/>
-      <c r="DV20" s="7"/>
-      <c r="DW20" s="7"/>
-      <c r="DX20" s="7"/>
-      <c r="DY20" s="7"/>
-      <c r="DZ20" s="7"/>
-      <c r="EA20" s="7"/>
-      <c r="EB20" s="7"/>
-      <c r="EC20" s="7"/>
-      <c r="ED20" s="7"/>
-      <c r="EE20" s="7"/>
-      <c r="EF20" s="7"/>
-      <c r="EG20" s="7"/>
-      <c r="EH20" s="7"/>
-      <c r="EI20" s="7"/>
-      <c r="EJ20" s="7"/>
-      <c r="EK20" s="7"/>
-      <c r="EL20" s="7"/>
-      <c r="EM20" s="7"/>
-      <c r="EN20" s="7"/>
-      <c r="EO20" s="7"/>
-      <c r="EP20" s="7"/>
-      <c r="EQ20" s="7"/>
-      <c r="ER20" s="7"/>
-      <c r="ES20" s="7"/>
-      <c r="ET20" s="7"/>
-      <c r="EU20" s="7"/>
-      <c r="EV20" s="7"/>
-      <c r="EW20" s="7"/>
-      <c r="EX20" s="7"/>
-      <c r="EY20" s="7"/>
-      <c r="EZ20" s="7"/>
-      <c r="FA20" s="7"/>
-      <c r="FB20" s="7"/>
-      <c r="FC20" s="7"/>
-      <c r="FD20" s="7"/>
-      <c r="FE20" s="7"/>
-      <c r="FF20" s="7"/>
-      <c r="FG20" s="7"/>
-      <c r="FH20" s="7"/>
-      <c r="FI20" s="7"/>
-      <c r="FJ20" s="7"/>
-      <c r="FK20" s="7"/>
-      <c r="FL20" s="7"/>
-      <c r="FM20" s="7"/>
-      <c r="FN20" s="7"/>
-      <c r="FO20" s="7"/>
-      <c r="FP20" s="7"/>
-      <c r="FQ20" s="7"/>
-      <c r="FR20" s="7"/>
     </row>
     <row r="21" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B21">
-        <f>$C21/$D21</f>
+        <f t="shared" si="0"/>
         <v>0.55433589462129529</v>
       </c>
       <c r="C21">
@@ -4938,171 +3671,13 @@
       <c r="P21" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
-      <c r="AX21" s="7"/>
-      <c r="AY21" s="7"/>
-      <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
-      <c r="BC21" s="7"/>
-      <c r="BD21" s="7"/>
-      <c r="BE21" s="7"/>
-      <c r="BF21" s="7"/>
-      <c r="BG21" s="7"/>
-      <c r="BH21" s="7"/>
-      <c r="BI21" s="7"/>
-      <c r="BJ21" s="7"/>
-      <c r="BK21" s="7"/>
-      <c r="BL21" s="7"/>
-      <c r="BM21" s="7"/>
-      <c r="BN21" s="7"/>
-      <c r="BO21" s="7"/>
-      <c r="BP21" s="7"/>
-      <c r="BQ21" s="7"/>
-      <c r="BR21" s="7"/>
-      <c r="BS21" s="7"/>
-      <c r="BT21" s="7"/>
-      <c r="BU21" s="7"/>
-      <c r="BV21" s="7"/>
-      <c r="BW21" s="7"/>
-      <c r="BX21" s="7"/>
-      <c r="BY21" s="7"/>
-      <c r="BZ21" s="7"/>
-      <c r="CA21" s="7"/>
-      <c r="CB21" s="7"/>
-      <c r="CC21" s="7"/>
-      <c r="CD21" s="7"/>
-      <c r="CE21" s="7"/>
-      <c r="CF21" s="7"/>
-      <c r="CG21" s="7"/>
-      <c r="CH21" s="7"/>
-      <c r="CI21" s="7"/>
-      <c r="CJ21" s="7"/>
-      <c r="CK21" s="7"/>
-      <c r="CL21" s="7"/>
-      <c r="CM21" s="7"/>
-      <c r="CN21" s="7"/>
-      <c r="CO21" s="7"/>
-      <c r="CP21" s="7"/>
-      <c r="CQ21" s="7"/>
-      <c r="CR21" s="7"/>
-      <c r="CS21" s="7"/>
-      <c r="CT21" s="7"/>
-      <c r="CU21" s="7"/>
-      <c r="CV21" s="7"/>
-      <c r="CW21" s="7"/>
-      <c r="CX21" s="7"/>
-      <c r="CY21" s="7"/>
-      <c r="CZ21" s="7"/>
-      <c r="DA21" s="7"/>
-      <c r="DB21" s="7"/>
-      <c r="DC21" s="7"/>
-      <c r="DD21" s="7"/>
-      <c r="DE21" s="7"/>
-      <c r="DF21" s="7"/>
-      <c r="DG21" s="7"/>
-      <c r="DH21" s="7"/>
-      <c r="DI21" s="7"/>
-      <c r="DJ21" s="7"/>
-      <c r="DK21" s="7"/>
-      <c r="DL21" s="7"/>
-      <c r="DM21" s="7"/>
-      <c r="DN21" s="7"/>
-      <c r="DO21" s="7"/>
-      <c r="DP21" s="7"/>
-      <c r="DQ21" s="7"/>
-      <c r="DR21" s="7"/>
-      <c r="DS21" s="7"/>
-      <c r="DT21" s="7"/>
-      <c r="DU21" s="7"/>
-      <c r="DV21" s="7"/>
-      <c r="DW21" s="7"/>
-      <c r="DX21" s="7"/>
-      <c r="DY21" s="7"/>
-      <c r="DZ21" s="7"/>
-      <c r="EA21" s="7"/>
-      <c r="EB21" s="7"/>
-      <c r="EC21" s="7"/>
-      <c r="ED21" s="7"/>
-      <c r="EE21" s="7"/>
-      <c r="EF21" s="7"/>
-      <c r="EG21" s="7"/>
-      <c r="EH21" s="7"/>
-      <c r="EI21" s="7"/>
-      <c r="EJ21" s="7"/>
-      <c r="EK21" s="7"/>
-      <c r="EL21" s="7"/>
-      <c r="EM21" s="7"/>
-      <c r="EN21" s="7"/>
-      <c r="EO21" s="7"/>
-      <c r="EP21" s="7"/>
-      <c r="EQ21" s="7"/>
-      <c r="ER21" s="7"/>
-      <c r="ES21" s="7"/>
-      <c r="ET21" s="7"/>
-      <c r="EU21" s="7"/>
-      <c r="EV21" s="7"/>
-      <c r="EW21" s="7"/>
-      <c r="EX21" s="7"/>
-      <c r="EY21" s="7"/>
-      <c r="EZ21" s="7"/>
-      <c r="FA21" s="7"/>
-      <c r="FB21" s="7"/>
-      <c r="FC21" s="7"/>
-      <c r="FD21" s="7"/>
-      <c r="FE21" s="7"/>
-      <c r="FF21" s="7"/>
-      <c r="FG21" s="7"/>
-      <c r="FH21" s="7"/>
-      <c r="FI21" s="7"/>
-      <c r="FJ21" s="7"/>
-      <c r="FK21" s="7"/>
-      <c r="FL21" s="7"/>
-      <c r="FM21" s="7"/>
-      <c r="FN21" s="7"/>
-      <c r="FO21" s="7"/>
-      <c r="FP21" s="7"/>
-      <c r="FQ21" s="7"/>
-      <c r="FR21" s="7"/>
     </row>
     <row r="22" spans="1:174" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22">
-        <f>$C22/$D22</f>
+        <f t="shared" si="0"/>
         <v>0.55374592833876224</v>
       </c>
       <c r="C22">
@@ -5145,171 +3720,171 @@
       <c r="P22" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="7"/>
-      <c r="AU22" s="7"/>
-      <c r="AV22" s="7"/>
-      <c r="AW22" s="7"/>
-      <c r="AX22" s="7"/>
-      <c r="AY22" s="7"/>
-      <c r="AZ22" s="7"/>
-      <c r="BA22" s="7"/>
-      <c r="BB22" s="7"/>
-      <c r="BC22" s="7"/>
-      <c r="BD22" s="7"/>
-      <c r="BE22" s="7"/>
-      <c r="BF22" s="7"/>
-      <c r="BG22" s="7"/>
-      <c r="BH22" s="7"/>
-      <c r="BI22" s="7"/>
-      <c r="BJ22" s="7"/>
-      <c r="BK22" s="7"/>
-      <c r="BL22" s="7"/>
-      <c r="BM22" s="7"/>
-      <c r="BN22" s="7"/>
-      <c r="BO22" s="7"/>
-      <c r="BP22" s="7"/>
-      <c r="BQ22" s="7"/>
-      <c r="BR22" s="7"/>
-      <c r="BS22" s="7"/>
-      <c r="BT22" s="7"/>
-      <c r="BU22" s="7"/>
-      <c r="BV22" s="7"/>
-      <c r="BW22" s="7"/>
-      <c r="BX22" s="7"/>
-      <c r="BY22" s="7"/>
-      <c r="BZ22" s="7"/>
-      <c r="CA22" s="7"/>
-      <c r="CB22" s="7"/>
-      <c r="CC22" s="7"/>
-      <c r="CD22" s="7"/>
-      <c r="CE22" s="7"/>
-      <c r="CF22" s="7"/>
-      <c r="CG22" s="7"/>
-      <c r="CH22" s="7"/>
-      <c r="CI22" s="7"/>
-      <c r="CJ22" s="7"/>
-      <c r="CK22" s="7"/>
-      <c r="CL22" s="7"/>
-      <c r="CM22" s="7"/>
-      <c r="CN22" s="7"/>
-      <c r="CO22" s="7"/>
-      <c r="CP22" s="7"/>
-      <c r="CQ22" s="7"/>
-      <c r="CR22" s="7"/>
-      <c r="CS22" s="7"/>
-      <c r="CT22" s="7"/>
-      <c r="CU22" s="7"/>
-      <c r="CV22" s="7"/>
-      <c r="CW22" s="7"/>
-      <c r="CX22" s="7"/>
-      <c r="CY22" s="7"/>
-      <c r="CZ22" s="7"/>
-      <c r="DA22" s="7"/>
-      <c r="DB22" s="7"/>
-      <c r="DC22" s="7"/>
-      <c r="DD22" s="7"/>
-      <c r="DE22" s="7"/>
-      <c r="DF22" s="7"/>
-      <c r="DG22" s="7"/>
-      <c r="DH22" s="7"/>
-      <c r="DI22" s="7"/>
-      <c r="DJ22" s="7"/>
-      <c r="DK22" s="7"/>
-      <c r="DL22" s="7"/>
-      <c r="DM22" s="7"/>
-      <c r="DN22" s="7"/>
-      <c r="DO22" s="7"/>
-      <c r="DP22" s="7"/>
-      <c r="DQ22" s="7"/>
-      <c r="DR22" s="7"/>
-      <c r="DS22" s="7"/>
-      <c r="DT22" s="7"/>
-      <c r="DU22" s="7"/>
-      <c r="DV22" s="7"/>
-      <c r="DW22" s="7"/>
-      <c r="DX22" s="7"/>
-      <c r="DY22" s="7"/>
-      <c r="DZ22" s="7"/>
-      <c r="EA22" s="7"/>
-      <c r="EB22" s="7"/>
-      <c r="EC22" s="7"/>
-      <c r="ED22" s="7"/>
-      <c r="EE22" s="7"/>
-      <c r="EF22" s="7"/>
-      <c r="EG22" s="7"/>
-      <c r="EH22" s="7"/>
-      <c r="EI22" s="7"/>
-      <c r="EJ22" s="7"/>
-      <c r="EK22" s="7"/>
-      <c r="EL22" s="7"/>
-      <c r="EM22" s="7"/>
-      <c r="EN22" s="7"/>
-      <c r="EO22" s="7"/>
-      <c r="EP22" s="7"/>
-      <c r="EQ22" s="7"/>
-      <c r="ER22" s="7"/>
-      <c r="ES22" s="7"/>
-      <c r="ET22" s="7"/>
-      <c r="EU22" s="7"/>
-      <c r="EV22" s="7"/>
-      <c r="EW22" s="7"/>
-      <c r="EX22" s="7"/>
-      <c r="EY22" s="7"/>
-      <c r="EZ22" s="7"/>
-      <c r="FA22" s="7"/>
-      <c r="FB22" s="7"/>
-      <c r="FC22" s="7"/>
-      <c r="FD22" s="7"/>
-      <c r="FE22" s="7"/>
-      <c r="FF22" s="7"/>
-      <c r="FG22" s="7"/>
-      <c r="FH22" s="7"/>
-      <c r="FI22" s="7"/>
-      <c r="FJ22" s="7"/>
-      <c r="FK22" s="7"/>
-      <c r="FL22" s="7"/>
-      <c r="FM22" s="7"/>
-      <c r="FN22" s="7"/>
-      <c r="FO22" s="7"/>
-      <c r="FP22" s="7"/>
-      <c r="FQ22" s="7"/>
-      <c r="FR22" s="7"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+      <c r="BL22"/>
+      <c r="BM22"/>
+      <c r="BN22"/>
+      <c r="BO22"/>
+      <c r="BP22"/>
+      <c r="BQ22"/>
+      <c r="BR22"/>
+      <c r="BS22"/>
+      <c r="BT22"/>
+      <c r="BU22"/>
+      <c r="BV22"/>
+      <c r="BW22"/>
+      <c r="BX22"/>
+      <c r="BY22"/>
+      <c r="BZ22"/>
+      <c r="CA22"/>
+      <c r="CB22"/>
+      <c r="CC22"/>
+      <c r="CD22"/>
+      <c r="CE22"/>
+      <c r="CF22"/>
+      <c r="CG22"/>
+      <c r="CH22"/>
+      <c r="CI22"/>
+      <c r="CJ22"/>
+      <c r="CK22"/>
+      <c r="CL22"/>
+      <c r="CM22"/>
+      <c r="CN22"/>
+      <c r="CO22"/>
+      <c r="CP22"/>
+      <c r="CQ22"/>
+      <c r="CR22"/>
+      <c r="CS22"/>
+      <c r="CT22"/>
+      <c r="CU22"/>
+      <c r="CV22"/>
+      <c r="CW22"/>
+      <c r="CX22"/>
+      <c r="CY22"/>
+      <c r="CZ22"/>
+      <c r="DA22"/>
+      <c r="DB22"/>
+      <c r="DC22"/>
+      <c r="DD22"/>
+      <c r="DE22"/>
+      <c r="DF22"/>
+      <c r="DG22"/>
+      <c r="DH22"/>
+      <c r="DI22"/>
+      <c r="DJ22"/>
+      <c r="DK22"/>
+      <c r="DL22"/>
+      <c r="DM22"/>
+      <c r="DN22"/>
+      <c r="DO22"/>
+      <c r="DP22"/>
+      <c r="DQ22"/>
+      <c r="DR22"/>
+      <c r="DS22"/>
+      <c r="DT22"/>
+      <c r="DU22"/>
+      <c r="DV22"/>
+      <c r="DW22"/>
+      <c r="DX22"/>
+      <c r="DY22"/>
+      <c r="DZ22"/>
+      <c r="EA22"/>
+      <c r="EB22"/>
+      <c r="EC22"/>
+      <c r="ED22"/>
+      <c r="EE22"/>
+      <c r="EF22"/>
+      <c r="EG22"/>
+      <c r="EH22"/>
+      <c r="EI22"/>
+      <c r="EJ22"/>
+      <c r="EK22"/>
+      <c r="EL22"/>
+      <c r="EM22"/>
+      <c r="EN22"/>
+      <c r="EO22"/>
+      <c r="EP22"/>
+      <c r="EQ22"/>
+      <c r="ER22"/>
+      <c r="ES22"/>
+      <c r="ET22"/>
+      <c r="EU22"/>
+      <c r="EV22"/>
+      <c r="EW22"/>
+      <c r="EX22"/>
+      <c r="EY22"/>
+      <c r="EZ22"/>
+      <c r="FA22"/>
+      <c r="FB22"/>
+      <c r="FC22"/>
+      <c r="FD22"/>
+      <c r="FE22"/>
+      <c r="FF22"/>
+      <c r="FG22"/>
+      <c r="FH22"/>
+      <c r="FI22"/>
+      <c r="FJ22"/>
+      <c r="FK22"/>
+      <c r="FL22"/>
+      <c r="FM22"/>
+      <c r="FN22"/>
+      <c r="FO22"/>
+      <c r="FP22"/>
+      <c r="FQ22"/>
+      <c r="FR22"/>
     </row>
     <row r="23" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="6">
-        <f>$C23/$D23</f>
+        <f t="shared" si="0"/>
         <v>0.5513866231647635</v>
       </c>
       <c r="C23" s="6">
@@ -5354,171 +3929,13 @@
       <c r="P23" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
-      <c r="AX23" s="7"/>
-      <c r="AY23" s="7"/>
-      <c r="AZ23" s="7"/>
-      <c r="BA23" s="7"/>
-      <c r="BB23" s="7"/>
-      <c r="BC23" s="7"/>
-      <c r="BD23" s="7"/>
-      <c r="BE23" s="7"/>
-      <c r="BF23" s="7"/>
-      <c r="BG23" s="7"/>
-      <c r="BH23" s="7"/>
-      <c r="BI23" s="7"/>
-      <c r="BJ23" s="7"/>
-      <c r="BK23" s="7"/>
-      <c r="BL23" s="7"/>
-      <c r="BM23" s="7"/>
-      <c r="BN23" s="7"/>
-      <c r="BO23" s="7"/>
-      <c r="BP23" s="7"/>
-      <c r="BQ23" s="7"/>
-      <c r="BR23" s="7"/>
-      <c r="BS23" s="7"/>
-      <c r="BT23" s="7"/>
-      <c r="BU23" s="7"/>
-      <c r="BV23" s="7"/>
-      <c r="BW23" s="7"/>
-      <c r="BX23" s="7"/>
-      <c r="BY23" s="7"/>
-      <c r="BZ23" s="7"/>
-      <c r="CA23" s="7"/>
-      <c r="CB23" s="7"/>
-      <c r="CC23" s="7"/>
-      <c r="CD23" s="7"/>
-      <c r="CE23" s="7"/>
-      <c r="CF23" s="7"/>
-      <c r="CG23" s="7"/>
-      <c r="CH23" s="7"/>
-      <c r="CI23" s="7"/>
-      <c r="CJ23" s="7"/>
-      <c r="CK23" s="7"/>
-      <c r="CL23" s="7"/>
-      <c r="CM23" s="7"/>
-      <c r="CN23" s="7"/>
-      <c r="CO23" s="7"/>
-      <c r="CP23" s="7"/>
-      <c r="CQ23" s="7"/>
-      <c r="CR23" s="7"/>
-      <c r="CS23" s="7"/>
-      <c r="CT23" s="7"/>
-      <c r="CU23" s="7"/>
-      <c r="CV23" s="7"/>
-      <c r="CW23" s="7"/>
-      <c r="CX23" s="7"/>
-      <c r="CY23" s="7"/>
-      <c r="CZ23" s="7"/>
-      <c r="DA23" s="7"/>
-      <c r="DB23" s="7"/>
-      <c r="DC23" s="7"/>
-      <c r="DD23" s="7"/>
-      <c r="DE23" s="7"/>
-      <c r="DF23" s="7"/>
-      <c r="DG23" s="7"/>
-      <c r="DH23" s="7"/>
-      <c r="DI23" s="7"/>
-      <c r="DJ23" s="7"/>
-      <c r="DK23" s="7"/>
-      <c r="DL23" s="7"/>
-      <c r="DM23" s="7"/>
-      <c r="DN23" s="7"/>
-      <c r="DO23" s="7"/>
-      <c r="DP23" s="7"/>
-      <c r="DQ23" s="7"/>
-      <c r="DR23" s="7"/>
-      <c r="DS23" s="7"/>
-      <c r="DT23" s="7"/>
-      <c r="DU23" s="7"/>
-      <c r="DV23" s="7"/>
-      <c r="DW23" s="7"/>
-      <c r="DX23" s="7"/>
-      <c r="DY23" s="7"/>
-      <c r="DZ23" s="7"/>
-      <c r="EA23" s="7"/>
-      <c r="EB23" s="7"/>
-      <c r="EC23" s="7"/>
-      <c r="ED23" s="7"/>
-      <c r="EE23" s="7"/>
-      <c r="EF23" s="7"/>
-      <c r="EG23" s="7"/>
-      <c r="EH23" s="7"/>
-      <c r="EI23" s="7"/>
-      <c r="EJ23" s="7"/>
-      <c r="EK23" s="7"/>
-      <c r="EL23" s="7"/>
-      <c r="EM23" s="7"/>
-      <c r="EN23" s="7"/>
-      <c r="EO23" s="7"/>
-      <c r="EP23" s="7"/>
-      <c r="EQ23" s="7"/>
-      <c r="ER23" s="7"/>
-      <c r="ES23" s="7"/>
-      <c r="ET23" s="7"/>
-      <c r="EU23" s="7"/>
-      <c r="EV23" s="7"/>
-      <c r="EW23" s="7"/>
-      <c r="EX23" s="7"/>
-      <c r="EY23" s="7"/>
-      <c r="EZ23" s="7"/>
-      <c r="FA23" s="7"/>
-      <c r="FB23" s="7"/>
-      <c r="FC23" s="7"/>
-      <c r="FD23" s="7"/>
-      <c r="FE23" s="7"/>
-      <c r="FF23" s="7"/>
-      <c r="FG23" s="7"/>
-      <c r="FH23" s="7"/>
-      <c r="FI23" s="7"/>
-      <c r="FJ23" s="7"/>
-      <c r="FK23" s="7"/>
-      <c r="FL23" s="7"/>
-      <c r="FM23" s="7"/>
-      <c r="FN23" s="7"/>
-      <c r="FO23" s="7"/>
-      <c r="FP23" s="7"/>
-      <c r="FQ23" s="7"/>
-      <c r="FR23" s="7"/>
     </row>
     <row r="24" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B24">
-        <f>$C24/$D24</f>
+        <f t="shared" si="0"/>
         <v>0.5444813584348468</v>
       </c>
       <c r="C24">
@@ -5563,171 +3980,13 @@
       <c r="P24" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
-      <c r="AT24" s="7"/>
-      <c r="AU24" s="7"/>
-      <c r="AV24" s="7"/>
-      <c r="AW24" s="7"/>
-      <c r="AX24" s="7"/>
-      <c r="AY24" s="7"/>
-      <c r="AZ24" s="7"/>
-      <c r="BA24" s="7"/>
-      <c r="BB24" s="7"/>
-      <c r="BC24" s="7"/>
-      <c r="BD24" s="7"/>
-      <c r="BE24" s="7"/>
-      <c r="BF24" s="7"/>
-      <c r="BG24" s="7"/>
-      <c r="BH24" s="7"/>
-      <c r="BI24" s="7"/>
-      <c r="BJ24" s="7"/>
-      <c r="BK24" s="7"/>
-      <c r="BL24" s="7"/>
-      <c r="BM24" s="7"/>
-      <c r="BN24" s="7"/>
-      <c r="BO24" s="7"/>
-      <c r="BP24" s="7"/>
-      <c r="BQ24" s="7"/>
-      <c r="BR24" s="7"/>
-      <c r="BS24" s="7"/>
-      <c r="BT24" s="7"/>
-      <c r="BU24" s="7"/>
-      <c r="BV24" s="7"/>
-      <c r="BW24" s="7"/>
-      <c r="BX24" s="7"/>
-      <c r="BY24" s="7"/>
-      <c r="BZ24" s="7"/>
-      <c r="CA24" s="7"/>
-      <c r="CB24" s="7"/>
-      <c r="CC24" s="7"/>
-      <c r="CD24" s="7"/>
-      <c r="CE24" s="7"/>
-      <c r="CF24" s="7"/>
-      <c r="CG24" s="7"/>
-      <c r="CH24" s="7"/>
-      <c r="CI24" s="7"/>
-      <c r="CJ24" s="7"/>
-      <c r="CK24" s="7"/>
-      <c r="CL24" s="7"/>
-      <c r="CM24" s="7"/>
-      <c r="CN24" s="7"/>
-      <c r="CO24" s="7"/>
-      <c r="CP24" s="7"/>
-      <c r="CQ24" s="7"/>
-      <c r="CR24" s="7"/>
-      <c r="CS24" s="7"/>
-      <c r="CT24" s="7"/>
-      <c r="CU24" s="7"/>
-      <c r="CV24" s="7"/>
-      <c r="CW24" s="7"/>
-      <c r="CX24" s="7"/>
-      <c r="CY24" s="7"/>
-      <c r="CZ24" s="7"/>
-      <c r="DA24" s="7"/>
-      <c r="DB24" s="7"/>
-      <c r="DC24" s="7"/>
-      <c r="DD24" s="7"/>
-      <c r="DE24" s="7"/>
-      <c r="DF24" s="7"/>
-      <c r="DG24" s="7"/>
-      <c r="DH24" s="7"/>
-      <c r="DI24" s="7"/>
-      <c r="DJ24" s="7"/>
-      <c r="DK24" s="7"/>
-      <c r="DL24" s="7"/>
-      <c r="DM24" s="7"/>
-      <c r="DN24" s="7"/>
-      <c r="DO24" s="7"/>
-      <c r="DP24" s="7"/>
-      <c r="DQ24" s="7"/>
-      <c r="DR24" s="7"/>
-      <c r="DS24" s="7"/>
-      <c r="DT24" s="7"/>
-      <c r="DU24" s="7"/>
-      <c r="DV24" s="7"/>
-      <c r="DW24" s="7"/>
-      <c r="DX24" s="7"/>
-      <c r="DY24" s="7"/>
-      <c r="DZ24" s="7"/>
-      <c r="EA24" s="7"/>
-      <c r="EB24" s="7"/>
-      <c r="EC24" s="7"/>
-      <c r="ED24" s="7"/>
-      <c r="EE24" s="7"/>
-      <c r="EF24" s="7"/>
-      <c r="EG24" s="7"/>
-      <c r="EH24" s="7"/>
-      <c r="EI24" s="7"/>
-      <c r="EJ24" s="7"/>
-      <c r="EK24" s="7"/>
-      <c r="EL24" s="7"/>
-      <c r="EM24" s="7"/>
-      <c r="EN24" s="7"/>
-      <c r="EO24" s="7"/>
-      <c r="EP24" s="7"/>
-      <c r="EQ24" s="7"/>
-      <c r="ER24" s="7"/>
-      <c r="ES24" s="7"/>
-      <c r="ET24" s="7"/>
-      <c r="EU24" s="7"/>
-      <c r="EV24" s="7"/>
-      <c r="EW24" s="7"/>
-      <c r="EX24" s="7"/>
-      <c r="EY24" s="7"/>
-      <c r="EZ24" s="7"/>
-      <c r="FA24" s="7"/>
-      <c r="FB24" s="7"/>
-      <c r="FC24" s="7"/>
-      <c r="FD24" s="7"/>
-      <c r="FE24" s="7"/>
-      <c r="FF24" s="7"/>
-      <c r="FG24" s="7"/>
-      <c r="FH24" s="7"/>
-      <c r="FI24" s="7"/>
-      <c r="FJ24" s="7"/>
-      <c r="FK24" s="7"/>
-      <c r="FL24" s="7"/>
-      <c r="FM24" s="7"/>
-      <c r="FN24" s="7"/>
-      <c r="FO24" s="7"/>
-      <c r="FP24" s="7"/>
-      <c r="FQ24" s="7"/>
-      <c r="FR24" s="7"/>
     </row>
     <row r="25" spans="1:174" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B25">
-        <f>$C25/$D25</f>
+        <f t="shared" si="0"/>
         <v>0.53162732023788073</v>
       </c>
       <c r="C25">
@@ -5772,171 +4031,171 @@
       <c r="P25" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="7"/>
-      <c r="AV25" s="7"/>
-      <c r="AW25" s="7"/>
-      <c r="AX25" s="7"/>
-      <c r="AY25" s="7"/>
-      <c r="AZ25" s="7"/>
-      <c r="BA25" s="7"/>
-      <c r="BB25" s="7"/>
-      <c r="BC25" s="7"/>
-      <c r="BD25" s="7"/>
-      <c r="BE25" s="7"/>
-      <c r="BF25" s="7"/>
-      <c r="BG25" s="7"/>
-      <c r="BH25" s="7"/>
-      <c r="BI25" s="7"/>
-      <c r="BJ25" s="7"/>
-      <c r="BK25" s="7"/>
-      <c r="BL25" s="7"/>
-      <c r="BM25" s="7"/>
-      <c r="BN25" s="7"/>
-      <c r="BO25" s="7"/>
-      <c r="BP25" s="7"/>
-      <c r="BQ25" s="7"/>
-      <c r="BR25" s="7"/>
-      <c r="BS25" s="7"/>
-      <c r="BT25" s="7"/>
-      <c r="BU25" s="7"/>
-      <c r="BV25" s="7"/>
-      <c r="BW25" s="7"/>
-      <c r="BX25" s="7"/>
-      <c r="BY25" s="7"/>
-      <c r="BZ25" s="7"/>
-      <c r="CA25" s="7"/>
-      <c r="CB25" s="7"/>
-      <c r="CC25" s="7"/>
-      <c r="CD25" s="7"/>
-      <c r="CE25" s="7"/>
-      <c r="CF25" s="7"/>
-      <c r="CG25" s="7"/>
-      <c r="CH25" s="7"/>
-      <c r="CI25" s="7"/>
-      <c r="CJ25" s="7"/>
-      <c r="CK25" s="7"/>
-      <c r="CL25" s="7"/>
-      <c r="CM25" s="7"/>
-      <c r="CN25" s="7"/>
-      <c r="CO25" s="7"/>
-      <c r="CP25" s="7"/>
-      <c r="CQ25" s="7"/>
-      <c r="CR25" s="7"/>
-      <c r="CS25" s="7"/>
-      <c r="CT25" s="7"/>
-      <c r="CU25" s="7"/>
-      <c r="CV25" s="7"/>
-      <c r="CW25" s="7"/>
-      <c r="CX25" s="7"/>
-      <c r="CY25" s="7"/>
-      <c r="CZ25" s="7"/>
-      <c r="DA25" s="7"/>
-      <c r="DB25" s="7"/>
-      <c r="DC25" s="7"/>
-      <c r="DD25" s="7"/>
-      <c r="DE25" s="7"/>
-      <c r="DF25" s="7"/>
-      <c r="DG25" s="7"/>
-      <c r="DH25" s="7"/>
-      <c r="DI25" s="7"/>
-      <c r="DJ25" s="7"/>
-      <c r="DK25" s="7"/>
-      <c r="DL25" s="7"/>
-      <c r="DM25" s="7"/>
-      <c r="DN25" s="7"/>
-      <c r="DO25" s="7"/>
-      <c r="DP25" s="7"/>
-      <c r="DQ25" s="7"/>
-      <c r="DR25" s="7"/>
-      <c r="DS25" s="7"/>
-      <c r="DT25" s="7"/>
-      <c r="DU25" s="7"/>
-      <c r="DV25" s="7"/>
-      <c r="DW25" s="7"/>
-      <c r="DX25" s="7"/>
-      <c r="DY25" s="7"/>
-      <c r="DZ25" s="7"/>
-      <c r="EA25" s="7"/>
-      <c r="EB25" s="7"/>
-      <c r="EC25" s="7"/>
-      <c r="ED25" s="7"/>
-      <c r="EE25" s="7"/>
-      <c r="EF25" s="7"/>
-      <c r="EG25" s="7"/>
-      <c r="EH25" s="7"/>
-      <c r="EI25" s="7"/>
-      <c r="EJ25" s="7"/>
-      <c r="EK25" s="7"/>
-      <c r="EL25" s="7"/>
-      <c r="EM25" s="7"/>
-      <c r="EN25" s="7"/>
-      <c r="EO25" s="7"/>
-      <c r="EP25" s="7"/>
-      <c r="EQ25" s="7"/>
-      <c r="ER25" s="7"/>
-      <c r="ES25" s="7"/>
-      <c r="ET25" s="7"/>
-      <c r="EU25" s="7"/>
-      <c r="EV25" s="7"/>
-      <c r="EW25" s="7"/>
-      <c r="EX25" s="7"/>
-      <c r="EY25" s="7"/>
-      <c r="EZ25" s="7"/>
-      <c r="FA25" s="7"/>
-      <c r="FB25" s="7"/>
-      <c r="FC25" s="7"/>
-      <c r="FD25" s="7"/>
-      <c r="FE25" s="7"/>
-      <c r="FF25" s="7"/>
-      <c r="FG25" s="7"/>
-      <c r="FH25" s="7"/>
-      <c r="FI25" s="7"/>
-      <c r="FJ25" s="7"/>
-      <c r="FK25" s="7"/>
-      <c r="FL25" s="7"/>
-      <c r="FM25" s="7"/>
-      <c r="FN25" s="7"/>
-      <c r="FO25" s="7"/>
-      <c r="FP25" s="7"/>
-      <c r="FQ25" s="7"/>
-      <c r="FR25" s="7"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+      <c r="BK25"/>
+      <c r="BL25"/>
+      <c r="BM25"/>
+      <c r="BN25"/>
+      <c r="BO25"/>
+      <c r="BP25"/>
+      <c r="BQ25"/>
+      <c r="BR25"/>
+      <c r="BS25"/>
+      <c r="BT25"/>
+      <c r="BU25"/>
+      <c r="BV25"/>
+      <c r="BW25"/>
+      <c r="BX25"/>
+      <c r="BY25"/>
+      <c r="BZ25"/>
+      <c r="CA25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
+      <c r="CD25"/>
+      <c r="CE25"/>
+      <c r="CF25"/>
+      <c r="CG25"/>
+      <c r="CH25"/>
+      <c r="CI25"/>
+      <c r="CJ25"/>
+      <c r="CK25"/>
+      <c r="CL25"/>
+      <c r="CM25"/>
+      <c r="CN25"/>
+      <c r="CO25"/>
+      <c r="CP25"/>
+      <c r="CQ25"/>
+      <c r="CR25"/>
+      <c r="CS25"/>
+      <c r="CT25"/>
+      <c r="CU25"/>
+      <c r="CV25"/>
+      <c r="CW25"/>
+      <c r="CX25"/>
+      <c r="CY25"/>
+      <c r="CZ25"/>
+      <c r="DA25"/>
+      <c r="DB25"/>
+      <c r="DC25"/>
+      <c r="DD25"/>
+      <c r="DE25"/>
+      <c r="DF25"/>
+      <c r="DG25"/>
+      <c r="DH25"/>
+      <c r="DI25"/>
+      <c r="DJ25"/>
+      <c r="DK25"/>
+      <c r="DL25"/>
+      <c r="DM25"/>
+      <c r="DN25"/>
+      <c r="DO25"/>
+      <c r="DP25"/>
+      <c r="DQ25"/>
+      <c r="DR25"/>
+      <c r="DS25"/>
+      <c r="DT25"/>
+      <c r="DU25"/>
+      <c r="DV25"/>
+      <c r="DW25"/>
+      <c r="DX25"/>
+      <c r="DY25"/>
+      <c r="DZ25"/>
+      <c r="EA25"/>
+      <c r="EB25"/>
+      <c r="EC25"/>
+      <c r="ED25"/>
+      <c r="EE25"/>
+      <c r="EF25"/>
+      <c r="EG25"/>
+      <c r="EH25"/>
+      <c r="EI25"/>
+      <c r="EJ25"/>
+      <c r="EK25"/>
+      <c r="EL25"/>
+      <c r="EM25"/>
+      <c r="EN25"/>
+      <c r="EO25"/>
+      <c r="EP25"/>
+      <c r="EQ25"/>
+      <c r="ER25"/>
+      <c r="ES25"/>
+      <c r="ET25"/>
+      <c r="EU25"/>
+      <c r="EV25"/>
+      <c r="EW25"/>
+      <c r="EX25"/>
+      <c r="EY25"/>
+      <c r="EZ25"/>
+      <c r="FA25"/>
+      <c r="FB25"/>
+      <c r="FC25"/>
+      <c r="FD25"/>
+      <c r="FE25"/>
+      <c r="FF25"/>
+      <c r="FG25"/>
+      <c r="FH25"/>
+      <c r="FI25"/>
+      <c r="FJ25"/>
+      <c r="FK25"/>
+      <c r="FL25"/>
+      <c r="FM25"/>
+      <c r="FN25"/>
+      <c r="FO25"/>
+      <c r="FP25"/>
+      <c r="FQ25"/>
+      <c r="FR25"/>
     </row>
     <row r="26" spans="1:174" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="6">
-        <f>$C26/$D26</f>
+        <f t="shared" si="0"/>
         <v>0.47673469387755096</v>
       </c>
       <c r="C26" s="6">
@@ -5981,176 +4240,6 @@
       <c r="P26" t="s">
         <v>63</v>
       </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="7"/>
-      <c r="AS26" s="7"/>
-      <c r="AT26" s="7"/>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="7"/>
-      <c r="AX26" s="7"/>
-      <c r="AY26" s="7"/>
-      <c r="AZ26" s="7"/>
-      <c r="BA26" s="7"/>
-      <c r="BB26" s="7"/>
-      <c r="BC26" s="7"/>
-      <c r="BD26" s="7"/>
-      <c r="BE26" s="7"/>
-      <c r="BF26" s="7"/>
-      <c r="BG26" s="7"/>
-      <c r="BH26" s="7"/>
-      <c r="BI26" s="7"/>
-      <c r="BJ26" s="7"/>
-      <c r="BK26" s="7"/>
-      <c r="BL26" s="7"/>
-      <c r="BM26" s="7"/>
-      <c r="BN26" s="7"/>
-      <c r="BO26" s="7"/>
-      <c r="BP26" s="7"/>
-      <c r="BQ26" s="7"/>
-      <c r="BR26" s="7"/>
-      <c r="BS26" s="7"/>
-      <c r="BT26" s="7"/>
-      <c r="BU26" s="7"/>
-      <c r="BV26" s="7"/>
-      <c r="BW26" s="7"/>
-      <c r="BX26" s="7"/>
-      <c r="BY26" s="7"/>
-      <c r="BZ26" s="7"/>
-      <c r="CA26" s="7"/>
-      <c r="CB26" s="7"/>
-      <c r="CC26" s="7"/>
-      <c r="CD26" s="7"/>
-      <c r="CE26" s="7"/>
-      <c r="CF26" s="7"/>
-      <c r="CG26" s="7"/>
-      <c r="CH26" s="7"/>
-      <c r="CI26" s="7"/>
-      <c r="CJ26" s="7"/>
-      <c r="CK26" s="7"/>
-      <c r="CL26" s="7"/>
-      <c r="CM26" s="7"/>
-      <c r="CN26" s="7"/>
-      <c r="CO26" s="7"/>
-      <c r="CP26" s="7"/>
-      <c r="CQ26" s="7"/>
-      <c r="CR26" s="7"/>
-      <c r="CS26" s="7"/>
-      <c r="CT26" s="7"/>
-      <c r="CU26" s="7"/>
-      <c r="CV26" s="7"/>
-      <c r="CW26" s="7"/>
-      <c r="CX26" s="7"/>
-      <c r="CY26" s="7"/>
-      <c r="CZ26" s="7"/>
-      <c r="DA26" s="7"/>
-      <c r="DB26" s="7"/>
-      <c r="DC26" s="7"/>
-      <c r="DD26" s="7"/>
-      <c r="DE26" s="7"/>
-      <c r="DF26" s="7"/>
-      <c r="DG26" s="7"/>
-      <c r="DH26" s="7"/>
-      <c r="DI26" s="7"/>
-      <c r="DJ26" s="7"/>
-      <c r="DK26" s="7"/>
-      <c r="DL26" s="7"/>
-      <c r="DM26" s="7"/>
-      <c r="DN26" s="7"/>
-      <c r="DO26" s="7"/>
-      <c r="DP26" s="7"/>
-      <c r="DQ26" s="7"/>
-      <c r="DR26" s="7"/>
-      <c r="DS26" s="7"/>
-      <c r="DT26" s="7"/>
-      <c r="DU26" s="7"/>
-      <c r="DV26" s="7"/>
-      <c r="DW26" s="7"/>
-      <c r="DX26" s="7"/>
-      <c r="DY26" s="7"/>
-      <c r="DZ26" s="7"/>
-      <c r="EA26" s="7"/>
-      <c r="EB26" s="7"/>
-      <c r="EC26" s="7"/>
-      <c r="ED26" s="7"/>
-      <c r="EE26" s="7"/>
-      <c r="EF26" s="7"/>
-      <c r="EG26" s="7"/>
-      <c r="EH26" s="7"/>
-      <c r="EI26" s="7"/>
-      <c r="EJ26" s="7"/>
-      <c r="EK26" s="7"/>
-      <c r="EL26" s="7"/>
-      <c r="EM26" s="7"/>
-      <c r="EN26" s="7"/>
-      <c r="EO26" s="7"/>
-      <c r="EP26" s="7"/>
-      <c r="EQ26" s="7"/>
-      <c r="ER26" s="7"/>
-      <c r="ES26" s="7"/>
-      <c r="ET26" s="7"/>
-      <c r="EU26" s="7"/>
-      <c r="EV26" s="7"/>
-      <c r="EW26" s="7"/>
-      <c r="EX26" s="7"/>
-      <c r="EY26" s="7"/>
-      <c r="EZ26" s="7"/>
-      <c r="FA26" s="7"/>
-      <c r="FB26" s="7"/>
-      <c r="FC26" s="7"/>
-      <c r="FD26" s="7"/>
-      <c r="FE26" s="7"/>
-      <c r="FF26" s="7"/>
-      <c r="FG26" s="7"/>
-      <c r="FH26" s="7"/>
-      <c r="FI26" s="7"/>
-      <c r="FJ26" s="7"/>
-      <c r="FK26" s="7"/>
-      <c r="FL26" s="7"/>
-      <c r="FM26" s="7"/>
-      <c r="FN26" s="7"/>
-      <c r="FO26" s="7"/>
-      <c r="FP26" s="7"/>
-      <c r="FQ26" s="7"/>
-      <c r="FR26" s="7"/>
-    </row>
-    <row r="27" spans="1:174" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:174" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:174" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:174" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q30">
